--- a/data/Enforcement_Policies_Data.xlsx
+++ b/data/Enforcement_Policies_Data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27715"/>
+  <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhou/Documents/Projects/state-immigration/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-465" windowWidth="28800" windowHeight="15600" tabRatio="758" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15600" tabRatio="758" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="287(g) Policies" sheetId="4" r:id="rId1"/>
@@ -24,8 +29,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'287(g) Policies'!$A$1:$AT$108</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'287(g) Policies'!$A:$BD</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -2257,6 +2265,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Lato"/>
+        <family val="2"/>
       </rPr>
       <t>with the most immigrants had an agreement</t>
     </r>
@@ -3073,45 +3082,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3125,6 +3095,45 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3208,6 +3217,87 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3225,87 +3315,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -3379,12 +3388,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -3414,12 +3423,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -3634,178 +3643,178 @@
       <selection pane="topRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="56" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="51" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="51" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="51" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="51" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="51" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="51" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="51" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" style="51" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="51" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="51" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" style="51" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" style="51" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" style="51" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="51" customWidth="1"/>
-    <col min="16" max="16" width="10.85546875" style="51" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" style="32" customWidth="1"/>
-    <col min="18" max="18" width="18.42578125" style="32" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="32" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="32" customWidth="1"/>
-    <col min="21" max="21" width="20.42578125" style="32" customWidth="1"/>
-    <col min="22" max="22" width="10.140625" style="32" customWidth="1"/>
-    <col min="23" max="23" width="13.7109375" style="32" customWidth="1"/>
-    <col min="24" max="24" width="23.140625" style="32" customWidth="1"/>
-    <col min="25" max="25" width="9.140625" style="32" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="32" customWidth="1"/>
-    <col min="27" max="27" width="15.85546875" style="32" customWidth="1"/>
-    <col min="28" max="28" width="10.140625" style="32" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="56" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="51" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" style="51" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="51" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="51" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" style="51" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" style="51" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="51" customWidth="1"/>
+    <col min="9" max="9" width="21.5" style="51" customWidth="1"/>
+    <col min="10" max="10" width="9.1640625" style="51" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" style="51" customWidth="1"/>
+    <col min="12" max="12" width="15.5" style="51" customWidth="1"/>
+    <col min="13" max="13" width="10.1640625" style="51" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" style="51" customWidth="1"/>
+    <col min="15" max="15" width="14.5" style="51" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="51" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" style="32" customWidth="1"/>
+    <col min="18" max="18" width="18.5" style="32" customWidth="1"/>
+    <col min="19" max="19" width="11.5" style="32" customWidth="1"/>
+    <col min="20" max="20" width="14.83203125" style="32" customWidth="1"/>
+    <col min="21" max="21" width="20.5" style="32" customWidth="1"/>
+    <col min="22" max="22" width="10.1640625" style="32" customWidth="1"/>
+    <col min="23" max="23" width="13.6640625" style="32" customWidth="1"/>
+    <col min="24" max="24" width="23.1640625" style="32" customWidth="1"/>
+    <col min="25" max="25" width="9.1640625" style="32" customWidth="1"/>
+    <col min="26" max="26" width="13.5" style="32" customWidth="1"/>
+    <col min="27" max="27" width="15.83203125" style="32" customWidth="1"/>
+    <col min="28" max="28" width="10.1640625" style="32" customWidth="1"/>
     <col min="29" max="29" width="14" style="32" customWidth="1"/>
-    <col min="30" max="30" width="23.42578125" style="32" customWidth="1"/>
-    <col min="31" max="31" width="9.140625" style="32" customWidth="1"/>
-    <col min="32" max="32" width="21.85546875" style="32" customWidth="1"/>
-    <col min="33" max="33" width="25.85546875" style="32" customWidth="1"/>
-    <col min="34" max="34" width="9.140625" style="32" customWidth="1"/>
-    <col min="35" max="37" width="18.28515625" style="32" customWidth="1"/>
-    <col min="38" max="42" width="20.42578125" style="32" customWidth="1"/>
-    <col min="43" max="43" width="18.7109375" style="32" customWidth="1"/>
-    <col min="44" max="44" width="13.140625" style="51" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="25.42578125" style="51" customWidth="1"/>
-    <col min="46" max="46" width="7.42578125" style="51" bestFit="1" customWidth="1"/>
-    <col min="47" max="16384" width="8.85546875" style="51"/>
+    <col min="30" max="30" width="23.5" style="32" customWidth="1"/>
+    <col min="31" max="31" width="9.1640625" style="32" customWidth="1"/>
+    <col min="32" max="32" width="21.83203125" style="32" customWidth="1"/>
+    <col min="33" max="33" width="25.83203125" style="32" customWidth="1"/>
+    <col min="34" max="34" width="9.1640625" style="32" customWidth="1"/>
+    <col min="35" max="37" width="18.33203125" style="32" customWidth="1"/>
+    <col min="38" max="42" width="20.5" style="32" customWidth="1"/>
+    <col min="43" max="43" width="18.6640625" style="32" customWidth="1"/>
+    <col min="44" max="44" width="13.1640625" style="51" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="25.5" style="51" customWidth="1"/>
+    <col min="46" max="46" width="7.5" style="51" bestFit="1" customWidth="1"/>
+    <col min="47" max="16384" width="8.83203125" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A1" s="191" t="s">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A1" s="205" t="s">
         <v>341</v>
       </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="191"/>
-      <c r="O1" s="191"/>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="191"/>
-      <c r="R1" s="191"/>
-      <c r="S1" s="191"/>
-      <c r="T1" s="191"/>
-      <c r="U1" s="191"/>
-      <c r="V1" s="191"/>
-      <c r="W1" s="191"/>
-      <c r="X1" s="191"/>
-      <c r="Y1" s="191"/>
-      <c r="Z1" s="191"/>
-      <c r="AA1" s="191"/>
-      <c r="AB1" s="191"/>
-      <c r="AC1" s="191"/>
-      <c r="AD1" s="191"/>
-      <c r="AE1" s="191"/>
-      <c r="AF1" s="191"/>
-      <c r="AG1" s="191"/>
-      <c r="AH1" s="191"/>
-      <c r="AI1" s="191"/>
-      <c r="AJ1" s="191"/>
-      <c r="AK1" s="191"/>
-      <c r="AL1" s="191"/>
-      <c r="AM1" s="191"/>
-      <c r="AN1" s="191"/>
-      <c r="AO1" s="191"/>
-      <c r="AP1" s="191"/>
-      <c r="AQ1" s="191"/>
-    </row>
-    <row r="2" spans="1:46" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="189"/>
-      <c r="B2" s="194">
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="205"/>
+      <c r="I1" s="205"/>
+      <c r="J1" s="205"/>
+      <c r="K1" s="205"/>
+      <c r="L1" s="205"/>
+      <c r="M1" s="205"/>
+      <c r="N1" s="205"/>
+      <c r="O1" s="205"/>
+      <c r="P1" s="205"/>
+      <c r="Q1" s="205"/>
+      <c r="R1" s="205"/>
+      <c r="S1" s="205"/>
+      <c r="T1" s="205"/>
+      <c r="U1" s="205"/>
+      <c r="V1" s="205"/>
+      <c r="W1" s="205"/>
+      <c r="X1" s="205"/>
+      <c r="Y1" s="205"/>
+      <c r="Z1" s="205"/>
+      <c r="AA1" s="205"/>
+      <c r="AB1" s="205"/>
+      <c r="AC1" s="205"/>
+      <c r="AD1" s="205"/>
+      <c r="AE1" s="205"/>
+      <c r="AF1" s="205"/>
+      <c r="AG1" s="205"/>
+      <c r="AH1" s="205"/>
+      <c r="AI1" s="205"/>
+      <c r="AJ1" s="205"/>
+      <c r="AK1" s="205"/>
+      <c r="AL1" s="205"/>
+      <c r="AM1" s="205"/>
+      <c r="AN1" s="205"/>
+      <c r="AO1" s="205"/>
+      <c r="AP1" s="205"/>
+      <c r="AQ1" s="205"/>
+    </row>
+    <row r="2" spans="1:46" s="65" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="197"/>
+      <c r="B2" s="193">
         <v>2002</v>
       </c>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194">
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193">
         <v>2003</v>
       </c>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194">
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193">
         <v>2004</v>
       </c>
-      <c r="I2" s="194"/>
-      <c r="J2" s="194"/>
-      <c r="K2" s="194">
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193">
         <v>2005</v>
       </c>
-      <c r="L2" s="194"/>
-      <c r="M2" s="194"/>
-      <c r="N2" s="194">
+      <c r="L2" s="193"/>
+      <c r="M2" s="193"/>
+      <c r="N2" s="193">
         <v>2006</v>
       </c>
-      <c r="O2" s="194"/>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="194">
+      <c r="O2" s="193"/>
+      <c r="P2" s="193"/>
+      <c r="Q2" s="193">
         <v>2007</v>
       </c>
-      <c r="R2" s="194"/>
-      <c r="S2" s="194"/>
-      <c r="T2" s="194">
+      <c r="R2" s="193"/>
+      <c r="S2" s="193"/>
+      <c r="T2" s="193">
         <v>2008</v>
       </c>
-      <c r="U2" s="194"/>
-      <c r="V2" s="194"/>
-      <c r="W2" s="194">
+      <c r="U2" s="193"/>
+      <c r="V2" s="193"/>
+      <c r="W2" s="193">
         <v>2009</v>
       </c>
-      <c r="X2" s="194"/>
-      <c r="Y2" s="194"/>
-      <c r="Z2" s="194">
+      <c r="X2" s="193"/>
+      <c r="Y2" s="193"/>
+      <c r="Z2" s="193">
         <v>2010</v>
       </c>
-      <c r="AA2" s="194"/>
-      <c r="AB2" s="194"/>
-      <c r="AC2" s="194">
+      <c r="AA2" s="193"/>
+      <c r="AB2" s="193"/>
+      <c r="AC2" s="193">
         <v>2011</v>
       </c>
-      <c r="AD2" s="194"/>
-      <c r="AE2" s="194"/>
-      <c r="AF2" s="194">
+      <c r="AD2" s="193"/>
+      <c r="AE2" s="193"/>
+      <c r="AF2" s="193">
         <v>2012</v>
       </c>
-      <c r="AG2" s="194"/>
-      <c r="AH2" s="194"/>
-      <c r="AI2" s="194">
+      <c r="AG2" s="193"/>
+      <c r="AH2" s="193"/>
+      <c r="AI2" s="193">
         <v>2013</v>
       </c>
-      <c r="AJ2" s="194"/>
-      <c r="AK2" s="194"/>
-      <c r="AL2" s="194">
+      <c r="AJ2" s="193"/>
+      <c r="AK2" s="193"/>
+      <c r="AL2" s="193">
         <v>2014</v>
       </c>
-      <c r="AM2" s="194"/>
-      <c r="AN2" s="194"/>
-      <c r="AO2" s="194">
+      <c r="AM2" s="193"/>
+      <c r="AN2" s="193"/>
+      <c r="AO2" s="193">
         <v>2015</v>
       </c>
-      <c r="AP2" s="194"/>
-      <c r="AQ2" s="194"/>
-      <c r="AR2" s="194">
+      <c r="AP2" s="193"/>
+      <c r="AQ2" s="193"/>
+      <c r="AR2" s="193">
         <v>2016</v>
       </c>
-      <c r="AS2" s="194"/>
-      <c r="AT2" s="194"/>
-    </row>
-    <row r="3" spans="1:46" s="56" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="190"/>
+      <c r="AS2" s="193"/>
+      <c r="AT2" s="193"/>
+    </row>
+    <row r="3" spans="1:46" s="56" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+      <c r="A3" s="198"/>
       <c r="B3" s="63" t="s">
         <v>81</v>
       </c>
@@ -3942,8 +3951,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:46" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="192" t="s">
+    <row r="4" spans="1:46" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="199" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="7"/>
@@ -4076,8 +4085,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="193"/>
+    <row r="5" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A5" s="201"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
@@ -4148,7 +4157,7 @@
       <c r="AS5" s="2"/>
       <c r="AT5" s="3"/>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A6" s="59" t="s">
         <v>1</v>
       </c>
@@ -4194,8 +4203,8 @@
       <c r="AS6" s="5"/>
       <c r="AT6" s="6"/>
     </row>
-    <row r="7" spans="1:46" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="192" t="s">
+    <row r="7" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A7" s="199" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="7"/>
@@ -4316,8 +4325,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="198"/>
+    <row r="8" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A8" s="200"/>
       <c r="B8" s="42"/>
       <c r="C8" s="32"/>
       <c r="D8" s="33"/>
@@ -4424,8 +4433,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="198"/>
+    <row r="9" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A9" s="200"/>
       <c r="B9" s="42"/>
       <c r="C9" s="32"/>
       <c r="D9" s="33"/>
@@ -4532,8 +4541,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="198"/>
+    <row r="10" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A10" s="200"/>
       <c r="B10" s="42"/>
       <c r="C10" s="32"/>
       <c r="D10" s="33"/>
@@ -4632,8 +4641,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="198"/>
+    <row r="11" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A11" s="200"/>
       <c r="B11" s="42"/>
       <c r="C11" s="32"/>
       <c r="D11" s="33"/>
@@ -4697,8 +4706,8 @@
       <c r="AS11" s="32"/>
       <c r="AT11" s="33"/>
     </row>
-    <row r="12" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="198"/>
+    <row r="12" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A12" s="200"/>
       <c r="B12" s="42"/>
       <c r="C12" s="32"/>
       <c r="D12" s="33"/>
@@ -4763,8 +4772,8 @@
       <c r="AS12" s="32"/>
       <c r="AT12" s="33"/>
     </row>
-    <row r="13" spans="1:46" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="198"/>
+    <row r="13" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A13" s="200"/>
       <c r="B13" s="42"/>
       <c r="C13" s="32"/>
       <c r="D13" s="33"/>
@@ -4829,8 +4838,8 @@
       <c r="AS13" s="32"/>
       <c r="AT13" s="33"/>
     </row>
-    <row r="14" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="198"/>
+    <row r="14" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A14" s="200"/>
       <c r="B14" s="42"/>
       <c r="C14" s="32"/>
       <c r="D14" s="33"/>
@@ -4887,8 +4896,8 @@
       <c r="AS14" s="32"/>
       <c r="AT14" s="33"/>
     </row>
-    <row r="15" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="198"/>
+    <row r="15" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A15" s="200"/>
       <c r="B15" s="42"/>
       <c r="C15" s="32"/>
       <c r="D15" s="33"/>
@@ -4945,8 +4954,8 @@
       <c r="AS15" s="32"/>
       <c r="AT15" s="33"/>
     </row>
-    <row r="16" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="198"/>
+    <row r="16" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A16" s="200"/>
       <c r="B16" s="42"/>
       <c r="C16" s="32"/>
       <c r="D16" s="33"/>
@@ -4996,8 +5005,8 @@
       <c r="AS16" s="2"/>
       <c r="AT16" s="3"/>
     </row>
-    <row r="17" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="192" t="s">
+    <row r="17" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A17" s="199" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="7"/>
@@ -5106,8 +5115,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:46" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A18" s="198"/>
+    <row r="18" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A18" s="200"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
       <c r="D18" s="33"/>
@@ -5214,8 +5223,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:46" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="198"/>
+    <row r="19" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A19" s="200"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
       <c r="D19" s="33"/>
@@ -5294,8 +5303,8 @@
       <c r="AS19" s="32"/>
       <c r="AT19" s="33"/>
     </row>
-    <row r="20" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="193"/>
+    <row r="20" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A20" s="201"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
@@ -5377,8 +5386,8 @@
       <c r="AS20" s="2"/>
       <c r="AT20" s="3"/>
     </row>
-    <row r="21" spans="1:46" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="192" t="s">
+    <row r="21" spans="1:46" ht="39" x14ac:dyDescent="0.15">
+      <c r="A21" s="199" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="7"/>
@@ -5499,8 +5508,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:46" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="198"/>
+    <row r="22" spans="1:46" ht="39" x14ac:dyDescent="0.15">
+      <c r="A22" s="200"/>
       <c r="B22" s="42"/>
       <c r="C22" s="32"/>
       <c r="D22" s="33"/>
@@ -5613,8 +5622,8 @@
       <c r="AS22" s="32"/>
       <c r="AT22" s="33"/>
     </row>
-    <row r="23" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="198"/>
+    <row r="23" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A23" s="200"/>
       <c r="B23" s="42"/>
       <c r="C23" s="32"/>
       <c r="D23" s="33"/>
@@ -5698,8 +5707,8 @@
       <c r="AS23" s="32"/>
       <c r="AT23" s="33"/>
     </row>
-    <row r="24" spans="1:46" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="193"/>
+    <row r="24" spans="1:46" ht="39" x14ac:dyDescent="0.15">
+      <c r="A24" s="201"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
@@ -5788,8 +5797,8 @@
       <c r="AS24" s="2"/>
       <c r="AT24" s="3"/>
     </row>
-    <row r="25" spans="1:46" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="192" t="s">
+    <row r="25" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A25" s="199" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="7"/>
@@ -5886,8 +5895,8 @@
       <c r="AS25" s="8"/>
       <c r="AT25" s="9"/>
     </row>
-    <row r="26" spans="1:46" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="193"/>
+    <row r="26" spans="1:46" ht="39" x14ac:dyDescent="0.15">
+      <c r="A26" s="201"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
       <c r="D26" s="3"/>
@@ -5970,7 +5979,7 @@
       <c r="AS26" s="2"/>
       <c r="AT26" s="3"/>
     </row>
-    <row r="27" spans="1:46" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:46" ht="26" x14ac:dyDescent="0.15">
       <c r="A27" s="57" t="s">
         <v>6</v>
       </c>
@@ -6044,7 +6053,7 @@
       <c r="AS27" s="5"/>
       <c r="AT27" s="6"/>
     </row>
-    <row r="28" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:46" ht="26" x14ac:dyDescent="0.15">
       <c r="A28" s="57" t="s">
         <v>7</v>
       </c>
@@ -6112,7 +6121,7 @@
       <c r="AS28" s="5"/>
       <c r="AT28" s="6"/>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A29" s="59" t="s">
         <v>234</v>
       </c>
@@ -6162,8 +6171,8 @@
       <c r="AS29" s="5"/>
       <c r="AT29" s="6"/>
     </row>
-    <row r="30" spans="1:46" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="195" t="s">
+    <row r="30" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A30" s="202" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="39">
@@ -6302,8 +6311,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="197"/>
+    <row r="31" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A31" s="204"/>
       <c r="B31" s="31"/>
       <c r="C31" s="32"/>
       <c r="D31" s="33"/>
@@ -6410,8 +6419,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="197"/>
+    <row r="32" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A32" s="204"/>
       <c r="B32" s="42"/>
       <c r="C32" s="32"/>
       <c r="D32" s="33"/>
@@ -6482,8 +6491,8 @@
       <c r="AS32" s="32"/>
       <c r="AT32" s="33"/>
     </row>
-    <row r="33" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="197"/>
+    <row r="33" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A33" s="204"/>
       <c r="B33" s="42"/>
       <c r="C33" s="32"/>
       <c r="D33" s="33"/>
@@ -6554,8 +6563,8 @@
       <c r="AS33" s="32"/>
       <c r="AT33" s="33"/>
     </row>
-    <row r="34" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="197"/>
+    <row r="34" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A34" s="204"/>
       <c r="B34" s="42"/>
       <c r="C34" s="32"/>
       <c r="D34" s="33"/>
@@ -6604,8 +6613,8 @@
       <c r="AS34" s="32"/>
       <c r="AT34" s="33"/>
     </row>
-    <row r="35" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="197"/>
+    <row r="35" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A35" s="204"/>
       <c r="B35" s="42"/>
       <c r="C35" s="32"/>
       <c r="D35" s="33"/>
@@ -6654,8 +6663,8 @@
       <c r="AS35" s="32"/>
       <c r="AT35" s="33"/>
     </row>
-    <row r="36" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A36" s="196"/>
+    <row r="36" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A36" s="203"/>
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
       <c r="D36" s="3"/>
@@ -6696,8 +6705,8 @@
       <c r="AS36" s="2"/>
       <c r="AT36" s="3"/>
     </row>
-    <row r="37" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="195" t="s">
+    <row r="37" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A37" s="202" t="s">
         <v>9</v>
       </c>
       <c r="B37" s="7"/>
@@ -6806,8 +6815,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="197"/>
+    <row r="38" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A38" s="204"/>
       <c r="B38" s="42"/>
       <c r="C38" s="32"/>
       <c r="D38" s="33"/>
@@ -6914,8 +6923,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="197"/>
+    <row r="39" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A39" s="204"/>
       <c r="B39" s="42"/>
       <c r="C39" s="32"/>
       <c r="D39" s="33"/>
@@ -7015,8 +7024,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="197"/>
+    <row r="40" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A40" s="204"/>
       <c r="B40" s="42"/>
       <c r="C40" s="32"/>
       <c r="D40" s="33"/>
@@ -7116,8 +7125,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="196"/>
+    <row r="41" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A41" s="203"/>
       <c r="B41" s="1"/>
       <c r="C41" s="2"/>
       <c r="D41" s="3"/>
@@ -7188,7 +7197,7 @@
       <c r="AS41" s="2"/>
       <c r="AT41" s="3"/>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A42" s="58" t="s">
         <v>10</v>
       </c>
@@ -7238,7 +7247,7 @@
       <c r="AS42" s="5"/>
       <c r="AT42" s="6"/>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A43" s="58" t="s">
         <v>11</v>
       </c>
@@ -7288,7 +7297,7 @@
       <c r="AS43" s="5"/>
       <c r="AT43" s="6"/>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A44" s="58" t="s">
         <v>12</v>
       </c>
@@ -7338,7 +7347,7 @@
       <c r="AS44" s="5"/>
       <c r="AT44" s="6"/>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A45" s="58" t="s">
         <v>13</v>
       </c>
@@ -7388,7 +7397,7 @@
       <c r="AS45" s="5"/>
       <c r="AT45" s="6"/>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A46" s="58" t="s">
         <v>14</v>
       </c>
@@ -7438,7 +7447,7 @@
       <c r="AS46" s="5"/>
       <c r="AT46" s="6"/>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A47" s="58" t="s">
         <v>15</v>
       </c>
@@ -7488,7 +7497,7 @@
       <c r="AS47" s="5"/>
       <c r="AT47" s="6"/>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A48" s="58" t="s">
         <v>16</v>
       </c>
@@ -7538,7 +7547,7 @@
       <c r="AS48" s="5"/>
       <c r="AT48" s="6"/>
     </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A49" s="58" t="s">
         <v>17</v>
       </c>
@@ -7588,7 +7597,7 @@
       <c r="AS49" s="5"/>
       <c r="AT49" s="6"/>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A50" s="58" t="s">
         <v>18</v>
       </c>
@@ -7638,8 +7647,8 @@
       <c r="AS50" s="8"/>
       <c r="AT50" s="9"/>
     </row>
-    <row r="51" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="199" t="s">
+    <row r="51" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A51" s="194" t="s">
         <v>19</v>
       </c>
       <c r="B51" s="39"/>
@@ -7742,8 +7751,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A52" s="200"/>
+    <row r="52" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A52" s="195"/>
       <c r="B52" s="36"/>
       <c r="C52" s="2"/>
       <c r="D52" s="3"/>
@@ -7796,8 +7805,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:46" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="188" t="s">
+    <row r="53" spans="1:46" ht="39" x14ac:dyDescent="0.15">
+      <c r="A53" s="196" t="s">
         <v>20</v>
       </c>
       <c r="B53" s="7"/>
@@ -7906,8 +7915,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="189"/>
+    <row r="54" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A54" s="197"/>
       <c r="B54" s="42"/>
       <c r="C54" s="32"/>
       <c r="D54" s="33"/>
@@ -7965,8 +7974,8 @@
       <c r="AS54" s="32"/>
       <c r="AT54" s="33"/>
     </row>
-    <row r="55" spans="1:46" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="190"/>
+    <row r="55" spans="1:46" ht="39" x14ac:dyDescent="0.15">
+      <c r="A55" s="198"/>
       <c r="B55" s="1"/>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
@@ -8027,7 +8036,7 @@
       <c r="AS55" s="2"/>
       <c r="AT55" s="3"/>
     </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A56" s="58" t="s">
         <v>48</v>
       </c>
@@ -8077,7 +8086,7 @@
       <c r="AS56" s="5"/>
       <c r="AT56" s="6"/>
     </row>
-    <row r="57" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:46" ht="26" x14ac:dyDescent="0.15">
       <c r="A57" s="58" t="s">
         <v>21</v>
       </c>
@@ -8151,7 +8160,7 @@
       <c r="AS57" s="5"/>
       <c r="AT57" s="6"/>
     </row>
-    <row r="58" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A58" s="58" t="s">
         <v>22</v>
       </c>
@@ -8201,7 +8210,7 @@
       <c r="AS58" s="5"/>
       <c r="AT58" s="6"/>
     </row>
-    <row r="59" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:46" ht="26" x14ac:dyDescent="0.15">
       <c r="A59" s="58" t="s">
         <v>23</v>
       </c>
@@ -8275,7 +8284,7 @@
       <c r="AS59" s="5"/>
       <c r="AT59" s="6"/>
     </row>
-    <row r="60" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A60" s="58" t="s">
         <v>24</v>
       </c>
@@ -8325,7 +8334,7 @@
       <c r="AS60" s="5"/>
       <c r="AT60" s="6"/>
     </row>
-    <row r="61" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A61" s="58" t="s">
         <v>25</v>
       </c>
@@ -8375,7 +8384,7 @@
       <c r="AS61" s="5"/>
       <c r="AT61" s="6"/>
     </row>
-    <row r="62" spans="1:46" ht="51" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:46" ht="39" x14ac:dyDescent="0.15">
       <c r="A62" s="58" t="s">
         <v>26</v>
       </c>
@@ -8479,7 +8488,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:46" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:46" ht="26" x14ac:dyDescent="0.15">
       <c r="A63" s="58" t="s">
         <v>27</v>
       </c>
@@ -8553,8 +8562,8 @@
       <c r="AS63" s="5"/>
       <c r="AT63" s="6"/>
     </row>
-    <row r="64" spans="1:46" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="188" t="s">
+    <row r="64" spans="1:46" ht="39" x14ac:dyDescent="0.15">
+      <c r="A64" s="196" t="s">
         <v>28</v>
       </c>
       <c r="B64" s="35"/>
@@ -8657,8 +8666,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="1:46" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="189"/>
+    <row r="65" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A65" s="197"/>
       <c r="B65" s="34"/>
       <c r="C65" s="32"/>
       <c r="D65" s="33"/>
@@ -8751,8 +8760,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A66" s="190"/>
+    <row r="66" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A66" s="198"/>
       <c r="B66" s="37"/>
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
@@ -8805,7 +8814,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:46" ht="26" x14ac:dyDescent="0.15">
       <c r="A67" s="58" t="s">
         <v>29</v>
       </c>
@@ -8891,7 +8900,7 @@
       <c r="AS67" s="2"/>
       <c r="AT67" s="3"/>
     </row>
-    <row r="68" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A68" s="58" t="s">
         <v>30</v>
       </c>
@@ -8941,8 +8950,8 @@
       <c r="AS68" s="5"/>
       <c r="AT68" s="6"/>
     </row>
-    <row r="69" spans="1:46" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A69" s="195" t="s">
+    <row r="69" spans="1:46" ht="39" x14ac:dyDescent="0.15">
+      <c r="A69" s="202" t="s">
         <v>31</v>
       </c>
       <c r="B69" s="7"/>
@@ -9057,8 +9066,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="70" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="197"/>
+    <row r="70" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A70" s="204"/>
       <c r="B70" s="42"/>
       <c r="C70" s="32"/>
       <c r="D70" s="33"/>
@@ -9165,8 +9174,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="197"/>
+    <row r="71" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A71" s="204"/>
       <c r="B71" s="42"/>
       <c r="C71" s="32"/>
       <c r="D71" s="33"/>
@@ -9273,8 +9282,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="72" spans="1:46" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A72" s="197"/>
+    <row r="72" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A72" s="204"/>
       <c r="B72" s="42"/>
       <c r="C72" s="32"/>
       <c r="D72" s="33"/>
@@ -9381,8 +9390,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="73" spans="1:46" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A73" s="197"/>
+    <row r="73" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A73" s="204"/>
       <c r="B73" s="42"/>
       <c r="C73" s="32"/>
       <c r="D73" s="33"/>
@@ -9482,8 +9491,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="74" spans="1:46" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="197"/>
+    <row r="74" spans="1:46" ht="39" x14ac:dyDescent="0.15">
+      <c r="A74" s="204"/>
       <c r="B74" s="42"/>
       <c r="C74" s="32"/>
       <c r="D74" s="33"/>
@@ -9555,8 +9564,8 @@
       <c r="AS74" s="32"/>
       <c r="AT74" s="33"/>
     </row>
-    <row r="75" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A75" s="197"/>
+    <row r="75" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A75" s="204"/>
       <c r="B75" s="42"/>
       <c r="C75" s="32"/>
       <c r="D75" s="33"/>
@@ -9619,8 +9628,8 @@
       <c r="AS75" s="32"/>
       <c r="AT75" s="33"/>
     </row>
-    <row r="76" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A76" s="197"/>
+    <row r="76" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A76" s="204"/>
       <c r="B76" s="42"/>
       <c r="C76" s="32"/>
       <c r="D76" s="33"/>
@@ -9678,8 +9687,8 @@
       <c r="AS76" s="32"/>
       <c r="AT76" s="33"/>
     </row>
-    <row r="77" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="196"/>
+    <row r="77" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A77" s="203"/>
       <c r="B77" s="1"/>
       <c r="C77" s="2"/>
       <c r="D77" s="3"/>
@@ -9729,7 +9738,7 @@
       <c r="AS77" s="2"/>
       <c r="AT77" s="3"/>
     </row>
-    <row r="78" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A78" s="57" t="s">
         <v>32</v>
       </c>
@@ -9779,7 +9788,7 @@
       <c r="AS78" s="5"/>
       <c r="AT78" s="6"/>
     </row>
-    <row r="79" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:46" ht="26" x14ac:dyDescent="0.15">
       <c r="A79" s="57" t="s">
         <v>33</v>
       </c>
@@ -9883,7 +9892,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="80" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:46" ht="26" x14ac:dyDescent="0.15">
       <c r="A80" s="57" t="s">
         <v>34</v>
       </c>
@@ -9993,7 +10002,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A81" s="57" t="s">
         <v>35</v>
       </c>
@@ -10043,7 +10052,7 @@
       <c r="AS81" s="5"/>
       <c r="AT81" s="6"/>
     </row>
-    <row r="82" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A82" s="57" t="s">
         <v>36</v>
       </c>
@@ -10093,7 +10102,7 @@
       <c r="AS82" s="5"/>
       <c r="AT82" s="6"/>
     </row>
-    <row r="83" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:46" ht="26" x14ac:dyDescent="0.15">
       <c r="A83" s="57" t="s">
         <v>37</v>
       </c>
@@ -10155,8 +10164,8 @@
       <c r="AS83" s="5"/>
       <c r="AT83" s="6"/>
     </row>
-    <row r="84" spans="1:46" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="195" t="s">
+    <row r="84" spans="1:46" ht="39" x14ac:dyDescent="0.15">
+      <c r="A84" s="202" t="s">
         <v>117</v>
       </c>
       <c r="B84" s="7"/>
@@ -10265,8 +10274,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:46" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="197"/>
+    <row r="85" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A85" s="204"/>
       <c r="B85" s="42"/>
       <c r="C85" s="32"/>
       <c r="D85" s="33"/>
@@ -10366,8 +10375,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="197"/>
+    <row r="86" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A86" s="204"/>
       <c r="B86" s="42"/>
       <c r="C86" s="32"/>
       <c r="D86" s="33"/>
@@ -10460,8 +10469,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="196"/>
+    <row r="87" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A87" s="203"/>
       <c r="B87" s="1"/>
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
@@ -10523,7 +10532,7 @@
       <c r="AS87" s="2"/>
       <c r="AT87" s="38"/>
     </row>
-    <row r="88" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A88" s="58" t="s">
         <v>38</v>
       </c>
@@ -10573,8 +10582,8 @@
       <c r="AS88" s="5"/>
       <c r="AT88" s="6"/>
     </row>
-    <row r="89" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="188" t="s">
+    <row r="89" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A89" s="196" t="s">
         <v>39</v>
       </c>
       <c r="B89" s="7"/>
@@ -10659,8 +10668,8 @@
       <c r="AS89" s="8"/>
       <c r="AT89" s="9"/>
     </row>
-    <row r="90" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="190"/>
+    <row r="90" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A90" s="198"/>
       <c r="B90" s="1"/>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
@@ -10731,8 +10740,8 @@
       <c r="AS90" s="2"/>
       <c r="AT90" s="3"/>
     </row>
-    <row r="91" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A91" s="195" t="s">
+    <row r="91" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A91" s="202" t="s">
         <v>40</v>
       </c>
       <c r="B91" s="7"/>
@@ -10841,8 +10850,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="92" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="197"/>
+    <row r="92" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A92" s="204"/>
       <c r="B92" s="42"/>
       <c r="C92" s="32"/>
       <c r="D92" s="33"/>
@@ -10942,8 +10951,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="93" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="196"/>
+    <row r="93" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A93" s="203"/>
       <c r="B93" s="1"/>
       <c r="C93" s="2"/>
       <c r="D93" s="3"/>
@@ -11026,8 +11035,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="94" spans="1:46" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A94" s="195" t="s">
+    <row r="94" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A94" s="202" t="s">
         <v>41</v>
       </c>
       <c r="B94" s="7"/>
@@ -11118,8 +11127,8 @@
       <c r="AS94" s="8"/>
       <c r="AT94" s="9"/>
     </row>
-    <row r="95" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A95" s="196"/>
+    <row r="95" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A95" s="203"/>
       <c r="B95" s="1"/>
       <c r="C95" s="2"/>
       <c r="D95" s="3"/>
@@ -11196,7 +11205,7 @@
       <c r="AS95" s="2"/>
       <c r="AT95" s="3"/>
     </row>
-    <row r="96" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A96" s="58" t="s">
         <v>42</v>
       </c>
@@ -11246,8 +11255,8 @@
       <c r="AS96" s="5"/>
       <c r="AT96" s="6"/>
     </row>
-    <row r="97" spans="1:46" ht="51" x14ac:dyDescent="0.2">
-      <c r="A97" s="188" t="s">
+    <row r="97" spans="1:46" ht="39" x14ac:dyDescent="0.15">
+      <c r="A97" s="196" t="s">
         <v>43</v>
       </c>
       <c r="B97" s="7"/>
@@ -11356,8 +11365,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="98" spans="1:46" ht="51" x14ac:dyDescent="0.2">
-      <c r="A98" s="189"/>
+    <row r="98" spans="1:46" ht="52" x14ac:dyDescent="0.15">
+      <c r="A98" s="197"/>
       <c r="B98" s="42"/>
       <c r="C98" s="32"/>
       <c r="D98" s="33"/>
@@ -11443,8 +11452,8 @@
       <c r="AS98" s="32"/>
       <c r="AT98" s="33"/>
     </row>
-    <row r="99" spans="1:46" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A99" s="189"/>
+    <row r="99" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A99" s="197"/>
       <c r="B99" s="42"/>
       <c r="C99" s="32"/>
       <c r="D99" s="33"/>
@@ -11523,8 +11532,8 @@
       <c r="AS99" s="32"/>
       <c r="AT99" s="33"/>
     </row>
-    <row r="100" spans="1:46" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A100" s="189"/>
+    <row r="100" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A100" s="197"/>
       <c r="B100" s="42"/>
       <c r="C100" s="32"/>
       <c r="D100" s="33"/>
@@ -11603,8 +11612,8 @@
       <c r="AS100" s="32"/>
       <c r="AT100" s="33"/>
     </row>
-    <row r="101" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="189"/>
+    <row r="101" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A101" s="197"/>
       <c r="B101" s="42"/>
       <c r="C101" s="32"/>
       <c r="D101" s="33"/>
@@ -11676,8 +11685,8 @@
       <c r="AS101" s="32"/>
       <c r="AT101" s="33"/>
     </row>
-    <row r="102" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="189"/>
+    <row r="102" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A102" s="197"/>
       <c r="B102" s="42"/>
       <c r="C102" s="32"/>
       <c r="D102" s="33"/>
@@ -11749,8 +11758,8 @@
       <c r="AS102" s="32"/>
       <c r="AT102" s="33"/>
     </row>
-    <row r="103" spans="1:46" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A103" s="189"/>
+    <row r="103" spans="1:46" ht="39" x14ac:dyDescent="0.15">
+      <c r="A103" s="197"/>
       <c r="B103" s="42"/>
       <c r="C103" s="32"/>
       <c r="D103" s="33"/>
@@ -11822,8 +11831,8 @@
       <c r="AS103" s="32"/>
       <c r="AT103" s="33"/>
     </row>
-    <row r="104" spans="1:46" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A104" s="189"/>
+    <row r="104" spans="1:46" ht="39" x14ac:dyDescent="0.15">
+      <c r="A104" s="197"/>
       <c r="B104" s="42"/>
       <c r="C104" s="32"/>
       <c r="D104" s="33"/>
@@ -11895,8 +11904,8 @@
       <c r="AS104" s="32"/>
       <c r="AT104" s="33"/>
     </row>
-    <row r="105" spans="1:46" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="190"/>
+    <row r="105" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+      <c r="A105" s="198"/>
       <c r="B105" s="1"/>
       <c r="C105" s="2"/>
       <c r="D105" s="3"/>
@@ -11964,7 +11973,7 @@
       <c r="AS105" s="2"/>
       <c r="AT105" s="3"/>
     </row>
-    <row r="106" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A106" s="53" t="s">
         <v>44</v>
       </c>
@@ -12014,7 +12023,7 @@
       <c r="AS106" s="8"/>
       <c r="AT106" s="9"/>
     </row>
-    <row r="107" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A107" s="54" t="s">
         <v>45</v>
       </c>
@@ -12052,7 +12061,7 @@
       <c r="AS107" s="32"/>
       <c r="AT107" s="33"/>
     </row>
-    <row r="108" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A108" s="54" t="s">
         <v>46</v>
       </c>
@@ -12090,7 +12099,7 @@
       <c r="AS108" s="32"/>
       <c r="AT108" s="33"/>
     </row>
-    <row r="109" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A109" s="55" t="s">
         <v>47</v>
       </c>
@@ -12140,7 +12149,7 @@
       <c r="AS109" s="2"/>
       <c r="AT109" s="3"/>
     </row>
-    <row r="110" spans="1:46" s="166" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:46" s="166" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A110" s="164" t="s">
         <v>382</v>
       </c>
@@ -12161,70 +12170,70 @@
       <c r="P110" s="165"/>
       <c r="Q110" s="165"/>
     </row>
-    <row r="111" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="203" t="s">
+    <row r="111" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="190" t="s">
         <v>393</v>
       </c>
-      <c r="B111" s="203"/>
-      <c r="C111" s="203"/>
-      <c r="D111" s="203"/>
-      <c r="E111" s="203"/>
-      <c r="F111" s="203"/>
-      <c r="G111" s="203"/>
-      <c r="H111" s="203"/>
-      <c r="I111" s="203"/>
-      <c r="J111" s="203"/>
-      <c r="K111" s="203"/>
-      <c r="L111" s="203"/>
-      <c r="M111" s="203"/>
-      <c r="N111" s="203"/>
-      <c r="O111" s="203"/>
-      <c r="P111" s="203"/>
-      <c r="Q111" s="203"/>
-      <c r="R111" s="203"/>
-      <c r="S111" s="203"/>
-      <c r="T111" s="203"/>
-      <c r="U111" s="203"/>
-      <c r="V111" s="203"/>
-      <c r="W111" s="203"/>
-      <c r="X111" s="203"/>
-      <c r="Y111" s="203"/>
-      <c r="Z111" s="203"/>
-      <c r="AA111" s="203"/>
-      <c r="AB111" s="203"/>
-      <c r="AC111" s="203"/>
-      <c r="AD111" s="203"/>
-      <c r="AE111" s="203"/>
-      <c r="AF111" s="203"/>
-      <c r="AG111" s="203"/>
-      <c r="AH111" s="203"/>
-      <c r="AI111" s="203"/>
-      <c r="AJ111" s="203"/>
-      <c r="AK111" s="203"/>
-      <c r="AL111" s="203"/>
-      <c r="AM111" s="203"/>
-      <c r="AN111" s="203"/>
-      <c r="AO111" s="203"/>
-      <c r="AP111" s="203"/>
-      <c r="AQ111" s="203"/>
-      <c r="AR111" s="203"/>
-      <c r="AS111" s="203"/>
-      <c r="AT111" s="203"/>
-    </row>
-    <row r="112" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A112" s="201" t="s">
+      <c r="B111" s="190"/>
+      <c r="C111" s="190"/>
+      <c r="D111" s="190"/>
+      <c r="E111" s="190"/>
+      <c r="F111" s="190"/>
+      <c r="G111" s="190"/>
+      <c r="H111" s="190"/>
+      <c r="I111" s="190"/>
+      <c r="J111" s="190"/>
+      <c r="K111" s="190"/>
+      <c r="L111" s="190"/>
+      <c r="M111" s="190"/>
+      <c r="N111" s="190"/>
+      <c r="O111" s="190"/>
+      <c r="P111" s="190"/>
+      <c r="Q111" s="190"/>
+      <c r="R111" s="190"/>
+      <c r="S111" s="190"/>
+      <c r="T111" s="190"/>
+      <c r="U111" s="190"/>
+      <c r="V111" s="190"/>
+      <c r="W111" s="190"/>
+      <c r="X111" s="190"/>
+      <c r="Y111" s="190"/>
+      <c r="Z111" s="190"/>
+      <c r="AA111" s="190"/>
+      <c r="AB111" s="190"/>
+      <c r="AC111" s="190"/>
+      <c r="AD111" s="190"/>
+      <c r="AE111" s="190"/>
+      <c r="AF111" s="190"/>
+      <c r="AG111" s="190"/>
+      <c r="AH111" s="190"/>
+      <c r="AI111" s="190"/>
+      <c r="AJ111" s="190"/>
+      <c r="AK111" s="190"/>
+      <c r="AL111" s="190"/>
+      <c r="AM111" s="190"/>
+      <c r="AN111" s="190"/>
+      <c r="AO111" s="190"/>
+      <c r="AP111" s="190"/>
+      <c r="AQ111" s="190"/>
+      <c r="AR111" s="190"/>
+      <c r="AS111" s="190"/>
+      <c r="AT111" s="190"/>
+    </row>
+    <row r="112" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A112" s="188" t="s">
         <v>375</v>
       </c>
-      <c r="B112" s="201"/>
-      <c r="C112" s="201"/>
-      <c r="D112" s="201"/>
-      <c r="E112" s="201"/>
-      <c r="F112" s="201"/>
-      <c r="G112" s="201"/>
-      <c r="H112" s="201"/>
-      <c r="I112" s="201"/>
-      <c r="J112" s="201"/>
-      <c r="K112" s="201"/>
+      <c r="B112" s="188"/>
+      <c r="C112" s="188"/>
+      <c r="D112" s="188"/>
+      <c r="E112" s="188"/>
+      <c r="F112" s="188"/>
+      <c r="G112" s="188"/>
+      <c r="H112" s="188"/>
+      <c r="I112" s="188"/>
+      <c r="J112" s="188"/>
+      <c r="K112" s="188"/>
       <c r="L112" s="61"/>
       <c r="M112" s="61"/>
       <c r="N112" s="61"/>
@@ -12258,157 +12267,157 @@
       <c r="AP112" s="61"/>
       <c r="AQ112" s="61"/>
     </row>
-    <row r="113" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A113" s="202" t="s">
+    <row r="113" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A113" s="189" t="s">
         <v>376</v>
       </c>
-      <c r="B113" s="202"/>
-      <c r="C113" s="202"/>
-      <c r="D113" s="202"/>
-      <c r="E113" s="202"/>
-      <c r="F113" s="202"/>
-      <c r="G113" s="202"/>
-      <c r="H113" s="202"/>
-      <c r="I113" s="202"/>
-      <c r="J113" s="202"/>
-      <c r="K113" s="202"/>
-      <c r="L113" s="202"/>
-      <c r="M113" s="202"/>
-      <c r="N113" s="202"/>
-      <c r="O113" s="202"/>
-      <c r="P113" s="202"/>
-      <c r="Q113" s="202"/>
-      <c r="R113" s="202"/>
-      <c r="S113" s="202"/>
-      <c r="T113" s="202"/>
-      <c r="U113" s="202"/>
-      <c r="V113" s="202"/>
-      <c r="W113" s="202"/>
-      <c r="X113" s="202"/>
-      <c r="Y113" s="202"/>
-      <c r="Z113" s="202"/>
-      <c r="AA113" s="202"/>
-      <c r="AB113" s="202"/>
-      <c r="AC113" s="202"/>
-      <c r="AD113" s="202"/>
-      <c r="AE113" s="202"/>
-      <c r="AF113" s="202"/>
-      <c r="AG113" s="202"/>
-      <c r="AH113" s="202"/>
-      <c r="AI113" s="202"/>
-      <c r="AJ113" s="202"/>
-      <c r="AK113" s="202"/>
-      <c r="AL113" s="202"/>
-      <c r="AM113" s="202"/>
-      <c r="AN113" s="202"/>
-      <c r="AO113" s="202"/>
-      <c r="AP113" s="202"/>
-      <c r="AQ113" s="202"/>
-      <c r="AR113" s="202"/>
-      <c r="AS113" s="202"/>
-      <c r="AT113" s="202"/>
-    </row>
-    <row r="114" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A114" s="205" t="s">
+      <c r="B113" s="189"/>
+      <c r="C113" s="189"/>
+      <c r="D113" s="189"/>
+      <c r="E113" s="189"/>
+      <c r="F113" s="189"/>
+      <c r="G113" s="189"/>
+      <c r="H113" s="189"/>
+      <c r="I113" s="189"/>
+      <c r="J113" s="189"/>
+      <c r="K113" s="189"/>
+      <c r="L113" s="189"/>
+      <c r="M113" s="189"/>
+      <c r="N113" s="189"/>
+      <c r="O113" s="189"/>
+      <c r="P113" s="189"/>
+      <c r="Q113" s="189"/>
+      <c r="R113" s="189"/>
+      <c r="S113" s="189"/>
+      <c r="T113" s="189"/>
+      <c r="U113" s="189"/>
+      <c r="V113" s="189"/>
+      <c r="W113" s="189"/>
+      <c r="X113" s="189"/>
+      <c r="Y113" s="189"/>
+      <c r="Z113" s="189"/>
+      <c r="AA113" s="189"/>
+      <c r="AB113" s="189"/>
+      <c r="AC113" s="189"/>
+      <c r="AD113" s="189"/>
+      <c r="AE113" s="189"/>
+      <c r="AF113" s="189"/>
+      <c r="AG113" s="189"/>
+      <c r="AH113" s="189"/>
+      <c r="AI113" s="189"/>
+      <c r="AJ113" s="189"/>
+      <c r="AK113" s="189"/>
+      <c r="AL113" s="189"/>
+      <c r="AM113" s="189"/>
+      <c r="AN113" s="189"/>
+      <c r="AO113" s="189"/>
+      <c r="AP113" s="189"/>
+      <c r="AQ113" s="189"/>
+      <c r="AR113" s="189"/>
+      <c r="AS113" s="189"/>
+      <c r="AT113" s="189"/>
+    </row>
+    <row r="114" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A114" s="192" t="s">
         <v>377</v>
       </c>
-      <c r="B114" s="205"/>
-      <c r="C114" s="205"/>
-      <c r="D114" s="205"/>
-      <c r="E114" s="205"/>
-      <c r="F114" s="205"/>
-      <c r="G114" s="205"/>
-      <c r="H114" s="205"/>
-      <c r="I114" s="205"/>
-      <c r="J114" s="205"/>
-      <c r="K114" s="205"/>
-      <c r="L114" s="205"/>
-      <c r="M114" s="205"/>
-      <c r="N114" s="205"/>
-      <c r="O114" s="205"/>
-      <c r="P114" s="205"/>
-      <c r="Q114" s="205"/>
-      <c r="R114" s="205"/>
-      <c r="S114" s="205"/>
-      <c r="T114" s="205"/>
-      <c r="U114" s="205"/>
-      <c r="V114" s="205"/>
-      <c r="W114" s="205"/>
-      <c r="X114" s="205"/>
-      <c r="Y114" s="205"/>
-      <c r="Z114" s="205"/>
-      <c r="AA114" s="205"/>
-      <c r="AB114" s="205"/>
-      <c r="AC114" s="205"/>
-      <c r="AD114" s="205"/>
-      <c r="AE114" s="205"/>
-      <c r="AF114" s="205"/>
-      <c r="AG114" s="205"/>
-      <c r="AH114" s="205"/>
-      <c r="AI114" s="205"/>
-      <c r="AJ114" s="205"/>
-      <c r="AK114" s="205"/>
-      <c r="AL114" s="205"/>
-      <c r="AM114" s="205"/>
-      <c r="AN114" s="205"/>
-      <c r="AO114" s="205"/>
-      <c r="AP114" s="205"/>
-      <c r="AQ114" s="205"/>
-      <c r="AR114" s="205"/>
-      <c r="AS114" s="205"/>
-      <c r="AT114" s="205"/>
-    </row>
-    <row r="115" spans="1:46" x14ac:dyDescent="0.2">
-      <c r="A115" s="204" t="s">
+      <c r="B114" s="192"/>
+      <c r="C114" s="192"/>
+      <c r="D114" s="192"/>
+      <c r="E114" s="192"/>
+      <c r="F114" s="192"/>
+      <c r="G114" s="192"/>
+      <c r="H114" s="192"/>
+      <c r="I114" s="192"/>
+      <c r="J114" s="192"/>
+      <c r="K114" s="192"/>
+      <c r="L114" s="192"/>
+      <c r="M114" s="192"/>
+      <c r="N114" s="192"/>
+      <c r="O114" s="192"/>
+      <c r="P114" s="192"/>
+      <c r="Q114" s="192"/>
+      <c r="R114" s="192"/>
+      <c r="S114" s="192"/>
+      <c r="T114" s="192"/>
+      <c r="U114" s="192"/>
+      <c r="V114" s="192"/>
+      <c r="W114" s="192"/>
+      <c r="X114" s="192"/>
+      <c r="Y114" s="192"/>
+      <c r="Z114" s="192"/>
+      <c r="AA114" s="192"/>
+      <c r="AB114" s="192"/>
+      <c r="AC114" s="192"/>
+      <c r="AD114" s="192"/>
+      <c r="AE114" s="192"/>
+      <c r="AF114" s="192"/>
+      <c r="AG114" s="192"/>
+      <c r="AH114" s="192"/>
+      <c r="AI114" s="192"/>
+      <c r="AJ114" s="192"/>
+      <c r="AK114" s="192"/>
+      <c r="AL114" s="192"/>
+      <c r="AM114" s="192"/>
+      <c r="AN114" s="192"/>
+      <c r="AO114" s="192"/>
+      <c r="AP114" s="192"/>
+      <c r="AQ114" s="192"/>
+      <c r="AR114" s="192"/>
+      <c r="AS114" s="192"/>
+      <c r="AT114" s="192"/>
+    </row>
+    <row r="115" spans="1:46" x14ac:dyDescent="0.15">
+      <c r="A115" s="191" t="s">
         <v>336</v>
       </c>
-      <c r="B115" s="204"/>
-      <c r="C115" s="204"/>
-      <c r="D115" s="204"/>
-      <c r="E115" s="204"/>
-      <c r="F115" s="204"/>
-      <c r="G115" s="204"/>
-      <c r="H115" s="204"/>
-      <c r="I115" s="204"/>
-      <c r="J115" s="204"/>
-      <c r="K115" s="204"/>
-      <c r="L115" s="204"/>
-      <c r="M115" s="204"/>
-      <c r="N115" s="204"/>
-      <c r="O115" s="204"/>
-      <c r="P115" s="204"/>
-      <c r="Q115" s="204"/>
-      <c r="R115" s="204"/>
-      <c r="S115" s="204"/>
-      <c r="T115" s="204"/>
-      <c r="U115" s="204"/>
-      <c r="V115" s="204"/>
-      <c r="W115" s="204"/>
-      <c r="X115" s="204"/>
-      <c r="Y115" s="204"/>
-      <c r="Z115" s="204"/>
-      <c r="AA115" s="204"/>
-      <c r="AB115" s="204"/>
-      <c r="AC115" s="204"/>
-      <c r="AD115" s="204"/>
-      <c r="AE115" s="204"/>
-      <c r="AF115" s="204"/>
-      <c r="AG115" s="204"/>
-      <c r="AH115" s="204"/>
-      <c r="AI115" s="204"/>
-      <c r="AJ115" s="204"/>
-      <c r="AK115" s="204"/>
-      <c r="AL115" s="204"/>
-      <c r="AM115" s="204"/>
-      <c r="AN115" s="204"/>
-      <c r="AO115" s="204"/>
-      <c r="AP115" s="204"/>
-      <c r="AQ115" s="204"/>
-      <c r="AR115" s="204"/>
-      <c r="AS115" s="204"/>
-      <c r="AT115" s="204"/>
-    </row>
-    <row r="116" spans="1:46" ht="15" x14ac:dyDescent="0.25">
+      <c r="B115" s="191"/>
+      <c r="C115" s="191"/>
+      <c r="D115" s="191"/>
+      <c r="E115" s="191"/>
+      <c r="F115" s="191"/>
+      <c r="G115" s="191"/>
+      <c r="H115" s="191"/>
+      <c r="I115" s="191"/>
+      <c r="J115" s="191"/>
+      <c r="K115" s="191"/>
+      <c r="L115" s="191"/>
+      <c r="M115" s="191"/>
+      <c r="N115" s="191"/>
+      <c r="O115" s="191"/>
+      <c r="P115" s="191"/>
+      <c r="Q115" s="191"/>
+      <c r="R115" s="191"/>
+      <c r="S115" s="191"/>
+      <c r="T115" s="191"/>
+      <c r="U115" s="191"/>
+      <c r="V115" s="191"/>
+      <c r="W115" s="191"/>
+      <c r="X115" s="191"/>
+      <c r="Y115" s="191"/>
+      <c r="Z115" s="191"/>
+      <c r="AA115" s="191"/>
+      <c r="AB115" s="191"/>
+      <c r="AC115" s="191"/>
+      <c r="AD115" s="191"/>
+      <c r="AE115" s="191"/>
+      <c r="AF115" s="191"/>
+      <c r="AG115" s="191"/>
+      <c r="AH115" s="191"/>
+      <c r="AI115" s="191"/>
+      <c r="AJ115" s="191"/>
+      <c r="AK115" s="191"/>
+      <c r="AL115" s="191"/>
+      <c r="AM115" s="191"/>
+      <c r="AN115" s="191"/>
+      <c r="AO115" s="191"/>
+      <c r="AP115" s="191"/>
+      <c r="AQ115" s="191"/>
+      <c r="AR115" s="191"/>
+      <c r="AS115" s="191"/>
+      <c r="AT115" s="191"/>
+    </row>
+    <row r="116" spans="1:46" ht="15" x14ac:dyDescent="0.2">
       <c r="A116"/>
       <c r="B116" s="61"/>
       <c r="C116" s="61"/>
@@ -12453,7 +12462,7 @@
       <c r="AP116" s="61"/>
       <c r="AQ116" s="61"/>
     </row>
-    <row r="117" spans="1:46" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:46" ht="15" x14ac:dyDescent="0.2">
       <c r="A117"/>
       <c r="B117" s="61"/>
       <c r="C117" s="61"/>
@@ -12498,7 +12507,7 @@
       <c r="AP117" s="61"/>
       <c r="AQ117" s="61"/>
     </row>
-    <row r="118" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A118" s="60"/>
       <c r="B118" s="61"/>
       <c r="C118" s="61"/>
@@ -12543,33 +12552,11 @@
       <c r="AP118" s="61"/>
       <c r="AQ118" s="61"/>
     </row>
-    <row r="119" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A119" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A112:K112"/>
-    <mergeCell ref="A113:AT113"/>
-    <mergeCell ref="A111:AT111"/>
-    <mergeCell ref="A115:AT115"/>
-    <mergeCell ref="A114:AT114"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A69:A77"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A7:A16"/>
-    <mergeCell ref="A21:A24"/>
     <mergeCell ref="A97:A105"/>
     <mergeCell ref="A1:AQ1"/>
     <mergeCell ref="A25:A26"/>
@@ -12586,14 +12573,31 @@
     <mergeCell ref="AI2:AK2"/>
     <mergeCell ref="AL2:AN2"/>
     <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A69:A77"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A7:A16"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="A112:K112"/>
+    <mergeCell ref="A113:AT113"/>
+    <mergeCell ref="A111:AT111"/>
+    <mergeCell ref="A115:AT115"/>
+    <mergeCell ref="A114:AT114"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="19" fitToWidth="4" fitToHeight="3" orientation="landscape"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -12609,20 +12613,20 @@
       <selection pane="topRight" activeCell="B1" sqref="B1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19" style="70" customWidth="1"/>
-    <col min="2" max="18" width="6.5703125" style="70" customWidth="1"/>
+    <col min="2" max="18" width="6.5" style="70" customWidth="1"/>
     <col min="19" max="19" width="2" style="70" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.85546875" style="70"/>
+    <col min="20" max="16384" width="8.83203125" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" s="149" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="69" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="76"/>
       <c r="B2" s="110">
         <v>2000</v>
@@ -12697,7 +12701,7 @@
       <c r="T2" s="216"/>
       <c r="U2" s="216"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="67" t="s">
         <v>0</v>
       </c>
@@ -12759,7 +12763,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="67" t="s">
         <v>1</v>
       </c>
@@ -12821,7 +12825,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="67" t="s">
         <v>2</v>
       </c>
@@ -12877,7 +12881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="67" t="s">
         <v>3</v>
       </c>
@@ -12933,7 +12937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="67" t="s">
         <v>4</v>
       </c>
@@ -12989,7 +12993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="67" t="s">
         <v>5</v>
       </c>
@@ -13045,7 +13049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="67" t="s">
         <v>6</v>
       </c>
@@ -13101,7 +13105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="67" t="s">
         <v>7</v>
       </c>
@@ -13157,7 +13161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" s="67" t="s">
         <v>234</v>
       </c>
@@ -13213,7 +13217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12" s="67" t="s">
         <v>8</v>
       </c>
@@ -13269,7 +13273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="67" t="s">
         <v>9</v>
       </c>
@@ -13325,7 +13329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="67" t="s">
         <v>10</v>
       </c>
@@ -13381,7 +13385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="67" t="s">
         <v>11</v>
       </c>
@@ -13437,7 +13441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="67" t="s">
         <v>12</v>
       </c>
@@ -13493,7 +13497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="67" t="s">
         <v>13</v>
       </c>
@@ -13549,7 +13553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="67" t="s">
         <v>14</v>
       </c>
@@ -13605,7 +13609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="67" t="s">
         <v>15</v>
       </c>
@@ -13661,7 +13665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="67" t="s">
         <v>16</v>
       </c>
@@ -13717,7 +13721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="67" t="s">
         <v>17</v>
       </c>
@@ -13773,7 +13777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="67" t="s">
         <v>18</v>
       </c>
@@ -13829,7 +13833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="67" t="s">
         <v>19</v>
       </c>
@@ -13885,7 +13889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="67" t="s">
         <v>20</v>
       </c>
@@ -13941,7 +13945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="67" t="s">
         <v>48</v>
       </c>
@@ -13997,7 +14001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="67" t="s">
         <v>21</v>
       </c>
@@ -14053,7 +14057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" s="67" t="s">
         <v>22</v>
       </c>
@@ -14109,7 +14113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="67" t="s">
         <v>23</v>
       </c>
@@ -14165,7 +14169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="67" t="s">
         <v>24</v>
       </c>
@@ -14221,7 +14225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" s="67" t="s">
         <v>25</v>
       </c>
@@ -14277,7 +14281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="67" t="s">
         <v>26</v>
       </c>
@@ -14333,7 +14337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="67" t="s">
         <v>27</v>
       </c>
@@ -14389,7 +14393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" s="67" t="s">
         <v>28</v>
       </c>
@@ -14445,7 +14449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" s="67" t="s">
         <v>29</v>
       </c>
@@ -14501,7 +14505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" s="67" t="s">
         <v>30</v>
       </c>
@@ -14557,7 +14561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" s="67" t="s">
         <v>31</v>
       </c>
@@ -14613,7 +14617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" s="67" t="s">
         <v>32</v>
       </c>
@@ -14669,7 +14673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38" s="67" t="s">
         <v>33</v>
       </c>
@@ -14725,7 +14729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39" s="67" t="s">
         <v>34</v>
       </c>
@@ -14781,7 +14785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40" s="67" t="s">
         <v>35</v>
       </c>
@@ -14837,7 +14841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A41" s="67" t="s">
         <v>36</v>
       </c>
@@ -14893,7 +14897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A42" s="67" t="s">
         <v>37</v>
       </c>
@@ -14949,7 +14953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A43" s="67" t="s">
         <v>117</v>
       </c>
@@ -15005,7 +15009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A44" s="67" t="s">
         <v>38</v>
       </c>
@@ -15061,7 +15065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A45" s="67" t="s">
         <v>39</v>
       </c>
@@ -15117,7 +15121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A46" s="67" t="s">
         <v>40</v>
       </c>
@@ -15173,7 +15177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A47" s="67" t="s">
         <v>41</v>
       </c>
@@ -15229,7 +15233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A48" s="67" t="s">
         <v>42</v>
       </c>
@@ -15285,7 +15289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A49" s="67" t="s">
         <v>43</v>
       </c>
@@ -15341,7 +15345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A50" s="67" t="s">
         <v>44</v>
       </c>
@@ -15397,7 +15401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A51" s="67" t="s">
         <v>45</v>
       </c>
@@ -15453,7 +15457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A52" s="67" t="s">
         <v>46</v>
       </c>
@@ -15509,7 +15513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A53" s="67" t="s">
         <v>47</v>
       </c>
@@ -15565,7 +15569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A54" s="163" t="s">
         <v>378</v>
       </c>
@@ -15586,22 +15590,22 @@
       <c r="P54" s="90"/>
       <c r="Q54" s="90"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A55" s="169" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A56" s="80" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A57" s="80" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="58" spans="1:18" s="66" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" s="66" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="218" t="s">
         <v>373</v>
       </c>
@@ -15623,7 +15627,7 @@
       <c r="Q58" s="218"/>
       <c r="R58" s="218"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A59" s="222" t="s">
         <v>362</v>
       </c>
@@ -15652,11 +15656,6 @@
     <mergeCell ref="S2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -15672,41 +15671,41 @@
       <selection pane="topRight" activeCell="E4" sqref="E4:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="70" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" style="70" customWidth="1"/>
     <col min="2" max="2" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="59.42578125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.7109375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="74.42578125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="10" customWidth="1"/>
+    <col min="5" max="5" width="59.5" style="10" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.6640625" style="10" customWidth="1"/>
+    <col min="9" max="9" width="74.5" style="10" customWidth="1"/>
     <col min="10" max="10" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.28515625" style="10" customWidth="1"/>
-    <col min="13" max="13" width="62.42578125" style="10" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="10"/>
+    <col min="11" max="12" width="9.33203125" style="10" customWidth="1"/>
+    <col min="13" max="13" width="62.5" style="10" customWidth="1"/>
+    <col min="14" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="70" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="236" t="s">
+    <row r="1" spans="1:13" s="70" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="263" t="s">
         <v>364</v>
       </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="236"/>
-      <c r="K1" s="236"/>
-      <c r="L1" s="236"/>
-      <c r="M1" s="236"/>
-    </row>
-    <row r="2" spans="1:13" s="70" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="265"/>
+      <c r="B1" s="263"/>
+      <c r="C1" s="263"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
+      <c r="I1" s="263"/>
+      <c r="J1" s="263"/>
+      <c r="K1" s="263"/>
+      <c r="L1" s="263"/>
+      <c r="M1" s="263"/>
+    </row>
+    <row r="2" spans="1:13" s="70" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="248"/>
       <c r="B2" s="223">
         <v>2010</v>
       </c>
@@ -15726,8 +15725,8 @@
       <c r="L2" s="223"/>
       <c r="M2" s="223"/>
     </row>
-    <row r="3" spans="1:13" s="70" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="265"/>
+    <row r="3" spans="1:13" s="70" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="248"/>
       <c r="B3" s="109" t="s">
         <v>240</v>
       </c>
@@ -15765,377 +15764,377 @@
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="251" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="243"/>
-      <c r="C4" s="262"/>
-      <c r="D4" s="243"/>
-      <c r="E4" s="243"/>
-      <c r="F4" s="239" t="s">
+    <row r="4" spans="1:13" ht="52" x14ac:dyDescent="0.15">
+      <c r="A4" s="233" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="236"/>
+      <c r="C4" s="239"/>
+      <c r="D4" s="236"/>
+      <c r="E4" s="236"/>
+      <c r="F4" s="242" t="s">
         <v>244</v>
       </c>
-      <c r="G4" s="241">
+      <c r="G4" s="245">
         <v>40695</v>
       </c>
-      <c r="H4" s="241">
+      <c r="H4" s="245">
         <v>40787</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="J4" s="239" t="s">
+      <c r="J4" s="242" t="s">
         <v>245</v>
       </c>
-      <c r="K4" s="241">
+      <c r="K4" s="245">
         <v>41030</v>
       </c>
-      <c r="L4" s="241">
+      <c r="L4" s="245">
         <v>41030</v>
       </c>
       <c r="M4" s="176" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="252"/>
-      <c r="B5" s="246"/>
-      <c r="C5" s="263"/>
-      <c r="D5" s="246"/>
-      <c r="E5" s="246"/>
-      <c r="F5" s="247"/>
-      <c r="G5" s="242"/>
-      <c r="H5" s="242"/>
+    <row r="5" spans="1:13" ht="39" x14ac:dyDescent="0.15">
+      <c r="A5" s="234"/>
+      <c r="B5" s="237"/>
+      <c r="C5" s="240"/>
+      <c r="D5" s="237"/>
+      <c r="E5" s="237"/>
+      <c r="F5" s="243"/>
+      <c r="G5" s="246"/>
+      <c r="H5" s="246"/>
       <c r="I5" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="J5" s="247"/>
-      <c r="K5" s="242"/>
-      <c r="L5" s="242"/>
+      <c r="J5" s="243"/>
+      <c r="K5" s="246"/>
+      <c r="L5" s="246"/>
       <c r="M5" s="12" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="252"/>
-      <c r="B6" s="246"/>
-      <c r="C6" s="263"/>
-      <c r="D6" s="246"/>
-      <c r="E6" s="246"/>
-      <c r="F6" s="247"/>
-      <c r="G6" s="242"/>
-      <c r="H6" s="242"/>
+    <row r="6" spans="1:13" ht="52" x14ac:dyDescent="0.15">
+      <c r="A6" s="234"/>
+      <c r="B6" s="237"/>
+      <c r="C6" s="240"/>
+      <c r="D6" s="237"/>
+      <c r="E6" s="237"/>
+      <c r="F6" s="243"/>
+      <c r="G6" s="246"/>
+      <c r="H6" s="246"/>
       <c r="I6" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="J6" s="247"/>
-      <c r="K6" s="242"/>
-      <c r="L6" s="242"/>
+      <c r="J6" s="243"/>
+      <c r="K6" s="246"/>
+      <c r="L6" s="246"/>
       <c r="M6" s="175" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A7" s="252"/>
-      <c r="B7" s="246"/>
-      <c r="C7" s="263"/>
-      <c r="D7" s="246"/>
-      <c r="E7" s="246"/>
-      <c r="F7" s="247"/>
-      <c r="G7" s="242"/>
-      <c r="H7" s="242"/>
+    <row r="7" spans="1:13" ht="52" x14ac:dyDescent="0.15">
+      <c r="A7" s="234"/>
+      <c r="B7" s="237"/>
+      <c r="C7" s="240"/>
+      <c r="D7" s="237"/>
+      <c r="E7" s="237"/>
+      <c r="F7" s="243"/>
+      <c r="G7" s="246"/>
+      <c r="H7" s="246"/>
       <c r="I7" s="175" t="s">
         <v>414</v>
       </c>
-      <c r="J7" s="247"/>
-      <c r="K7" s="242"/>
-      <c r="L7" s="242"/>
+      <c r="J7" s="243"/>
+      <c r="K7" s="246"/>
+      <c r="L7" s="246"/>
       <c r="M7" s="175" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="252"/>
-      <c r="B8" s="246"/>
-      <c r="C8" s="263"/>
-      <c r="D8" s="246"/>
-      <c r="E8" s="246"/>
-      <c r="F8" s="247"/>
-      <c r="G8" s="242"/>
-      <c r="H8" s="242"/>
+    <row r="8" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="234"/>
+      <c r="B8" s="237"/>
+      <c r="C8" s="240"/>
+      <c r="D8" s="237"/>
+      <c r="E8" s="237"/>
+      <c r="F8" s="243"/>
+      <c r="G8" s="246"/>
+      <c r="H8" s="246"/>
       <c r="I8" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="J8" s="247"/>
-      <c r="K8" s="242"/>
-      <c r="L8" s="242"/>
+      <c r="J8" s="243"/>
+      <c r="K8" s="246"/>
+      <c r="L8" s="246"/>
       <c r="M8" s="13" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A9" s="253"/>
-      <c r="B9" s="244"/>
-      <c r="C9" s="264"/>
-      <c r="D9" s="244"/>
-      <c r="E9" s="244"/>
-      <c r="F9" s="240"/>
-      <c r="G9" s="245"/>
-      <c r="H9" s="245"/>
+    <row r="9" spans="1:13" ht="52" x14ac:dyDescent="0.15">
+      <c r="A9" s="235"/>
+      <c r="B9" s="238"/>
+      <c r="C9" s="241"/>
+      <c r="D9" s="238"/>
+      <c r="E9" s="238"/>
+      <c r="F9" s="244"/>
+      <c r="G9" s="247"/>
+      <c r="H9" s="247"/>
       <c r="I9" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="J9" s="240"/>
-      <c r="K9" s="245"/>
-      <c r="L9" s="245"/>
+      <c r="J9" s="244"/>
+      <c r="K9" s="247"/>
+      <c r="L9" s="247"/>
       <c r="M9" s="14" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="102" x14ac:dyDescent="0.2">
-      <c r="A10" s="251" t="s">
+    <row r="10" spans="1:13" ht="78" x14ac:dyDescent="0.15">
+      <c r="A10" s="233" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="248" t="s">
+      <c r="B10" s="254" t="s">
         <v>198</v>
       </c>
-      <c r="C10" s="259">
+      <c r="C10" s="257">
         <v>40360</v>
       </c>
-      <c r="D10" s="259">
+      <c r="D10" s="257">
         <v>40360</v>
       </c>
       <c r="E10" s="172" t="s">
         <v>407</v>
       </c>
-      <c r="F10" s="254"/>
-      <c r="G10" s="254"/>
-      <c r="H10" s="254"/>
-      <c r="I10" s="254"/>
-      <c r="J10" s="254"/>
-      <c r="K10" s="254"/>
-      <c r="L10" s="254"/>
+      <c r="F10" s="249"/>
+      <c r="G10" s="249"/>
+      <c r="H10" s="249"/>
+      <c r="I10" s="249"/>
+      <c r="J10" s="249"/>
+      <c r="K10" s="249"/>
+      <c r="L10" s="249"/>
       <c r="M10" s="157"/>
     </row>
-    <row r="11" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="252"/>
-      <c r="B11" s="249"/>
-      <c r="C11" s="260"/>
-      <c r="D11" s="260"/>
+    <row r="11" spans="1:13" ht="26" x14ac:dyDescent="0.15">
+      <c r="A11" s="234"/>
+      <c r="B11" s="255"/>
+      <c r="C11" s="258"/>
+      <c r="D11" s="258"/>
       <c r="E11" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="F11" s="255"/>
-      <c r="G11" s="255"/>
-      <c r="H11" s="255"/>
-      <c r="I11" s="255"/>
-      <c r="J11" s="255"/>
-      <c r="K11" s="255"/>
-      <c r="L11" s="255"/>
+      <c r="F11" s="250"/>
+      <c r="G11" s="250"/>
+      <c r="H11" s="250"/>
+      <c r="I11" s="250"/>
+      <c r="J11" s="250"/>
+      <c r="K11" s="250"/>
+      <c r="L11" s="250"/>
       <c r="M11" s="158"/>
     </row>
-    <row r="12" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="252"/>
-      <c r="B12" s="249"/>
-      <c r="C12" s="260"/>
-      <c r="D12" s="260"/>
+    <row r="12" spans="1:13" ht="39" x14ac:dyDescent="0.15">
+      <c r="A12" s="234"/>
+      <c r="B12" s="255"/>
+      <c r="C12" s="258"/>
+      <c r="D12" s="258"/>
       <c r="E12" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="F12" s="255"/>
-      <c r="G12" s="255"/>
-      <c r="H12" s="255"/>
-      <c r="I12" s="255"/>
-      <c r="J12" s="255"/>
-      <c r="K12" s="255"/>
-      <c r="L12" s="255"/>
+      <c r="F12" s="250"/>
+      <c r="G12" s="250"/>
+      <c r="H12" s="250"/>
+      <c r="I12" s="250"/>
+      <c r="J12" s="250"/>
+      <c r="K12" s="250"/>
+      <c r="L12" s="250"/>
       <c r="M12" s="159"/>
     </row>
-    <row r="13" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="253"/>
-      <c r="B13" s="250"/>
-      <c r="C13" s="261"/>
-      <c r="D13" s="261"/>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A13" s="235"/>
+      <c r="B13" s="256"/>
+      <c r="C13" s="259"/>
+      <c r="D13" s="259"/>
       <c r="E13" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="F13" s="256"/>
-      <c r="G13" s="256"/>
-      <c r="H13" s="256"/>
-      <c r="I13" s="256"/>
-      <c r="J13" s="256"/>
-      <c r="K13" s="256"/>
-      <c r="L13" s="256"/>
+      <c r="F13" s="251"/>
+      <c r="G13" s="251"/>
+      <c r="H13" s="251"/>
+      <c r="I13" s="251"/>
+      <c r="J13" s="251"/>
+      <c r="K13" s="251"/>
+      <c r="L13" s="251"/>
       <c r="M13" s="160"/>
     </row>
-    <row r="14" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="257" t="s">
+    <row r="14" spans="1:13" ht="52" x14ac:dyDescent="0.15">
+      <c r="A14" s="252" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="243"/>
-      <c r="C14" s="243"/>
-      <c r="D14" s="243"/>
-      <c r="E14" s="243"/>
-      <c r="F14" s="239" t="s">
+      <c r="B14" s="236"/>
+      <c r="C14" s="236"/>
+      <c r="D14" s="236"/>
+      <c r="E14" s="236"/>
+      <c r="F14" s="242" t="s">
         <v>246</v>
       </c>
-      <c r="G14" s="241">
+      <c r="G14" s="245">
         <v>40664</v>
       </c>
-      <c r="H14" s="241">
+      <c r="H14" s="245">
         <v>40725</v>
       </c>
       <c r="I14" s="172" t="s">
         <v>412</v>
       </c>
-      <c r="J14" s="243"/>
-      <c r="K14" s="243"/>
-      <c r="L14" s="243"/>
+      <c r="J14" s="236"/>
+      <c r="K14" s="236"/>
+      <c r="L14" s="236"/>
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="258"/>
-      <c r="B15" s="246"/>
-      <c r="C15" s="246"/>
-      <c r="D15" s="246"/>
-      <c r="E15" s="246"/>
-      <c r="F15" s="247"/>
-      <c r="G15" s="242"/>
-      <c r="H15" s="242"/>
+    <row r="15" spans="1:13" ht="26" x14ac:dyDescent="0.15">
+      <c r="A15" s="253"/>
+      <c r="B15" s="237"/>
+      <c r="C15" s="237"/>
+      <c r="D15" s="237"/>
+      <c r="E15" s="237"/>
+      <c r="F15" s="243"/>
+      <c r="G15" s="246"/>
+      <c r="H15" s="246"/>
       <c r="I15" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="J15" s="246"/>
-      <c r="K15" s="246"/>
-      <c r="L15" s="246"/>
+      <c r="J15" s="237"/>
+      <c r="K15" s="237"/>
+      <c r="L15" s="237"/>
       <c r="M15" s="16"/>
     </row>
-    <row r="16" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="258"/>
-      <c r="B16" s="246"/>
-      <c r="C16" s="246"/>
-      <c r="D16" s="246"/>
-      <c r="E16" s="246"/>
-      <c r="F16" s="247"/>
-      <c r="G16" s="242"/>
-      <c r="H16" s="242"/>
+    <row r="16" spans="1:13" ht="26" x14ac:dyDescent="0.15">
+      <c r="A16" s="253"/>
+      <c r="B16" s="237"/>
+      <c r="C16" s="237"/>
+      <c r="D16" s="237"/>
+      <c r="E16" s="237"/>
+      <c r="F16" s="243"/>
+      <c r="G16" s="246"/>
+      <c r="H16" s="246"/>
       <c r="I16" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="J16" s="246"/>
-      <c r="K16" s="246"/>
-      <c r="L16" s="246"/>
+      <c r="J16" s="237"/>
+      <c r="K16" s="237"/>
+      <c r="L16" s="237"/>
       <c r="M16" s="16"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="258"/>
-      <c r="B17" s="244"/>
-      <c r="C17" s="244"/>
-      <c r="D17" s="244"/>
-      <c r="E17" s="244"/>
-      <c r="F17" s="240"/>
-      <c r="G17" s="245"/>
-      <c r="H17" s="245"/>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="253"/>
+      <c r="B17" s="238"/>
+      <c r="C17" s="238"/>
+      <c r="D17" s="238"/>
+      <c r="E17" s="238"/>
+      <c r="F17" s="244"/>
+      <c r="G17" s="247"/>
+      <c r="H17" s="247"/>
       <c r="I17" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="J17" s="244"/>
-      <c r="K17" s="244"/>
-      <c r="L17" s="244"/>
+      <c r="J17" s="238"/>
+      <c r="K17" s="238"/>
+      <c r="L17" s="238"/>
       <c r="M17" s="17"/>
     </row>
-    <row r="18" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="251" t="s">
+    <row r="18" spans="1:13" ht="52" x14ac:dyDescent="0.15">
+      <c r="A18" s="233" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="243"/>
-      <c r="C18" s="243"/>
-      <c r="D18" s="243"/>
-      <c r="E18" s="243"/>
-      <c r="F18" s="239" t="s">
+      <c r="B18" s="236"/>
+      <c r="C18" s="236"/>
+      <c r="D18" s="236"/>
+      <c r="E18" s="236"/>
+      <c r="F18" s="242" t="s">
         <v>247</v>
       </c>
-      <c r="G18" s="241">
+      <c r="G18" s="245">
         <v>40664</v>
       </c>
-      <c r="H18" s="241">
+      <c r="H18" s="245">
         <v>40725</v>
       </c>
       <c r="I18" s="172" t="s">
         <v>413</v>
       </c>
-      <c r="J18" s="243"/>
-      <c r="K18" s="243"/>
-      <c r="L18" s="243"/>
+      <c r="J18" s="236"/>
+      <c r="K18" s="236"/>
+      <c r="L18" s="236"/>
       <c r="M18" s="15"/>
     </row>
-    <row r="19" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="252"/>
-      <c r="B19" s="246"/>
-      <c r="C19" s="246"/>
-      <c r="D19" s="246"/>
-      <c r="E19" s="246"/>
-      <c r="F19" s="247"/>
-      <c r="G19" s="247"/>
-      <c r="H19" s="247"/>
+    <row r="19" spans="1:13" ht="26" x14ac:dyDescent="0.15">
+      <c r="A19" s="234"/>
+      <c r="B19" s="237"/>
+      <c r="C19" s="237"/>
+      <c r="D19" s="237"/>
+      <c r="E19" s="237"/>
+      <c r="F19" s="243"/>
+      <c r="G19" s="243"/>
+      <c r="H19" s="243"/>
       <c r="I19" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="J19" s="246"/>
-      <c r="K19" s="246"/>
-      <c r="L19" s="246"/>
+      <c r="J19" s="237"/>
+      <c r="K19" s="237"/>
+      <c r="L19" s="237"/>
       <c r="M19" s="16"/>
     </row>
-    <row r="20" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="252"/>
-      <c r="B20" s="246"/>
-      <c r="C20" s="246"/>
-      <c r="D20" s="246"/>
-      <c r="E20" s="246"/>
-      <c r="F20" s="247"/>
-      <c r="G20" s="247"/>
-      <c r="H20" s="247"/>
+    <row r="20" spans="1:13" ht="26" x14ac:dyDescent="0.15">
+      <c r="A20" s="234"/>
+      <c r="B20" s="237"/>
+      <c r="C20" s="237"/>
+      <c r="D20" s="237"/>
+      <c r="E20" s="237"/>
+      <c r="F20" s="243"/>
+      <c r="G20" s="243"/>
+      <c r="H20" s="243"/>
       <c r="I20" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="J20" s="246"/>
-      <c r="K20" s="246"/>
-      <c r="L20" s="246"/>
+      <c r="J20" s="237"/>
+      <c r="K20" s="237"/>
+      <c r="L20" s="237"/>
       <c r="M20" s="16"/>
     </row>
-    <row r="21" spans="1:13" ht="51" x14ac:dyDescent="0.2">
-      <c r="A21" s="253"/>
-      <c r="B21" s="244"/>
-      <c r="C21" s="244"/>
-      <c r="D21" s="244"/>
-      <c r="E21" s="244"/>
-      <c r="F21" s="240"/>
-      <c r="G21" s="240"/>
-      <c r="H21" s="240"/>
+    <row r="21" spans="1:13" ht="52" x14ac:dyDescent="0.15">
+      <c r="A21" s="235"/>
+      <c r="B21" s="238"/>
+      <c r="C21" s="238"/>
+      <c r="D21" s="238"/>
+      <c r="E21" s="238"/>
+      <c r="F21" s="244"/>
+      <c r="G21" s="244"/>
+      <c r="H21" s="244"/>
       <c r="I21" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="J21" s="246"/>
-      <c r="K21" s="244"/>
-      <c r="L21" s="244"/>
+      <c r="J21" s="237"/>
+      <c r="K21" s="238"/>
+      <c r="L21" s="238"/>
       <c r="M21" s="17"/>
     </row>
-    <row r="22" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="251" t="s">
+    <row r="22" spans="1:13" ht="39" x14ac:dyDescent="0.15">
+      <c r="A22" s="233" t="s">
         <v>117</v>
       </c>
-      <c r="B22" s="243"/>
-      <c r="C22" s="243"/>
-      <c r="D22" s="243"/>
-      <c r="E22" s="243"/>
-      <c r="F22" s="239" t="s">
+      <c r="B22" s="236"/>
+      <c r="C22" s="236"/>
+      <c r="D22" s="236"/>
+      <c r="E22" s="236"/>
+      <c r="F22" s="242" t="s">
         <v>248</v>
       </c>
-      <c r="G22" s="241">
+      <c r="G22" s="245">
         <v>40695</v>
       </c>
-      <c r="H22" s="241">
+      <c r="H22" s="245">
         <v>40909</v>
       </c>
       <c r="I22" s="23" t="s">
@@ -16146,15 +16145,15 @@
       <c r="L22" s="26"/>
       <c r="M22" s="26"/>
     </row>
-    <row r="23" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A23" s="252"/>
-      <c r="B23" s="246"/>
-      <c r="C23" s="246"/>
-      <c r="D23" s="246"/>
-      <c r="E23" s="246"/>
-      <c r="F23" s="247"/>
-      <c r="G23" s="247"/>
-      <c r="H23" s="247"/>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" s="234"/>
+      <c r="B23" s="237"/>
+      <c r="C23" s="237"/>
+      <c r="D23" s="237"/>
+      <c r="E23" s="237"/>
+      <c r="F23" s="243"/>
+      <c r="G23" s="243"/>
+      <c r="H23" s="243"/>
       <c r="I23" s="24" t="s">
         <v>321</v>
       </c>
@@ -16163,15 +16162,15 @@
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
     </row>
-    <row r="24" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="252"/>
-      <c r="B24" s="246"/>
-      <c r="C24" s="246"/>
-      <c r="D24" s="246"/>
-      <c r="E24" s="246"/>
-      <c r="F24" s="247"/>
-      <c r="G24" s="247"/>
-      <c r="H24" s="247"/>
+    <row r="24" spans="1:13" ht="26" x14ac:dyDescent="0.15">
+      <c r="A24" s="234"/>
+      <c r="B24" s="237"/>
+      <c r="C24" s="237"/>
+      <c r="D24" s="237"/>
+      <c r="E24" s="237"/>
+      <c r="F24" s="243"/>
+      <c r="G24" s="243"/>
+      <c r="H24" s="243"/>
       <c r="I24" s="24" t="s">
         <v>331</v>
       </c>
@@ -16180,15 +16179,15 @@
       <c r="L24" s="27"/>
       <c r="M24" s="27"/>
     </row>
-    <row r="25" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="252"/>
-      <c r="B25" s="246"/>
-      <c r="C25" s="246"/>
-      <c r="D25" s="246"/>
-      <c r="E25" s="246"/>
-      <c r="F25" s="247"/>
-      <c r="G25" s="247"/>
-      <c r="H25" s="247"/>
+    <row r="25" spans="1:13" ht="39" x14ac:dyDescent="0.15">
+      <c r="A25" s="234"/>
+      <c r="B25" s="237"/>
+      <c r="C25" s="237"/>
+      <c r="D25" s="237"/>
+      <c r="E25" s="237"/>
+      <c r="F25" s="243"/>
+      <c r="G25" s="243"/>
+      <c r="H25" s="243"/>
       <c r="I25" s="174" t="s">
         <v>411</v>
       </c>
@@ -16197,15 +16196,15 @@
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
     </row>
-    <row r="26" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="253"/>
-      <c r="B26" s="244"/>
-      <c r="C26" s="244"/>
-      <c r="D26" s="244"/>
-      <c r="E26" s="244"/>
-      <c r="F26" s="240"/>
-      <c r="G26" s="240"/>
-      <c r="H26" s="240"/>
+    <row r="26" spans="1:13" ht="39" x14ac:dyDescent="0.15">
+      <c r="A26" s="235"/>
+      <c r="B26" s="238"/>
+      <c r="C26" s="238"/>
+      <c r="D26" s="238"/>
+      <c r="E26" s="238"/>
+      <c r="F26" s="244"/>
+      <c r="G26" s="244"/>
+      <c r="H26" s="244"/>
       <c r="I26" s="25" t="s">
         <v>322</v>
       </c>
@@ -16214,107 +16213,107 @@
       <c r="L26" s="28"/>
       <c r="M26" s="28"/>
     </row>
-    <row r="27" spans="1:13" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="251" t="s">
+    <row r="27" spans="1:13" ht="78" x14ac:dyDescent="0.15">
+      <c r="A27" s="233" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="243"/>
-      <c r="C27" s="243"/>
-      <c r="D27" s="243"/>
-      <c r="E27" s="243"/>
-      <c r="F27" s="248" t="s">
+      <c r="B27" s="236"/>
+      <c r="C27" s="236"/>
+      <c r="D27" s="236"/>
+      <c r="E27" s="236"/>
+      <c r="F27" s="254" t="s">
         <v>249</v>
       </c>
-      <c r="G27" s="241">
+      <c r="G27" s="245">
         <v>40603</v>
       </c>
-      <c r="H27" s="241">
+      <c r="H27" s="245">
         <v>40664</v>
       </c>
       <c r="I27" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="J27" s="246"/>
-      <c r="K27" s="243"/>
-      <c r="L27" s="243"/>
-      <c r="M27" s="243"/>
-    </row>
-    <row r="28" spans="1:13" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="252"/>
-      <c r="B28" s="246"/>
-      <c r="C28" s="246"/>
-      <c r="D28" s="246"/>
-      <c r="E28" s="246"/>
-      <c r="F28" s="249"/>
-      <c r="G28" s="242"/>
-      <c r="H28" s="247"/>
+      <c r="J27" s="237"/>
+      <c r="K27" s="236"/>
+      <c r="L27" s="236"/>
+      <c r="M27" s="236"/>
+    </row>
+    <row r="28" spans="1:13" ht="65" x14ac:dyDescent="0.15">
+      <c r="A28" s="234"/>
+      <c r="B28" s="237"/>
+      <c r="C28" s="237"/>
+      <c r="D28" s="237"/>
+      <c r="E28" s="237"/>
+      <c r="F28" s="255"/>
+      <c r="G28" s="246"/>
+      <c r="H28" s="243"/>
       <c r="I28" s="173" t="s">
         <v>410</v>
       </c>
-      <c r="J28" s="246"/>
-      <c r="K28" s="246"/>
-      <c r="L28" s="246"/>
-      <c r="M28" s="246"/>
-    </row>
-    <row r="29" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="252"/>
-      <c r="B29" s="244"/>
-      <c r="C29" s="244"/>
-      <c r="D29" s="244"/>
-      <c r="E29" s="244"/>
-      <c r="F29" s="250"/>
-      <c r="G29" s="245"/>
-      <c r="H29" s="240"/>
+      <c r="J28" s="237"/>
+      <c r="K28" s="237"/>
+      <c r="L28" s="237"/>
+      <c r="M28" s="237"/>
+    </row>
+    <row r="29" spans="1:13" ht="39" x14ac:dyDescent="0.15">
+      <c r="A29" s="234"/>
+      <c r="B29" s="238"/>
+      <c r="C29" s="238"/>
+      <c r="D29" s="238"/>
+      <c r="E29" s="238"/>
+      <c r="F29" s="256"/>
+      <c r="G29" s="247"/>
+      <c r="H29" s="244"/>
       <c r="I29" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="J29" s="244"/>
-      <c r="K29" s="244"/>
-      <c r="L29" s="244"/>
-      <c r="M29" s="244"/>
-    </row>
-    <row r="30" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="252"/>
-      <c r="B30" s="243"/>
-      <c r="C30" s="243"/>
-      <c r="D30" s="243"/>
-      <c r="E30" s="243"/>
-      <c r="F30" s="239" t="s">
+      <c r="J29" s="238"/>
+      <c r="K29" s="238"/>
+      <c r="L29" s="238"/>
+      <c r="M29" s="238"/>
+    </row>
+    <row r="30" spans="1:13" ht="52" x14ac:dyDescent="0.15">
+      <c r="A30" s="234"/>
+      <c r="B30" s="236"/>
+      <c r="C30" s="236"/>
+      <c r="D30" s="236"/>
+      <c r="E30" s="236"/>
+      <c r="F30" s="242" t="s">
         <v>250</v>
       </c>
-      <c r="G30" s="241">
+      <c r="G30" s="245">
         <v>40603</v>
       </c>
-      <c r="H30" s="241">
+      <c r="H30" s="245">
         <v>40664</v>
       </c>
       <c r="I30" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="J30" s="243"/>
-      <c r="K30" s="243"/>
-      <c r="L30" s="243"/>
-      <c r="M30" s="243"/>
-    </row>
-    <row r="31" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="252"/>
-      <c r="B31" s="244"/>
-      <c r="C31" s="244"/>
-      <c r="D31" s="244"/>
-      <c r="E31" s="244"/>
-      <c r="F31" s="240"/>
-      <c r="G31" s="242"/>
-      <c r="H31" s="240"/>
+      <c r="J30" s="236"/>
+      <c r="K30" s="236"/>
+      <c r="L30" s="236"/>
+      <c r="M30" s="236"/>
+    </row>
+    <row r="31" spans="1:13" ht="26" x14ac:dyDescent="0.15">
+      <c r="A31" s="234"/>
+      <c r="B31" s="238"/>
+      <c r="C31" s="238"/>
+      <c r="D31" s="238"/>
+      <c r="E31" s="238"/>
+      <c r="F31" s="244"/>
+      <c r="G31" s="246"/>
+      <c r="H31" s="244"/>
       <c r="I31" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="J31" s="244"/>
-      <c r="K31" s="244"/>
-      <c r="L31" s="244"/>
-      <c r="M31" s="244"/>
-    </row>
-    <row r="32" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="252"/>
+      <c r="J31" s="238"/>
+      <c r="K31" s="238"/>
+      <c r="L31" s="238"/>
+      <c r="M31" s="238"/>
+    </row>
+    <row r="32" spans="1:13" ht="39" x14ac:dyDescent="0.15">
+      <c r="A32" s="234"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
@@ -16336,47 +16335,47 @@
       <c r="L32" s="19"/>
       <c r="M32" s="19"/>
     </row>
-    <row r="33" spans="1:17" ht="51" x14ac:dyDescent="0.2">
-      <c r="A33" s="252"/>
-      <c r="B33" s="243"/>
-      <c r="C33" s="243"/>
-      <c r="D33" s="243"/>
-      <c r="E33" s="243"/>
-      <c r="F33" s="239" t="s">
+    <row r="33" spans="1:17" ht="39" x14ac:dyDescent="0.15">
+      <c r="A33" s="234"/>
+      <c r="B33" s="236"/>
+      <c r="C33" s="236"/>
+      <c r="D33" s="236"/>
+      <c r="E33" s="236"/>
+      <c r="F33" s="242" t="s">
         <v>252</v>
       </c>
-      <c r="G33" s="241">
+      <c r="G33" s="245">
         <v>40603</v>
       </c>
-      <c r="H33" s="241">
+      <c r="H33" s="245">
         <v>40664</v>
       </c>
       <c r="I33" s="172" t="s">
         <v>408</v>
       </c>
-      <c r="J33" s="243"/>
-      <c r="K33" s="243"/>
-      <c r="L33" s="243"/>
-      <c r="M33" s="243"/>
-    </row>
-    <row r="34" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="253"/>
-      <c r="B34" s="244"/>
-      <c r="C34" s="244"/>
-      <c r="D34" s="244"/>
-      <c r="E34" s="244"/>
-      <c r="F34" s="240"/>
-      <c r="G34" s="245"/>
-      <c r="H34" s="245"/>
+      <c r="J33" s="236"/>
+      <c r="K33" s="236"/>
+      <c r="L33" s="236"/>
+      <c r="M33" s="236"/>
+    </row>
+    <row r="34" spans="1:17" ht="26" x14ac:dyDescent="0.15">
+      <c r="A34" s="235"/>
+      <c r="B34" s="238"/>
+      <c r="C34" s="238"/>
+      <c r="D34" s="238"/>
+      <c r="E34" s="238"/>
+      <c r="F34" s="244"/>
+      <c r="G34" s="247"/>
+      <c r="H34" s="247"/>
       <c r="I34" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="J34" s="244"/>
-      <c r="K34" s="244"/>
-      <c r="L34" s="244"/>
-      <c r="M34" s="244"/>
-    </row>
-    <row r="35" spans="1:17" s="70" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J34" s="238"/>
+      <c r="K34" s="238"/>
+      <c r="L34" s="238"/>
+      <c r="M34" s="238"/>
+    </row>
+    <row r="35" spans="1:17" s="70" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="167" t="s">
         <v>379</v>
       </c>
@@ -16397,24 +16396,24 @@
       <c r="P35" s="90"/>
       <c r="Q35" s="90"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="234" t="s">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A36" s="261" t="s">
         <v>404</v>
       </c>
-      <c r="B36" s="235"/>
-      <c r="C36" s="235"/>
-      <c r="D36" s="235"/>
-      <c r="E36" s="235"/>
-      <c r="F36" s="235"/>
-      <c r="G36" s="235"/>
-      <c r="H36" s="235"/>
-      <c r="I36" s="235"/>
-      <c r="J36" s="235"/>
-      <c r="K36" s="235"/>
-      <c r="L36" s="235"/>
-      <c r="M36" s="235"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B36" s="262"/>
+      <c r="C36" s="262"/>
+      <c r="D36" s="262"/>
+      <c r="E36" s="262"/>
+      <c r="F36" s="262"/>
+      <c r="G36" s="262"/>
+      <c r="H36" s="262"/>
+      <c r="I36" s="262"/>
+      <c r="J36" s="262"/>
+      <c r="K36" s="262"/>
+      <c r="L36" s="262"/>
+      <c r="M36" s="262"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="212" t="s">
         <v>405</v>
       </c>
@@ -16431,41 +16430,41 @@
       <c r="L37" s="213"/>
       <c r="M37" s="213"/>
     </row>
-    <row r="38" spans="1:17" s="161" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="233" t="s">
+    <row r="38" spans="1:17" s="161" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="260" t="s">
         <v>374</v>
       </c>
-      <c r="B38" s="233"/>
-      <c r="C38" s="233"/>
-      <c r="D38" s="233"/>
-      <c r="E38" s="233"/>
-      <c r="F38" s="233"/>
-      <c r="G38" s="233"/>
-      <c r="H38" s="233"/>
-      <c r="I38" s="233"/>
-      <c r="J38" s="233"/>
-      <c r="K38" s="233"/>
-      <c r="L38" s="233"/>
-      <c r="M38" s="233"/>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A39" s="237" t="s">
+      <c r="B38" s="260"/>
+      <c r="C38" s="260"/>
+      <c r="D38" s="260"/>
+      <c r="E38" s="260"/>
+      <c r="F38" s="260"/>
+      <c r="G38" s="260"/>
+      <c r="H38" s="260"/>
+      <c r="I38" s="260"/>
+      <c r="J38" s="260"/>
+      <c r="K38" s="260"/>
+      <c r="L38" s="260"/>
+      <c r="M38" s="260"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A39" s="264" t="s">
         <v>406</v>
       </c>
-      <c r="B39" s="238"/>
-      <c r="C39" s="238"/>
-      <c r="D39" s="238"/>
-      <c r="E39" s="238"/>
-      <c r="F39" s="238"/>
-      <c r="G39" s="238"/>
-      <c r="H39" s="238"/>
-      <c r="I39" s="238"/>
-      <c r="J39" s="238"/>
-      <c r="K39" s="238"/>
-      <c r="L39" s="238"/>
-      <c r="M39" s="238"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B39" s="265"/>
+      <c r="C39" s="265"/>
+      <c r="D39" s="265"/>
+      <c r="E39" s="265"/>
+      <c r="F39" s="265"/>
+      <c r="G39" s="265"/>
+      <c r="H39" s="265"/>
+      <c r="I39" s="265"/>
+      <c r="J39" s="265"/>
+      <c r="K39" s="265"/>
+      <c r="L39" s="265"/>
+      <c r="M39" s="265"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A40" s="171" t="s">
         <v>403</v>
       </c>
@@ -16484,85 +16483,6 @@
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="D4:D9"/>
-    <mergeCell ref="E4:E9"/>
-    <mergeCell ref="F4:F9"/>
-    <mergeCell ref="G4:G9"/>
-    <mergeCell ref="H4:H9"/>
-    <mergeCell ref="J4:J9"/>
-    <mergeCell ref="K4:K9"/>
-    <mergeCell ref="L4:L9"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="L14:L17"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="K10:K13"/>
-    <mergeCell ref="L10:L13"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="K18:K21"/>
-    <mergeCell ref="L18:L21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="E22:E26"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="F22:F26"/>
-    <mergeCell ref="G22:G26"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="J27:J29"/>
-    <mergeCell ref="H22:H26"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
     <mergeCell ref="A38:M38"/>
     <mergeCell ref="A37:M37"/>
     <mergeCell ref="A36:M36"/>
@@ -16579,14 +16499,88 @@
     <mergeCell ref="K33:K34"/>
     <mergeCell ref="K27:K29"/>
     <mergeCell ref="L27:L29"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="H22:H26"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="L18:L21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="E22:E26"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="F22:F26"/>
+    <mergeCell ref="G22:G26"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="L10:L13"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="D4:D9"/>
+    <mergeCell ref="E4:E9"/>
+    <mergeCell ref="F4:F9"/>
+    <mergeCell ref="G4:G9"/>
+    <mergeCell ref="H4:H9"/>
+    <mergeCell ref="J4:J9"/>
+    <mergeCell ref="K4:K9"/>
+    <mergeCell ref="L4:L9"/>
+    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -16602,37 +16596,37 @@
       <selection pane="topRight" activeCell="B2" sqref="B1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="80" customWidth="1"/>
-    <col min="2" max="18" width="6.140625" style="80" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="80" customWidth="1"/>
+    <col min="2" max="18" width="6.1640625" style="80" customWidth="1"/>
     <col min="19" max="19" width="2" style="80" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.85546875" style="80"/>
+    <col min="20" max="16384" width="8.83203125" style="80"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A1" s="236" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A1" s="263" t="s">
         <v>364</v>
       </c>
-      <c r="B1" s="236"/>
-      <c r="C1" s="236"/>
-      <c r="D1" s="236"/>
-      <c r="E1" s="236"/>
-      <c r="F1" s="236"/>
-      <c r="G1" s="236"/>
-      <c r="H1" s="236"/>
-      <c r="I1" s="236"/>
-      <c r="J1" s="236"/>
-      <c r="K1" s="236"/>
-      <c r="L1" s="236"/>
-      <c r="M1" s="236"/>
-      <c r="N1" s="236"/>
-      <c r="O1" s="236"/>
-      <c r="P1" s="236"/>
-      <c r="Q1" s="236"/>
-      <c r="R1" s="236"/>
-    </row>
-    <row r="2" spans="1:21" s="69" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="263"/>
+      <c r="C1" s="263"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
+      <c r="I1" s="263"/>
+      <c r="J1" s="263"/>
+      <c r="K1" s="263"/>
+      <c r="L1" s="263"/>
+      <c r="M1" s="263"/>
+      <c r="N1" s="263"/>
+      <c r="O1" s="263"/>
+      <c r="P1" s="263"/>
+      <c r="Q1" s="263"/>
+      <c r="R1" s="263"/>
+    </row>
+    <row r="2" spans="1:21" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="76"/>
       <c r="B2" s="76">
         <v>2000</v>
@@ -16691,7 +16685,7 @@
       <c r="T2" s="216"/>
       <c r="U2" s="216"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="111" t="s">
         <v>0</v>
       </c>
@@ -16754,7 +16748,7 @@
       </c>
       <c r="U3" s="70"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="111" t="s">
         <v>1</v>
       </c>
@@ -16817,7 +16811,7 @@
       </c>
       <c r="U4" s="70"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="111" t="s">
         <v>2</v>
       </c>
@@ -16873,7 +16867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="111" t="s">
         <v>3</v>
       </c>
@@ -16929,7 +16923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="111" t="s">
         <v>4</v>
       </c>
@@ -16985,7 +16979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="111" t="s">
         <v>5</v>
       </c>
@@ -17041,7 +17035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="111" t="s">
         <v>6</v>
       </c>
@@ -17097,7 +17091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="111" t="s">
         <v>7</v>
       </c>
@@ -17153,7 +17147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" s="111" t="s">
         <v>234</v>
       </c>
@@ -17209,7 +17203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12" s="111" t="s">
         <v>8</v>
       </c>
@@ -17265,7 +17259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="111" t="s">
         <v>9</v>
       </c>
@@ -17321,7 +17315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="111" t="s">
         <v>10</v>
       </c>
@@ -17377,7 +17371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="111" t="s">
         <v>11</v>
       </c>
@@ -17433,7 +17427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="111" t="s">
         <v>12</v>
       </c>
@@ -17489,7 +17483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="111" t="s">
         <v>13</v>
       </c>
@@ -17545,7 +17539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="111" t="s">
         <v>14</v>
       </c>
@@ -17601,7 +17595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="111" t="s">
         <v>15</v>
       </c>
@@ -17657,7 +17651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="111" t="s">
         <v>16</v>
       </c>
@@ -17713,7 +17707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="111" t="s">
         <v>17</v>
       </c>
@@ -17769,7 +17763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="111" t="s">
         <v>18</v>
       </c>
@@ -17825,7 +17819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="111" t="s">
         <v>19</v>
       </c>
@@ -17881,7 +17875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="111" t="s">
         <v>20</v>
       </c>
@@ -17937,7 +17931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="111" t="s">
         <v>48</v>
       </c>
@@ -17993,7 +17987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="111" t="s">
         <v>21</v>
       </c>
@@ -18049,7 +18043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" s="111" t="s">
         <v>22</v>
       </c>
@@ -18105,7 +18099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="111" t="s">
         <v>23</v>
       </c>
@@ -18161,7 +18155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="111" t="s">
         <v>24</v>
       </c>
@@ -18217,7 +18211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" s="111" t="s">
         <v>25</v>
       </c>
@@ -18273,7 +18267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="111" t="s">
         <v>26</v>
       </c>
@@ -18329,7 +18323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="111" t="s">
         <v>27</v>
       </c>
@@ -18385,7 +18379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" s="111" t="s">
         <v>28</v>
       </c>
@@ -18441,7 +18435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" s="111" t="s">
         <v>29</v>
       </c>
@@ -18497,7 +18491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" s="111" t="s">
         <v>30</v>
       </c>
@@ -18553,7 +18547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" s="111" t="s">
         <v>31</v>
       </c>
@@ -18609,7 +18603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" s="111" t="s">
         <v>32</v>
       </c>
@@ -18665,7 +18659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38" s="111" t="s">
         <v>33</v>
       </c>
@@ -18721,7 +18715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39" s="111" t="s">
         <v>34</v>
       </c>
@@ -18777,7 +18771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40" s="111" t="s">
         <v>35</v>
       </c>
@@ -18833,7 +18827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A41" s="111" t="s">
         <v>36</v>
       </c>
@@ -18889,7 +18883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A42" s="111" t="s">
         <v>37</v>
       </c>
@@ -18945,7 +18939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A43" s="111" t="s">
         <v>117</v>
       </c>
@@ -19001,7 +18995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A44" s="111" t="s">
         <v>38</v>
       </c>
@@ -19057,7 +19051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A45" s="111" t="s">
         <v>39</v>
       </c>
@@ -19113,7 +19107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A46" s="111" t="s">
         <v>40</v>
       </c>
@@ -19169,7 +19163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A47" s="111" t="s">
         <v>41</v>
       </c>
@@ -19225,7 +19219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A48" s="111" t="s">
         <v>42</v>
       </c>
@@ -19281,7 +19275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A49" s="111" t="s">
         <v>43</v>
       </c>
@@ -19337,7 +19331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A50" s="111" t="s">
         <v>44</v>
       </c>
@@ -19393,7 +19387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A51" s="111" t="s">
         <v>45</v>
       </c>
@@ -19449,7 +19443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A52" s="111" t="s">
         <v>46</v>
       </c>
@@ -19505,7 +19499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A53" s="111" t="s">
         <v>47</v>
       </c>
@@ -19561,7 +19555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="70" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" s="70" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="163" t="s">
         <v>378</v>
       </c>
@@ -19582,24 +19576,24 @@
       <c r="P54" s="90"/>
       <c r="Q54" s="90"/>
     </row>
-    <row r="55" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="234" t="s">
+    <row r="55" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="261" t="s">
         <v>404</v>
       </c>
-      <c r="B55" s="235"/>
-      <c r="C55" s="235"/>
-      <c r="D55" s="235"/>
-      <c r="E55" s="235"/>
-      <c r="F55" s="235"/>
-      <c r="G55" s="235"/>
-      <c r="H55" s="235"/>
-      <c r="I55" s="235"/>
-      <c r="J55" s="235"/>
-      <c r="K55" s="235"/>
-      <c r="L55" s="235"/>
-      <c r="M55" s="235"/>
-    </row>
-    <row r="56" spans="1:18" s="10" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="262"/>
+      <c r="C55" s="262"/>
+      <c r="D55" s="262"/>
+      <c r="E55" s="262"/>
+      <c r="F55" s="262"/>
+      <c r="G55" s="262"/>
+      <c r="H55" s="262"/>
+      <c r="I55" s="262"/>
+      <c r="J55" s="262"/>
+      <c r="K55" s="262"/>
+      <c r="L55" s="262"/>
+      <c r="M55" s="262"/>
+    </row>
+    <row r="56" spans="1:18" s="10" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="212" t="s">
         <v>405</v>
       </c>
@@ -19616,29 +19610,29 @@
       <c r="L56" s="213"/>
       <c r="M56" s="213"/>
     </row>
-    <row r="57" spans="1:18" s="162" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="233" t="s">
+    <row r="57" spans="1:18" s="162" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="260" t="s">
         <v>363</v>
       </c>
-      <c r="B57" s="233"/>
-      <c r="C57" s="233"/>
-      <c r="D57" s="233"/>
-      <c r="E57" s="233"/>
-      <c r="F57" s="233"/>
-      <c r="G57" s="233"/>
-      <c r="H57" s="233"/>
-      <c r="I57" s="233"/>
-      <c r="J57" s="233"/>
-      <c r="K57" s="233"/>
-      <c r="L57" s="233"/>
-      <c r="M57" s="233"/>
-      <c r="N57" s="233"/>
-      <c r="O57" s="233"/>
-      <c r="P57" s="233"/>
-      <c r="Q57" s="233"/>
-      <c r="R57" s="233"/>
-    </row>
-    <row r="58" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="260"/>
+      <c r="C57" s="260"/>
+      <c r="D57" s="260"/>
+      <c r="E57" s="260"/>
+      <c r="F57" s="260"/>
+      <c r="G57" s="260"/>
+      <c r="H57" s="260"/>
+      <c r="I57" s="260"/>
+      <c r="J57" s="260"/>
+      <c r="K57" s="260"/>
+      <c r="L57" s="260"/>
+      <c r="M57" s="260"/>
+      <c r="N57" s="260"/>
+      <c r="O57" s="260"/>
+      <c r="P57" s="260"/>
+      <c r="Q57" s="260"/>
+      <c r="R57" s="260"/>
+    </row>
+    <row r="58" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="212" t="s">
         <v>406</v>
       </c>
@@ -19660,7 +19654,7 @@
       <c r="Q58" s="213"/>
       <c r="R58" s="213"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A59" s="212" t="s">
         <v>403</v>
       </c>
@@ -19682,109 +19676,109 @@
       <c r="Q59" s="213"/>
       <c r="R59" s="213"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A60" s="113"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A61" s="113"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A62" s="113"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A63" s="113"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A64" s="113"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="113"/>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" s="113"/>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" s="113"/>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" s="113"/>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" s="113"/>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" s="113"/>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" s="113"/>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" s="113"/>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" s="113"/>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" s="113"/>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" s="113"/>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" s="113"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" s="113"/>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" s="113"/>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" s="113"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A80" s="113"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A81" s="113"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A82" s="113"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A83" s="113"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A84" s="113"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A85" s="113"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A86" s="113"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A87" s="113"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A88" s="113"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A89" s="113"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A90" s="113"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A91" s="113"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A92" s="113"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A93" s="113"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A94" s="113"/>
     </row>
   </sheetData>
@@ -19799,11 +19793,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -19814,25 +19803,25 @@
   </sheetPr>
   <dimension ref="A1:AT58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="70" bestFit="1" customWidth="1"/>
-    <col min="2" max="18" width="5.42578125" style="70" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="70" bestFit="1" customWidth="1"/>
+    <col min="2" max="18" width="5.5" style="70" customWidth="1"/>
     <col min="19" max="19" width="2" style="70" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.85546875" style="70"/>
+    <col min="20" max="16384" width="8.83203125" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" s="69" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="68"/>
       <c r="B2" s="71">
         <v>2000</v>
@@ -19891,7 +19880,7 @@
       <c r="T2" s="206"/>
       <c r="U2" s="206"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="67" t="s">
         <v>0</v>
       </c>
@@ -19953,7 +19942,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="67" t="s">
         <v>1</v>
       </c>
@@ -20015,7 +20004,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="67" t="s">
         <v>2</v>
       </c>
@@ -20077,7 +20066,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="67" t="s">
         <v>3</v>
       </c>
@@ -20133,7 +20122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="67" t="s">
         <v>4</v>
       </c>
@@ -20190,7 +20179,7 @@
       </c>
       <c r="S7" s="69"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="67" t="s">
         <v>5</v>
       </c>
@@ -20246,7 +20235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="67" t="s">
         <v>6</v>
       </c>
@@ -20302,7 +20291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="67" t="s">
         <v>7</v>
       </c>
@@ -20358,7 +20347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" s="67" t="s">
         <v>234</v>
       </c>
@@ -20414,7 +20403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12" s="67" t="s">
         <v>8</v>
       </c>
@@ -20470,7 +20459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="67" t="s">
         <v>9</v>
       </c>
@@ -20526,7 +20515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="67" t="s">
         <v>10</v>
       </c>
@@ -20582,7 +20571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="67" t="s">
         <v>11</v>
       </c>
@@ -20638,7 +20627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="67" t="s">
         <v>12</v>
       </c>
@@ -20694,7 +20683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="67" t="s">
         <v>13</v>
       </c>
@@ -20750,7 +20739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="67" t="s">
         <v>14</v>
       </c>
@@ -20806,7 +20795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="67" t="s">
         <v>15</v>
       </c>
@@ -20862,7 +20851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="67" t="s">
         <v>16</v>
       </c>
@@ -20918,7 +20907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="67" t="s">
         <v>17</v>
       </c>
@@ -20974,7 +20963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="67" t="s">
         <v>18</v>
       </c>
@@ -21030,7 +21019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="67" t="s">
         <v>19</v>
       </c>
@@ -21086,7 +21075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="67" t="s">
         <v>20</v>
       </c>
@@ -21142,7 +21131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="67" t="s">
         <v>48</v>
       </c>
@@ -21198,7 +21187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="67" t="s">
         <v>21</v>
       </c>
@@ -21254,7 +21243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" s="67" t="s">
         <v>22</v>
       </c>
@@ -21310,7 +21299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="67" t="s">
         <v>23</v>
       </c>
@@ -21366,7 +21355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="67" t="s">
         <v>24</v>
       </c>
@@ -21422,7 +21411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" s="67" t="s">
         <v>25</v>
       </c>
@@ -21478,7 +21467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="67" t="s">
         <v>26</v>
       </c>
@@ -21534,7 +21523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="67" t="s">
         <v>27</v>
       </c>
@@ -21590,7 +21579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" s="67" t="s">
         <v>28</v>
       </c>
@@ -21646,7 +21635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" s="67" t="s">
         <v>29</v>
       </c>
@@ -21702,7 +21691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" s="67" t="s">
         <v>30</v>
       </c>
@@ -21758,7 +21747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" s="67" t="s">
         <v>31</v>
       </c>
@@ -21814,7 +21803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" s="67" t="s">
         <v>32</v>
       </c>
@@ -21870,7 +21859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38" s="67" t="s">
         <v>33</v>
       </c>
@@ -21926,7 +21915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39" s="67" t="s">
         <v>34</v>
       </c>
@@ -21982,7 +21971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40" s="67" t="s">
         <v>35</v>
       </c>
@@ -22038,7 +22027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A41" s="67" t="s">
         <v>36</v>
       </c>
@@ -22094,7 +22083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A42" s="67" t="s">
         <v>37</v>
       </c>
@@ -22150,7 +22139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A43" s="67" t="s">
         <v>117</v>
       </c>
@@ -22206,7 +22195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A44" s="67" t="s">
         <v>38</v>
       </c>
@@ -22262,7 +22251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A45" s="67" t="s">
         <v>39</v>
       </c>
@@ -22318,7 +22307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A46" s="67" t="s">
         <v>40</v>
       </c>
@@ -22374,7 +22363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A47" s="67" t="s">
         <v>41</v>
       </c>
@@ -22430,7 +22419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A48" s="67" t="s">
         <v>42</v>
       </c>
@@ -22486,7 +22475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A49" s="67" t="s">
         <v>43</v>
       </c>
@@ -22542,7 +22531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A50" s="67" t="s">
         <v>44</v>
       </c>
@@ -22598,7 +22587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A51" s="67" t="s">
         <v>45</v>
       </c>
@@ -22654,7 +22643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A52" s="67" t="s">
         <v>46</v>
       </c>
@@ -22710,7 +22699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:46" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.15">
       <c r="A53" s="67" t="s">
         <v>47</v>
       </c>
@@ -22766,7 +22755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:46" s="166" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:46" s="166" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="208" t="s">
         <v>382</v>
       </c>
@@ -22788,27 +22777,27 @@
       <c r="Q54" s="208"/>
       <c r="R54" s="208"/>
     </row>
-    <row r="55" spans="1:46" s="51" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="205" t="s">
+    <row r="55" spans="1:46" s="51" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="192" t="s">
         <v>392</v>
       </c>
-      <c r="B55" s="205"/>
-      <c r="C55" s="205"/>
-      <c r="D55" s="205"/>
-      <c r="E55" s="205"/>
-      <c r="F55" s="205"/>
-      <c r="G55" s="205"/>
-      <c r="H55" s="205"/>
-      <c r="I55" s="205"/>
-      <c r="J55" s="205"/>
-      <c r="K55" s="205"/>
-      <c r="L55" s="205"/>
-      <c r="M55" s="205"/>
-      <c r="N55" s="205"/>
-      <c r="O55" s="205"/>
-      <c r="P55" s="205"/>
-      <c r="Q55" s="205"/>
-      <c r="R55" s="205"/>
+      <c r="B55" s="192"/>
+      <c r="C55" s="192"/>
+      <c r="D55" s="192"/>
+      <c r="E55" s="192"/>
+      <c r="F55" s="192"/>
+      <c r="G55" s="192"/>
+      <c r="H55" s="192"/>
+      <c r="I55" s="192"/>
+      <c r="J55" s="192"/>
+      <c r="K55" s="192"/>
+      <c r="L55" s="192"/>
+      <c r="M55" s="192"/>
+      <c r="N55" s="192"/>
+      <c r="O55" s="192"/>
+      <c r="P55" s="192"/>
+      <c r="Q55" s="192"/>
+      <c r="R55" s="192"/>
       <c r="S55" s="62"/>
       <c r="T55" s="62"/>
       <c r="U55" s="62"/>
@@ -22838,27 +22827,27 @@
       <c r="AS55" s="62"/>
       <c r="AT55" s="62"/>
     </row>
-    <row r="56" spans="1:46" s="51" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="205" t="s">
+    <row r="56" spans="1:46" s="51" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="192" t="s">
         <v>337</v>
       </c>
-      <c r="B56" s="205"/>
-      <c r="C56" s="205"/>
-      <c r="D56" s="205"/>
-      <c r="E56" s="205"/>
-      <c r="F56" s="205"/>
-      <c r="G56" s="205"/>
-      <c r="H56" s="205"/>
-      <c r="I56" s="205"/>
-      <c r="J56" s="205"/>
-      <c r="K56" s="205"/>
-      <c r="L56" s="205"/>
-      <c r="M56" s="205"/>
-      <c r="N56" s="205"/>
-      <c r="O56" s="205"/>
-      <c r="P56" s="205"/>
-      <c r="Q56" s="205"/>
-      <c r="R56" s="205"/>
+      <c r="B56" s="192"/>
+      <c r="C56" s="192"/>
+      <c r="D56" s="192"/>
+      <c r="E56" s="192"/>
+      <c r="F56" s="192"/>
+      <c r="G56" s="192"/>
+      <c r="H56" s="192"/>
+      <c r="I56" s="192"/>
+      <c r="J56" s="192"/>
+      <c r="K56" s="192"/>
+      <c r="L56" s="192"/>
+      <c r="M56" s="192"/>
+      <c r="N56" s="192"/>
+      <c r="O56" s="192"/>
+      <c r="P56" s="192"/>
+      <c r="Q56" s="192"/>
+      <c r="R56" s="192"/>
       <c r="S56" s="62"/>
       <c r="T56" s="62"/>
       <c r="U56" s="62"/>
@@ -22888,7 +22877,7 @@
       <c r="AS56" s="62"/>
       <c r="AT56" s="62"/>
     </row>
-    <row r="57" spans="1:46" s="51" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:46" s="51" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="207" t="s">
         <v>367</v>
       </c>
@@ -22938,27 +22927,27 @@
       <c r="AS57" s="62"/>
       <c r="AT57" s="62"/>
     </row>
-    <row r="58" spans="1:46" s="51" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="205" t="s">
+    <row r="58" spans="1:46" s="51" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="192" t="s">
         <v>383</v>
       </c>
-      <c r="B58" s="205"/>
-      <c r="C58" s="205"/>
-      <c r="D58" s="205"/>
-      <c r="E58" s="205"/>
-      <c r="F58" s="205"/>
-      <c r="G58" s="205"/>
-      <c r="H58" s="205"/>
-      <c r="I58" s="205"/>
-      <c r="J58" s="205"/>
-      <c r="K58" s="205"/>
-      <c r="L58" s="205"/>
-      <c r="M58" s="205"/>
-      <c r="N58" s="205"/>
-      <c r="O58" s="205"/>
-      <c r="P58" s="205"/>
-      <c r="Q58" s="205"/>
-      <c r="R58" s="205"/>
+      <c r="B58" s="192"/>
+      <c r="C58" s="192"/>
+      <c r="D58" s="192"/>
+      <c r="E58" s="192"/>
+      <c r="F58" s="192"/>
+      <c r="G58" s="192"/>
+      <c r="H58" s="192"/>
+      <c r="I58" s="192"/>
+      <c r="J58" s="192"/>
+      <c r="K58" s="192"/>
+      <c r="L58" s="192"/>
+      <c r="M58" s="192"/>
+      <c r="N58" s="192"/>
+      <c r="O58" s="192"/>
+      <c r="P58" s="192"/>
+      <c r="Q58" s="192"/>
+      <c r="R58" s="192"/>
       <c r="S58" s="62"/>
       <c r="T58" s="62"/>
       <c r="U58" s="62"/>
@@ -22999,11 +22988,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -23019,20 +23003,20 @@
       <selection pane="topRight" activeCell="B1" sqref="B1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="70" bestFit="1" customWidth="1"/>
-    <col min="2" max="18" width="7.28515625" style="70" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="70" bestFit="1" customWidth="1"/>
+    <col min="2" max="18" width="7.33203125" style="70" customWidth="1"/>
     <col min="19" max="19" width="2" style="70" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.85546875" style="70"/>
+    <col min="20" max="16384" width="8.83203125" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" s="69" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="67"/>
       <c r="B2" s="71">
         <v>2000</v>
@@ -23091,7 +23075,7 @@
       <c r="T2" s="206"/>
       <c r="U2" s="206"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="67" t="s">
         <v>0</v>
       </c>
@@ -23153,7 +23137,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="67" t="s">
         <v>1</v>
       </c>
@@ -23215,7 +23199,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="67" t="s">
         <v>2</v>
       </c>
@@ -23277,7 +23261,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="67" t="s">
         <v>3</v>
       </c>
@@ -23333,7 +23317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="67" t="s">
         <v>4</v>
       </c>
@@ -23390,7 +23374,7 @@
       </c>
       <c r="S7" s="69"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="67" t="s">
         <v>5</v>
       </c>
@@ -23446,7 +23430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="67" t="s">
         <v>6</v>
       </c>
@@ -23502,7 +23486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="67" t="s">
         <v>7</v>
       </c>
@@ -23558,7 +23542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" s="67" t="s">
         <v>234</v>
       </c>
@@ -23614,7 +23598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12" s="67" t="s">
         <v>8</v>
       </c>
@@ -23670,7 +23654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="67" t="s">
         <v>9</v>
       </c>
@@ -23726,7 +23710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="67" t="s">
         <v>10</v>
       </c>
@@ -23782,7 +23766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="67" t="s">
         <v>11</v>
       </c>
@@ -23838,7 +23822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="67" t="s">
         <v>12</v>
       </c>
@@ -23894,7 +23878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="67" t="s">
         <v>13</v>
       </c>
@@ -23950,7 +23934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="67" t="s">
         <v>14</v>
       </c>
@@ -24006,7 +23990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="67" t="s">
         <v>15</v>
       </c>
@@ -24062,7 +24046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="67" t="s">
         <v>16</v>
       </c>
@@ -24118,7 +24102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="67" t="s">
         <v>17</v>
       </c>
@@ -24174,7 +24158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="67" t="s">
         <v>18</v>
       </c>
@@ -24230,7 +24214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="67" t="s">
         <v>19</v>
       </c>
@@ -24286,7 +24270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="67" t="s">
         <v>20</v>
       </c>
@@ -24342,7 +24326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="67" t="s">
         <v>48</v>
       </c>
@@ -24398,7 +24382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="67" t="s">
         <v>21</v>
       </c>
@@ -24454,7 +24438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" s="67" t="s">
         <v>22</v>
       </c>
@@ -24510,7 +24494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="67" t="s">
         <v>23</v>
       </c>
@@ -24566,7 +24550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="67" t="s">
         <v>24</v>
       </c>
@@ -24622,7 +24606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" s="67" t="s">
         <v>25</v>
       </c>
@@ -24678,7 +24662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="67" t="s">
         <v>26</v>
       </c>
@@ -24734,7 +24718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="67" t="s">
         <v>27</v>
       </c>
@@ -24790,7 +24774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" s="67" t="s">
         <v>28</v>
       </c>
@@ -24846,7 +24830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" s="67" t="s">
         <v>29</v>
       </c>
@@ -24902,7 +24886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" s="67" t="s">
         <v>30</v>
       </c>
@@ -24958,7 +24942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" s="67" t="s">
         <v>31</v>
       </c>
@@ -25014,7 +24998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" s="67" t="s">
         <v>32</v>
       </c>
@@ -25070,7 +25054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38" s="67" t="s">
         <v>33</v>
       </c>
@@ -25126,7 +25110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39" s="67" t="s">
         <v>34</v>
       </c>
@@ -25182,7 +25166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40" s="67" t="s">
         <v>35</v>
       </c>
@@ -25238,7 +25222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A41" s="67" t="s">
         <v>36</v>
       </c>
@@ -25294,7 +25278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A42" s="67" t="s">
         <v>37</v>
       </c>
@@ -25350,7 +25334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A43" s="67" t="s">
         <v>117</v>
       </c>
@@ -25406,7 +25390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A44" s="67" t="s">
         <v>38</v>
       </c>
@@ -25462,7 +25446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A45" s="67" t="s">
         <v>39</v>
       </c>
@@ -25518,7 +25502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A46" s="67" t="s">
         <v>40</v>
       </c>
@@ -25574,7 +25558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A47" s="67" t="s">
         <v>41</v>
       </c>
@@ -25630,7 +25614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A48" s="67" t="s">
         <v>42</v>
       </c>
@@ -25686,7 +25670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A49" s="67" t="s">
         <v>43</v>
       </c>
@@ -25742,7 +25726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A50" s="67" t="s">
         <v>44</v>
       </c>
@@ -25798,7 +25782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A51" s="67" t="s">
         <v>45</v>
       </c>
@@ -25854,7 +25838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A52" s="67" t="s">
         <v>46</v>
       </c>
@@ -25910,7 +25894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A53" s="67" t="s">
         <v>47</v>
       </c>
@@ -25966,7 +25950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" ht="26" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="210" t="s">
         <v>381</v>
       </c>
@@ -25988,8 +25972,8 @@
       <c r="Q54" s="210"/>
       <c r="R54" s="210"/>
     </row>
-    <row r="55" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="205" t="s">
+    <row r="55" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="192" t="s">
         <v>392</v>
       </c>
       <c r="B55" s="209"/>
@@ -26010,7 +25994,7 @@
       <c r="Q55" s="209"/>
       <c r="R55" s="209"/>
     </row>
-    <row r="56" spans="1:18" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="209" t="s">
         <v>337</v>
       </c>
@@ -26032,7 +26016,7 @@
       <c r="Q56" s="209"/>
       <c r="R56" s="209"/>
     </row>
-    <row r="57" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="207" t="s">
         <v>368</v>
       </c>
@@ -26054,27 +26038,27 @@
       <c r="Q57" s="207"/>
       <c r="R57" s="207"/>
     </row>
-    <row r="58" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="205" t="s">
+    <row r="58" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="192" t="s">
         <v>384</v>
       </c>
-      <c r="B58" s="205"/>
-      <c r="C58" s="205"/>
-      <c r="D58" s="205"/>
-      <c r="E58" s="205"/>
-      <c r="F58" s="205"/>
-      <c r="G58" s="205"/>
-      <c r="H58" s="205"/>
-      <c r="I58" s="205"/>
-      <c r="J58" s="205"/>
-      <c r="K58" s="205"/>
-      <c r="L58" s="205"/>
-      <c r="M58" s="205"/>
-      <c r="N58" s="205"/>
-      <c r="O58" s="205"/>
-      <c r="P58" s="205"/>
-      <c r="Q58" s="205"/>
-      <c r="R58" s="205"/>
+      <c r="B58" s="192"/>
+      <c r="C58" s="192"/>
+      <c r="D58" s="192"/>
+      <c r="E58" s="192"/>
+      <c r="F58" s="192"/>
+      <c r="G58" s="192"/>
+      <c r="H58" s="192"/>
+      <c r="I58" s="192"/>
+      <c r="J58" s="192"/>
+      <c r="K58" s="192"/>
+      <c r="L58" s="192"/>
+      <c r="M58" s="192"/>
+      <c r="N58" s="192"/>
+      <c r="O58" s="192"/>
+      <c r="P58" s="192"/>
+      <c r="Q58" s="192"/>
+      <c r="R58" s="192"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -26088,11 +26072,6 @@
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -26108,20 +26087,20 @@
       <selection pane="topRight" activeCell="B1" sqref="B1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="70" bestFit="1" customWidth="1"/>
-    <col min="2" max="18" width="6.85546875" style="70" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="70" bestFit="1" customWidth="1"/>
+    <col min="2" max="18" width="6.83203125" style="70" customWidth="1"/>
     <col min="19" max="19" width="2" style="70" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.85546875" style="70"/>
+    <col min="20" max="16384" width="8.83203125" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" s="75" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="69" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="76"/>
       <c r="B2" s="71">
         <v>2000</v>
@@ -26180,7 +26159,7 @@
       <c r="T2" s="216"/>
       <c r="U2" s="216"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="67" t="s">
         <v>0</v>
       </c>
@@ -26242,7 +26221,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="67" t="s">
         <v>1</v>
       </c>
@@ -26304,7 +26283,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="67" t="s">
         <v>2</v>
       </c>
@@ -26361,7 +26340,7 @@
       </c>
       <c r="T5" s="80"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="67" t="s">
         <v>3</v>
       </c>
@@ -26417,7 +26396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="67" t="s">
         <v>4</v>
       </c>
@@ -26473,7 +26452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="67" t="s">
         <v>5</v>
       </c>
@@ -26529,7 +26508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="67" t="s">
         <v>6</v>
       </c>
@@ -26585,7 +26564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="67" t="s">
         <v>7</v>
       </c>
@@ -26641,7 +26620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" s="67" t="s">
         <v>234</v>
       </c>
@@ -26697,7 +26676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12" s="67" t="s">
         <v>8</v>
       </c>
@@ -26753,7 +26732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="67" t="s">
         <v>9</v>
       </c>
@@ -26809,7 +26788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="67" t="s">
         <v>10</v>
       </c>
@@ -26865,7 +26844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="67" t="s">
         <v>11</v>
       </c>
@@ -26921,7 +26900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="67" t="s">
         <v>12</v>
       </c>
@@ -26977,7 +26956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="67" t="s">
         <v>13</v>
       </c>
@@ -27033,7 +27012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="67" t="s">
         <v>14</v>
       </c>
@@ -27089,7 +27068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="67" t="s">
         <v>15</v>
       </c>
@@ -27145,7 +27124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="67" t="s">
         <v>16</v>
       </c>
@@ -27201,7 +27180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="67" t="s">
         <v>17</v>
       </c>
@@ -27257,7 +27236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="67" t="s">
         <v>18</v>
       </c>
@@ -27313,7 +27292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="67" t="s">
         <v>19</v>
       </c>
@@ -27369,7 +27348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="67" t="s">
         <v>20</v>
       </c>
@@ -27425,7 +27404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="67" t="s">
         <v>48</v>
       </c>
@@ -27481,7 +27460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="67" t="s">
         <v>21</v>
       </c>
@@ -27537,7 +27516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" s="67" t="s">
         <v>22</v>
       </c>
@@ -27593,7 +27572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="67" t="s">
         <v>23</v>
       </c>
@@ -27649,7 +27628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="67" t="s">
         <v>24</v>
       </c>
@@ -27705,7 +27684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" s="67" t="s">
         <v>25</v>
       </c>
@@ -27761,7 +27740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="67" t="s">
         <v>26</v>
       </c>
@@ -27817,7 +27796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="67" t="s">
         <v>27</v>
       </c>
@@ -27873,7 +27852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" s="67" t="s">
         <v>28</v>
       </c>
@@ -27929,7 +27908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" s="67" t="s">
         <v>29</v>
       </c>
@@ -27985,7 +27964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" s="67" t="s">
         <v>30</v>
       </c>
@@ -28041,7 +28020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" s="67" t="s">
         <v>31</v>
       </c>
@@ -28097,7 +28076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" s="67" t="s">
         <v>32</v>
       </c>
@@ -28153,7 +28132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38" s="67" t="s">
         <v>33</v>
       </c>
@@ -28209,7 +28188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39" s="67" t="s">
         <v>34</v>
       </c>
@@ -28265,7 +28244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40" s="67" t="s">
         <v>35</v>
       </c>
@@ -28321,7 +28300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A41" s="67" t="s">
         <v>36</v>
       </c>
@@ -28377,7 +28356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A42" s="67" t="s">
         <v>37</v>
       </c>
@@ -28433,7 +28412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A43" s="67" t="s">
         <v>117</v>
       </c>
@@ -28489,7 +28468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A44" s="67" t="s">
         <v>38</v>
       </c>
@@ -28545,7 +28524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A45" s="67" t="s">
         <v>39</v>
       </c>
@@ -28601,7 +28580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A46" s="67" t="s">
         <v>40</v>
       </c>
@@ -28657,7 +28636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A47" s="67" t="s">
         <v>41</v>
       </c>
@@ -28713,7 +28692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A48" s="67" t="s">
         <v>42</v>
       </c>
@@ -28769,7 +28748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A49" s="67" t="s">
         <v>43</v>
       </c>
@@ -28825,7 +28804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A50" s="67" t="s">
         <v>44</v>
       </c>
@@ -28881,7 +28860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A51" s="67" t="s">
         <v>45</v>
       </c>
@@ -28937,7 +28916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A52" s="67" t="s">
         <v>46</v>
       </c>
@@ -28993,7 +28972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A53" s="67" t="s">
         <v>47</v>
       </c>
@@ -29049,7 +29028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="210" t="s">
         <v>381</v>
       </c>
@@ -29071,7 +29050,7 @@
       <c r="Q54" s="210"/>
       <c r="R54" s="210"/>
     </row>
-    <row r="55" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="212" t="s">
         <v>386</v>
       </c>
@@ -29093,7 +29072,7 @@
       <c r="Q55" s="213"/>
       <c r="R55" s="213"/>
     </row>
-    <row r="56" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="211" t="s">
         <v>391</v>
       </c>
@@ -29115,7 +29094,7 @@
       <c r="Q56" s="211"/>
       <c r="R56" s="211"/>
     </row>
-    <row r="57" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="214" t="s">
         <v>385</v>
       </c>
@@ -29147,11 +29126,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -29167,15 +29141,15 @@
       <selection pane="topRight" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="70" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="8.140625" style="70" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="70" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="70"/>
+    <col min="1" max="1" width="17.5" style="70" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="8.1640625" style="70" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="70" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="217" t="s">
         <v>345</v>
       </c>
@@ -29187,7 +29161,7 @@
       <c r="G1" s="217"/>
       <c r="H1" s="217"/>
     </row>
-    <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="39" x14ac:dyDescent="0.15">
       <c r="A2" s="76"/>
       <c r="B2" s="71">
         <v>2009</v>
@@ -29211,7 +29185,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="67" t="s">
         <v>0</v>
       </c>
@@ -29235,7 +29209,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="67" t="s">
         <v>1</v>
       </c>
@@ -29259,7 +29233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="67" t="s">
         <v>2</v>
       </c>
@@ -29285,7 +29259,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="67" t="s">
         <v>3</v>
       </c>
@@ -29309,7 +29283,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="67" t="s">
         <v>4</v>
       </c>
@@ -29335,7 +29309,7 @@
         <v>3698</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="67" t="s">
         <v>5</v>
       </c>
@@ -29359,7 +29333,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="67" t="s">
         <v>6</v>
       </c>
@@ -29383,7 +29357,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="67" t="s">
         <v>7</v>
       </c>
@@ -29407,7 +29381,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="67" t="s">
         <v>234</v>
       </c>
@@ -29431,7 +29405,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="67" t="s">
         <v>8</v>
       </c>
@@ -29457,7 +29431,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="67" t="s">
         <v>9</v>
       </c>
@@ -29481,7 +29455,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="67" t="s">
         <v>10</v>
       </c>
@@ -29505,7 +29479,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="67" t="s">
         <v>11</v>
       </c>
@@ -29529,7 +29503,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="67" t="s">
         <v>12</v>
       </c>
@@ -29553,7 +29527,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="67" t="s">
         <v>13</v>
       </c>
@@ -29577,7 +29551,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="67" t="s">
         <v>14</v>
       </c>
@@ -29601,7 +29575,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="67" t="s">
         <v>15</v>
       </c>
@@ -29625,7 +29599,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="67" t="s">
         <v>16</v>
       </c>
@@ -29649,7 +29623,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="67" t="s">
         <v>17</v>
       </c>
@@ -29673,7 +29647,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="67" t="s">
         <v>18</v>
       </c>
@@ -29697,7 +29671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="67" t="s">
         <v>19</v>
       </c>
@@ -29721,7 +29695,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="67" t="s">
         <v>20</v>
       </c>
@@ -29747,7 +29721,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="67" t="s">
         <v>48</v>
       </c>
@@ -29773,7 +29747,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="67" t="s">
         <v>21</v>
       </c>
@@ -29797,7 +29771,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="67" t="s">
         <v>22</v>
       </c>
@@ -29821,7 +29795,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="67" t="s">
         <v>23</v>
       </c>
@@ -29845,7 +29819,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="67" t="s">
         <v>24</v>
       </c>
@@ -29869,7 +29843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="67" t="s">
         <v>25</v>
       </c>
@@ -29893,7 +29867,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="67" t="s">
         <v>26</v>
       </c>
@@ -29917,7 +29891,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="67" t="s">
         <v>27</v>
       </c>
@@ -29941,7 +29915,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="67" t="s">
         <v>28</v>
       </c>
@@ -29965,7 +29939,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="67" t="s">
         <v>29</v>
       </c>
@@ -29991,7 +29965,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="67" t="s">
         <v>30</v>
       </c>
@@ -30015,7 +29989,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="67" t="s">
         <v>31</v>
       </c>
@@ -30041,7 +30015,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="67" t="s">
         <v>32</v>
       </c>
@@ -30065,7 +30039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="67" t="s">
         <v>33</v>
       </c>
@@ -30089,7 +30063,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="67" t="s">
         <v>34</v>
       </c>
@@ -30113,7 +30087,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="67" t="s">
         <v>35</v>
       </c>
@@ -30137,7 +30111,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="67" t="s">
         <v>36</v>
       </c>
@@ -30163,7 +30137,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="67" t="s">
         <v>37</v>
       </c>
@@ -30187,7 +30161,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="67" t="s">
         <v>117</v>
       </c>
@@ -30211,7 +30185,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="67" t="s">
         <v>38</v>
       </c>
@@ -30235,7 +30209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="67" t="s">
         <v>39</v>
       </c>
@@ -30259,7 +30233,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="67" t="s">
         <v>40</v>
       </c>
@@ -30285,7 +30259,7 @@
         <v>9465</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="67" t="s">
         <v>41</v>
       </c>
@@ -30309,7 +30283,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="67" t="s">
         <v>42</v>
       </c>
@@ -30333,7 +30307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A49" s="67" t="s">
         <v>43</v>
       </c>
@@ -30359,7 +30333,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A50" s="67" t="s">
         <v>44</v>
       </c>
@@ -30383,7 +30357,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A51" s="67" t="s">
         <v>45</v>
       </c>
@@ -30407,7 +30381,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A52" s="67" t="s">
         <v>46</v>
       </c>
@@ -30431,7 +30405,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A53" s="67" t="s">
         <v>47</v>
       </c>
@@ -30455,7 +30429,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="47.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" ht="47" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="208" t="s">
         <v>380</v>
       </c>
@@ -30476,7 +30450,7 @@
       <c r="P54" s="90"/>
       <c r="Q54" s="90"/>
     </row>
-    <row r="55" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" ht="52.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="212" t="s">
         <v>390</v>
       </c>
@@ -30489,7 +30463,7 @@
       <c r="H55" s="213"/>
       <c r="I55" s="79"/>
     </row>
-    <row r="56" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="211" t="s">
         <v>370</v>
       </c>
@@ -30501,7 +30475,7 @@
       <c r="G56" s="211"/>
       <c r="H56" s="211"/>
     </row>
-    <row r="57" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="218" t="s">
         <v>369</v>
       </c>
@@ -30513,7 +30487,7 @@
       <c r="G57" s="218"/>
       <c r="H57" s="218"/>
     </row>
-    <row r="58" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="218" t="s">
         <v>387</v>
       </c>
@@ -30525,7 +30499,7 @@
       <c r="G58" s="218"/>
       <c r="H58" s="218"/>
     </row>
-    <row r="59" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="218" t="s">
         <v>388</v>
       </c>
@@ -30537,7 +30511,7 @@
       <c r="G59" s="218"/>
       <c r="H59" s="218"/>
     </row>
-    <row r="60" spans="1:18" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="214" t="s">
         <v>385</v>
       </c>
@@ -30572,11 +30546,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -30588,25 +30557,25 @@
   </sheetPr>
   <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1:R1048576"/>
+      <selection pane="topRight" activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="70" bestFit="1" customWidth="1"/>
-    <col min="2" max="18" width="6.28515625" style="70" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" style="70" bestFit="1" customWidth="1"/>
+    <col min="2" max="18" width="6.33203125" style="70" customWidth="1"/>
     <col min="19" max="19" width="2" style="70" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.85546875" style="70"/>
+    <col min="20" max="16384" width="8.83203125" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.15">
       <c r="A1" s="74" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="67"/>
       <c r="B2" s="76">
         <v>2000</v>
@@ -30665,7 +30634,7 @@
       <c r="T2" s="221"/>
       <c r="U2" s="221"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="67" t="s">
         <v>0</v>
       </c>
@@ -30727,7 +30696,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="67" t="s">
         <v>1</v>
       </c>
@@ -30789,7 +30758,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="67" t="s">
         <v>2</v>
       </c>
@@ -30851,7 +30820,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="67" t="s">
         <v>3</v>
       </c>
@@ -30907,7 +30876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="67" t="s">
         <v>4</v>
       </c>
@@ -30963,7 +30932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="67" t="s">
         <v>5</v>
       </c>
@@ -31019,7 +30988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="67" t="s">
         <v>6</v>
       </c>
@@ -31063,19 +31032,19 @@
         <v>0</v>
       </c>
       <c r="O9" s="67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P9" s="67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q9" s="67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R9" s="67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="67" t="s">
         <v>7</v>
       </c>
@@ -31131,7 +31100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" s="67" t="s">
         <v>234</v>
       </c>
@@ -31187,7 +31156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12" s="67" t="s">
         <v>8</v>
       </c>
@@ -31243,7 +31212,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="67" t="s">
         <v>9</v>
       </c>
@@ -31299,7 +31268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="67" t="s">
         <v>10</v>
       </c>
@@ -31355,7 +31324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="67" t="s">
         <v>11</v>
       </c>
@@ -31411,7 +31380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="67" t="s">
         <v>12</v>
       </c>
@@ -31467,7 +31436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="67" t="s">
         <v>13</v>
       </c>
@@ -31523,7 +31492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="67" t="s">
         <v>14</v>
       </c>
@@ -31579,7 +31548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="67" t="s">
         <v>15</v>
       </c>
@@ -31635,7 +31604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="67" t="s">
         <v>16</v>
       </c>
@@ -31691,7 +31660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="67" t="s">
         <v>17</v>
       </c>
@@ -31747,7 +31716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="67" t="s">
         <v>18</v>
       </c>
@@ -31803,7 +31772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="67" t="s">
         <v>19</v>
       </c>
@@ -31859,7 +31828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="67" t="s">
         <v>20</v>
       </c>
@@ -31915,7 +31884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="67" t="s">
         <v>48</v>
       </c>
@@ -31971,7 +31940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="67" t="s">
         <v>21</v>
       </c>
@@ -32027,7 +31996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" s="67" t="s">
         <v>22</v>
       </c>
@@ -32083,7 +32052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="67" t="s">
         <v>23</v>
       </c>
@@ -32139,7 +32108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="67" t="s">
         <v>24</v>
       </c>
@@ -32195,7 +32164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" s="67" t="s">
         <v>25</v>
       </c>
@@ -32251,7 +32220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="67" t="s">
         <v>26</v>
       </c>
@@ -32307,7 +32276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="67" t="s">
         <v>27</v>
       </c>
@@ -32363,7 +32332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" s="67" t="s">
         <v>28</v>
       </c>
@@ -32419,7 +32388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" s="67" t="s">
         <v>29</v>
       </c>
@@ -32475,7 +32444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" s="67" t="s">
         <v>30</v>
       </c>
@@ -32531,7 +32500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" s="67" t="s">
         <v>31</v>
       </c>
@@ -32587,7 +32556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" s="67" t="s">
         <v>32</v>
       </c>
@@ -32643,7 +32612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38" s="67" t="s">
         <v>33</v>
       </c>
@@ -32699,7 +32668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39" s="67" t="s">
         <v>34</v>
       </c>
@@ -32755,7 +32724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40" s="67" t="s">
         <v>35</v>
       </c>
@@ -32811,7 +32780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A41" s="67" t="s">
         <v>36</v>
       </c>
@@ -32867,7 +32836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A42" s="67" t="s">
         <v>37</v>
       </c>
@@ -32923,7 +32892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A43" s="67" t="s">
         <v>117</v>
       </c>
@@ -32979,7 +32948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A44" s="67" t="s">
         <v>38</v>
       </c>
@@ -33035,7 +33004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A45" s="67" t="s">
         <v>39</v>
       </c>
@@ -33091,7 +33060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A46" s="67" t="s">
         <v>40</v>
       </c>
@@ -33147,7 +33116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A47" s="67" t="s">
         <v>41</v>
       </c>
@@ -33203,7 +33172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A48" s="67" t="s">
         <v>42</v>
       </c>
@@ -33259,7 +33228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A49" s="67" t="s">
         <v>43</v>
       </c>
@@ -33315,7 +33284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A50" s="67" t="s">
         <v>44</v>
       </c>
@@ -33371,7 +33340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A51" s="67" t="s">
         <v>45</v>
       </c>
@@ -33427,7 +33396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A52" s="67" t="s">
         <v>46</v>
       </c>
@@ -33483,7 +33452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A53" s="67" t="s">
         <v>47</v>
       </c>
@@ -33539,7 +33508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="38.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" ht="38" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="208" t="s">
         <v>378</v>
       </c>
@@ -33561,7 +33530,7 @@
       <c r="Q54" s="219"/>
       <c r="R54" s="219"/>
     </row>
-    <row r="55" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="212" t="s">
         <v>400</v>
       </c>
@@ -33583,7 +33552,7 @@
       <c r="Q55" s="213"/>
       <c r="R55" s="213"/>
     </row>
-    <row r="56" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="212" t="s">
         <v>401</v>
       </c>
@@ -33605,7 +33574,7 @@
       <c r="Q56" s="213"/>
       <c r="R56" s="213"/>
     </row>
-    <row r="57" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="222" t="s">
         <v>389</v>
       </c>
@@ -33627,7 +33596,7 @@
       <c r="Q57" s="218"/>
       <c r="R57" s="218"/>
     </row>
-    <row r="58" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="218" t="s">
         <v>347</v>
       </c>
@@ -33649,7 +33618,7 @@
       <c r="Q58" s="218"/>
       <c r="R58" s="218"/>
     </row>
-    <row r="59" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="218" t="s">
         <v>394</v>
       </c>
@@ -33671,7 +33640,7 @@
       <c r="Q59" s="218"/>
       <c r="R59" s="218"/>
     </row>
-    <row r="60" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" ht="15" x14ac:dyDescent="0.15">
       <c r="A60" s="72"/>
     </row>
   </sheetData>
@@ -33686,11 +33655,6 @@
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="61" fitToHeight="0" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -33706,43 +33670,43 @@
       <selection pane="topRight" activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="70" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="70" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="70" hidden="1" customWidth="1"/>
-    <col min="4" max="8" width="9.140625" style="70" hidden="1" customWidth="1"/>
-    <col min="9" max="10" width="8.85546875" style="70"/>
+    <col min="1" max="1" width="20.6640625" style="70" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="70" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="70" hidden="1" customWidth="1"/>
+    <col min="4" max="8" width="9.1640625" style="70" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="8.83203125" style="70"/>
     <col min="11" max="11" width="35" style="70" customWidth="1"/>
-    <col min="12" max="13" width="10.140625" style="70" customWidth="1"/>
-    <col min="14" max="14" width="24.140625" style="70" customWidth="1"/>
-    <col min="15" max="16" width="11.28515625" style="70" customWidth="1"/>
-    <col min="17" max="17" width="25.140625" style="70" customWidth="1"/>
-    <col min="18" max="19" width="11.7109375" style="70" customWidth="1"/>
-    <col min="20" max="20" width="23.140625" style="70" customWidth="1"/>
-    <col min="21" max="22" width="13.42578125" style="70" customWidth="1"/>
-    <col min="23" max="23" width="18.42578125" style="70" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" style="70" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.7109375" style="70" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="36.7109375" style="70" customWidth="1"/>
+    <col min="12" max="13" width="10.1640625" style="70" customWidth="1"/>
+    <col min="14" max="14" width="24.1640625" style="70" customWidth="1"/>
+    <col min="15" max="16" width="11.33203125" style="70" customWidth="1"/>
+    <col min="17" max="17" width="25.1640625" style="70" customWidth="1"/>
+    <col min="18" max="19" width="11.6640625" style="70" customWidth="1"/>
+    <col min="20" max="20" width="23.1640625" style="70" customWidth="1"/>
+    <col min="21" max="22" width="13.5" style="70" customWidth="1"/>
+    <col min="23" max="23" width="18.5" style="70" customWidth="1"/>
+    <col min="24" max="24" width="15.1640625" style="70" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.6640625" style="70" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="36.6640625" style="70" customWidth="1"/>
     <col min="27" max="27" width="10" style="70" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.140625" style="70" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="44.85546875" style="70" customWidth="1"/>
-    <col min="30" max="31" width="17.42578125" style="70" customWidth="1"/>
-    <col min="32" max="32" width="29.7109375" style="70" customWidth="1"/>
-    <col min="33" max="34" width="8.85546875" style="70"/>
-    <col min="35" max="35" width="20.7109375" style="70" customWidth="1"/>
-    <col min="36" max="37" width="8.85546875" style="70"/>
-    <col min="38" max="38" width="39.42578125" style="70" customWidth="1"/>
-    <col min="39" max="16384" width="8.85546875" style="70"/>
+    <col min="28" max="28" width="8.1640625" style="70" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="44.83203125" style="70" customWidth="1"/>
+    <col min="30" max="31" width="17.5" style="70" customWidth="1"/>
+    <col min="32" max="32" width="29.6640625" style="70" customWidth="1"/>
+    <col min="33" max="34" width="8.83203125" style="70"/>
+    <col min="35" max="35" width="20.6640625" style="70" customWidth="1"/>
+    <col min="36" max="37" width="8.83203125" style="70"/>
+    <col min="38" max="38" width="39.5" style="70" customWidth="1"/>
+    <col min="39" max="16384" width="8.83203125" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A1" s="69" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="2" spans="1:41" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:41" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="224"/>
       <c r="B2" s="229">
         <v>2000</v>
@@ -33819,7 +33783,7 @@
       <c r="AN2" s="223"/>
       <c r="AO2" s="223"/>
     </row>
-    <row r="3" spans="1:41" s="79" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41" s="79" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A3" s="225"/>
       <c r="B3" s="100" t="s">
         <v>163</v>
@@ -33932,7 +33896,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="4" spans="1:41" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" ht="52" x14ac:dyDescent="0.15">
       <c r="A4" s="107" t="s">
         <v>0</v>
       </c>
@@ -33989,7 +33953,7 @@
       <c r="AN4" s="117"/>
       <c r="AO4" s="118"/>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A5" s="88" t="s">
         <v>1</v>
       </c>
@@ -34034,7 +33998,7 @@
       <c r="AN5" s="117"/>
       <c r="AO5" s="118"/>
     </row>
-    <row r="6" spans="1:41" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" ht="65" x14ac:dyDescent="0.15">
       <c r="A6" s="88" t="s">
         <v>2</v>
       </c>
@@ -34091,7 +34055,7 @@
       <c r="AN6" s="117"/>
       <c r="AO6" s="118"/>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A7" s="88" t="s">
         <v>3</v>
       </c>
@@ -34136,7 +34100,7 @@
       <c r="AN7" s="117"/>
       <c r="AO7" s="118"/>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A8" s="88" t="s">
         <v>4</v>
       </c>
@@ -34181,7 +34145,7 @@
       <c r="AN8" s="117"/>
       <c r="AO8" s="118"/>
     </row>
-    <row r="9" spans="1:41" ht="102" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41" ht="78" x14ac:dyDescent="0.15">
       <c r="A9" s="226" t="s">
         <v>5</v>
       </c>
@@ -34232,7 +34196,7 @@
       <c r="AN9" s="126"/>
       <c r="AO9" s="127"/>
     </row>
-    <row r="10" spans="1:41" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41" ht="26" x14ac:dyDescent="0.15">
       <c r="A10" s="228"/>
       <c r="B10" s="95"/>
       <c r="C10" s="89"/>
@@ -34287,7 +34251,7 @@
       <c r="AN10" s="132"/>
       <c r="AO10" s="133"/>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A11" s="88" t="s">
         <v>6</v>
       </c>
@@ -34332,7 +34296,7 @@
       <c r="AN11" s="117"/>
       <c r="AO11" s="118"/>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A12" s="88" t="s">
         <v>7</v>
       </c>
@@ -34377,7 +34341,7 @@
       <c r="AN12" s="117"/>
       <c r="AO12" s="118"/>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A13" s="88" t="s">
         <v>234</v>
       </c>
@@ -34422,7 +34386,7 @@
       <c r="AN13" s="117"/>
       <c r="AO13" s="118"/>
     </row>
-    <row r="14" spans="1:41" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41" ht="26" x14ac:dyDescent="0.15">
       <c r="A14" s="88" t="s">
         <v>8</v>
       </c>
@@ -34473,7 +34437,7 @@
       <c r="AN14" s="117"/>
       <c r="AO14" s="118"/>
     </row>
-    <row r="15" spans="1:41" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41" ht="39" x14ac:dyDescent="0.15">
       <c r="A15" s="226" t="s">
         <v>9</v>
       </c>
@@ -34524,7 +34488,7 @@
       <c r="AN15" s="126"/>
       <c r="AO15" s="127"/>
     </row>
-    <row r="16" spans="1:41" ht="153" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41" ht="143" x14ac:dyDescent="0.15">
       <c r="A16" s="228"/>
       <c r="B16" s="95"/>
       <c r="C16" s="89"/>
@@ -34603,7 +34567,7 @@
       <c r="AN16" s="121"/>
       <c r="AO16" s="131"/>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A17" s="88" t="s">
         <v>10</v>
       </c>
@@ -34648,7 +34612,7 @@
       <c r="AN17" s="117"/>
       <c r="AO17" s="118"/>
     </row>
-    <row r="18" spans="1:41" ht="153" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:41" ht="143" x14ac:dyDescent="0.15">
       <c r="A18" s="88" t="s">
         <v>11</v>
       </c>
@@ -34705,7 +34669,7 @@
       <c r="AN18" s="117"/>
       <c r="AO18" s="118"/>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A19" s="103" t="s">
         <v>12</v>
       </c>
@@ -34750,7 +34714,7 @@
       <c r="AN19" s="117"/>
       <c r="AO19" s="118"/>
     </row>
-    <row r="20" spans="1:41" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:41" ht="65" x14ac:dyDescent="0.15">
       <c r="A20" s="88" t="s">
         <v>13</v>
       </c>
@@ -34807,7 +34771,7 @@
       <c r="AN20" s="117"/>
       <c r="AO20" s="118"/>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A21" s="88" t="s">
         <v>14</v>
       </c>
@@ -34852,7 +34816,7 @@
       <c r="AN21" s="117"/>
       <c r="AO21" s="118"/>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A22" s="88" t="s">
         <v>15</v>
       </c>
@@ -34897,7 +34861,7 @@
       <c r="AN22" s="117"/>
       <c r="AO22" s="118"/>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A23" s="88" t="s">
         <v>16</v>
       </c>
@@ -34942,7 +34906,7 @@
       <c r="AN23" s="117"/>
       <c r="AO23" s="118"/>
     </row>
-    <row r="24" spans="1:41" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:41" ht="39" x14ac:dyDescent="0.15">
       <c r="A24" s="226" t="s">
         <v>17</v>
       </c>
@@ -34999,7 +34963,7 @@
       <c r="AN24" s="126"/>
       <c r="AO24" s="137"/>
     </row>
-    <row r="25" spans="1:41" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:41" ht="52" x14ac:dyDescent="0.15">
       <c r="A25" s="227"/>
       <c r="B25" s="95"/>
       <c r="C25" s="89"/>
@@ -35048,7 +35012,7 @@
       <c r="AN25" s="132"/>
       <c r="AO25" s="121"/>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A26" s="88" t="s">
         <v>18</v>
       </c>
@@ -35093,7 +35057,7 @@
       <c r="AN26" s="117"/>
       <c r="AO26" s="118"/>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A27" s="88" t="s">
         <v>19</v>
       </c>
@@ -35138,7 +35102,7 @@
       <c r="AN27" s="117"/>
       <c r="AO27" s="118"/>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A28" s="88" t="s">
         <v>20</v>
       </c>
@@ -35183,7 +35147,7 @@
       <c r="AN28" s="117"/>
       <c r="AO28" s="118"/>
     </row>
-    <row r="29" spans="1:41" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:41" ht="39" x14ac:dyDescent="0.15">
       <c r="A29" s="88" t="s">
         <v>48</v>
       </c>
@@ -35234,7 +35198,7 @@
       <c r="AN29" s="117"/>
       <c r="AO29" s="118"/>
     </row>
-    <row r="30" spans="1:41" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:41" ht="39" x14ac:dyDescent="0.15">
       <c r="A30" s="88"/>
       <c r="B30" s="95"/>
       <c r="C30" s="89"/>
@@ -35283,7 +35247,7 @@
       <c r="AN30" s="126"/>
       <c r="AO30" s="127"/>
     </row>
-    <row r="31" spans="1:41" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:41" ht="117" x14ac:dyDescent="0.15">
       <c r="A31" s="88" t="s">
         <v>21</v>
       </c>
@@ -35340,7 +35304,7 @@
       <c r="AN31" s="132"/>
       <c r="AO31" s="133"/>
     </row>
-    <row r="32" spans="1:41" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:41" ht="65" x14ac:dyDescent="0.15">
       <c r="A32" s="88" t="s">
         <v>22</v>
       </c>
@@ -35391,7 +35355,7 @@
       <c r="AN32" s="117"/>
       <c r="AO32" s="118"/>
     </row>
-    <row r="33" spans="1:41" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:41" ht="65" x14ac:dyDescent="0.15">
       <c r="A33" s="88" t="s">
         <v>23</v>
       </c>
@@ -35448,7 +35412,7 @@
       <c r="AN33" s="117"/>
       <c r="AO33" s="118"/>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A34" s="88" t="s">
         <v>24</v>
       </c>
@@ -35493,7 +35457,7 @@
       <c r="AN34" s="117"/>
       <c r="AO34" s="118"/>
     </row>
-    <row r="35" spans="1:41" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:41" ht="78" x14ac:dyDescent="0.15">
       <c r="A35" s="88" t="s">
         <v>25</v>
       </c>
@@ -35544,7 +35508,7 @@
       <c r="AN35" s="117"/>
       <c r="AO35" s="118"/>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A36" s="88" t="s">
         <v>26</v>
       </c>
@@ -35589,7 +35553,7 @@
       <c r="AN36" s="117"/>
       <c r="AO36" s="118"/>
     </row>
-    <row r="37" spans="1:41" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:41" ht="52" x14ac:dyDescent="0.15">
       <c r="A37" s="88" t="s">
         <v>27</v>
       </c>
@@ -35640,7 +35604,7 @@
       <c r="AN37" s="117"/>
       <c r="AO37" s="118"/>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A38" s="88" t="s">
         <v>28</v>
       </c>
@@ -35685,7 +35649,7 @@
       <c r="AN38" s="117"/>
       <c r="AO38" s="118"/>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A39" s="88" t="s">
         <v>29</v>
       </c>
@@ -35730,7 +35694,7 @@
       <c r="AN39" s="117"/>
       <c r="AO39" s="118"/>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A40" s="88" t="s">
         <v>30</v>
       </c>
@@ -35775,7 +35739,7 @@
       <c r="AN40" s="117"/>
       <c r="AO40" s="118"/>
     </row>
-    <row r="41" spans="1:41" ht="191.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:41" ht="182" x14ac:dyDescent="0.15">
       <c r="A41" s="88" t="s">
         <v>31</v>
       </c>
@@ -35844,7 +35808,7 @@
       <c r="AN41" s="117"/>
       <c r="AO41" s="118"/>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A42" s="88" t="s">
         <v>32</v>
       </c>
@@ -35889,7 +35853,7 @@
       <c r="AN42" s="117"/>
       <c r="AO42" s="118"/>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A43" s="88" t="s">
         <v>33</v>
       </c>
@@ -35934,7 +35898,7 @@
       <c r="AN43" s="117"/>
       <c r="AO43" s="118"/>
     </row>
-    <row r="44" spans="1:41" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:41" ht="91" x14ac:dyDescent="0.15">
       <c r="A44" s="88" t="s">
         <v>34</v>
       </c>
@@ -35985,7 +35949,7 @@
       <c r="AN44" s="117"/>
       <c r="AO44" s="118"/>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A45" s="88" t="s">
         <v>35</v>
       </c>
@@ -36030,7 +35994,7 @@
       <c r="AN45" s="117"/>
       <c r="AO45" s="118"/>
     </row>
-    <row r="46" spans="1:41" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:41" ht="26" x14ac:dyDescent="0.15">
       <c r="A46" s="88" t="s">
         <v>36</v>
       </c>
@@ -36081,7 +36045,7 @@
       <c r="AN46" s="117"/>
       <c r="AO46" s="118"/>
     </row>
-    <row r="47" spans="1:41" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:41" ht="78" x14ac:dyDescent="0.15">
       <c r="A47" s="88" t="s">
         <v>37</v>
       </c>
@@ -36138,7 +36102,7 @@
       <c r="AN47" s="117"/>
       <c r="AO47" s="118"/>
     </row>
-    <row r="48" spans="1:41" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:41" ht="156.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="107" t="s">
         <v>117</v>
       </c>
@@ -36201,7 +36165,7 @@
       <c r="AN48" s="117"/>
       <c r="AO48" s="118"/>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A49" s="88" t="s">
         <v>38</v>
       </c>
@@ -36246,7 +36210,7 @@
       <c r="AN49" s="117"/>
       <c r="AO49" s="118"/>
     </row>
-    <row r="50" spans="1:41" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:41" ht="65" x14ac:dyDescent="0.15">
       <c r="A50" s="88" t="s">
         <v>39</v>
       </c>
@@ -36297,7 +36261,7 @@
       <c r="AN50" s="117"/>
       <c r="AO50" s="118"/>
     </row>
-    <row r="51" spans="1:41" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:41" ht="112.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="88" t="s">
         <v>40</v>
       </c>
@@ -36354,7 +36318,7 @@
       <c r="AN51" s="117"/>
       <c r="AO51" s="118"/>
     </row>
-    <row r="52" spans="1:41" ht="132" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:41" ht="132" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="107" t="s">
         <v>41</v>
       </c>
@@ -36423,7 +36387,7 @@
       <c r="AN52" s="117"/>
       <c r="AO52" s="118"/>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A53" s="88" t="s">
         <v>42</v>
       </c>
@@ -36468,7 +36432,7 @@
       <c r="AN53" s="117"/>
       <c r="AO53" s="118"/>
     </row>
-    <row r="54" spans="1:41" ht="51" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:41" ht="52" x14ac:dyDescent="0.15">
       <c r="A54" s="88" t="s">
         <v>43</v>
       </c>
@@ -36525,7 +36489,7 @@
       <c r="AN54" s="117"/>
       <c r="AO54" s="118"/>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A55" s="88" t="s">
         <v>44</v>
       </c>
@@ -36570,7 +36534,7 @@
       <c r="AN55" s="117"/>
       <c r="AO55" s="118"/>
     </row>
-    <row r="56" spans="1:41" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:41" ht="26" x14ac:dyDescent="0.15">
       <c r="A56" s="88" t="s">
         <v>45</v>
       </c>
@@ -36621,7 +36585,7 @@
       <c r="AN56" s="117"/>
       <c r="AO56" s="118"/>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A57" s="88" t="s">
         <v>46</v>
       </c>
@@ -36666,7 +36630,7 @@
       <c r="AN57" s="117"/>
       <c r="AO57" s="118"/>
     </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A58" s="88" t="s">
         <v>47</v>
       </c>
@@ -36711,7 +36675,7 @@
       <c r="AN58" s="117"/>
       <c r="AO58" s="118"/>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A59" s="164" t="s">
         <v>378</v>
       </c>
@@ -36732,22 +36696,22 @@
       <c r="P59" s="164"/>
       <c r="Q59" s="164"/>
     </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A60" s="169" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A61" s="80" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A62" s="80" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="63" spans="1:41" s="66" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:41" s="66" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="168" t="s">
         <v>395</v>
       </c>
@@ -36792,7 +36756,7 @@
       <c r="AN63" s="145"/>
       <c r="AO63" s="145"/>
     </row>
-    <row r="64" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="168" t="s">
         <v>396</v>
       </c>
@@ -36858,11 +36822,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -36878,20 +36837,20 @@
       <selection pane="topRight" activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" style="70" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="70" bestFit="1" customWidth="1"/>
     <col min="2" max="18" width="5" style="70" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="2" style="70" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.85546875" style="70"/>
+    <col min="20" max="16384" width="8.83203125" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A1" s="69" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A2" s="67"/>
       <c r="B2" s="180">
         <v>2000</v>
@@ -36945,7 +36904,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A3" s="67" t="s">
         <v>0</v>
       </c>
@@ -37006,7 +36965,7 @@
       <c r="T3" s="216"/>
       <c r="U3" s="216"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A4" s="67" t="s">
         <v>1</v>
       </c>
@@ -37068,7 +37027,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A5" s="67" t="s">
         <v>2</v>
       </c>
@@ -37130,7 +37089,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A6" s="67" t="s">
         <v>3</v>
       </c>
@@ -37192,7 +37151,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A7" s="67" t="s">
         <v>4</v>
       </c>
@@ -37248,7 +37207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A8" s="67" t="s">
         <v>5</v>
       </c>
@@ -37304,7 +37263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A9" s="67" t="s">
         <v>6</v>
       </c>
@@ -37363,7 +37322,7 @@
       <c r="T9" s="182"/>
       <c r="U9" s="182"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A10" s="67" t="s">
         <v>7</v>
       </c>
@@ -37419,7 +37378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A11" s="67" t="s">
         <v>234</v>
       </c>
@@ -37476,7 +37435,7 @@
       </c>
       <c r="S11" s="66"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A12" s="67" t="s">
         <v>8</v>
       </c>
@@ -37532,7 +37491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A13" s="67" t="s">
         <v>9</v>
       </c>
@@ -37588,7 +37547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="67" t="s">
         <v>10</v>
       </c>
@@ -37644,7 +37603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A15" s="67" t="s">
         <v>11</v>
       </c>
@@ -37700,7 +37659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="67" t="s">
         <v>12</v>
       </c>
@@ -37756,7 +37715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="67" t="s">
         <v>13</v>
       </c>
@@ -37812,7 +37771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="67" t="s">
         <v>14</v>
       </c>
@@ -37868,7 +37827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="67" t="s">
         <v>15</v>
       </c>
@@ -37924,7 +37883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="67" t="s">
         <v>16</v>
       </c>
@@ -37980,7 +37939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="67" t="s">
         <v>17</v>
       </c>
@@ -38036,7 +37995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="67" t="s">
         <v>18</v>
       </c>
@@ -38092,7 +38051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="67" t="s">
         <v>19</v>
       </c>
@@ -38148,7 +38107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="67" t="s">
         <v>20</v>
       </c>
@@ -38204,7 +38163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="67" t="s">
         <v>48</v>
       </c>
@@ -38260,7 +38219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="67" t="s">
         <v>21</v>
       </c>
@@ -38316,7 +38275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" s="67" t="s">
         <v>22</v>
       </c>
@@ -38372,7 +38331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="67" t="s">
         <v>23</v>
       </c>
@@ -38428,7 +38387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="67" t="s">
         <v>24</v>
       </c>
@@ -38484,7 +38443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" s="67" t="s">
         <v>25</v>
       </c>
@@ -38540,7 +38499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="67" t="s">
         <v>26</v>
       </c>
@@ -38596,7 +38555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="67" t="s">
         <v>27</v>
       </c>
@@ -38652,7 +38611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" s="67" t="s">
         <v>28</v>
       </c>
@@ -38708,7 +38667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" s="67" t="s">
         <v>29</v>
       </c>
@@ -38764,7 +38723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" s="67" t="s">
         <v>30</v>
       </c>
@@ -38820,7 +38779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" s="67" t="s">
         <v>31</v>
       </c>
@@ -38876,7 +38835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" s="67" t="s">
         <v>32</v>
       </c>
@@ -38932,7 +38891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38" s="67" t="s">
         <v>33</v>
       </c>
@@ -38988,7 +38947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39" s="67" t="s">
         <v>34</v>
       </c>
@@ -39044,7 +39003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40" s="67" t="s">
         <v>35</v>
       </c>
@@ -39100,7 +39059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A41" s="67" t="s">
         <v>36</v>
       </c>
@@ -39156,7 +39115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A42" s="67" t="s">
         <v>37</v>
       </c>
@@ -39212,7 +39171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A43" s="67" t="s">
         <v>117</v>
       </c>
@@ -39268,7 +39227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A44" s="67" t="s">
         <v>38</v>
       </c>
@@ -39324,7 +39283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A45" s="67" t="s">
         <v>39</v>
       </c>
@@ -39380,7 +39339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A46" s="67" t="s">
         <v>40</v>
       </c>
@@ -39436,7 +39395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A47" s="67" t="s">
         <v>41</v>
       </c>
@@ -39492,7 +39451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A48" s="67" t="s">
         <v>42</v>
       </c>
@@ -39548,7 +39507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A49" s="67" t="s">
         <v>43</v>
       </c>
@@ -39604,7 +39563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A50" s="67" t="s">
         <v>44</v>
       </c>
@@ -39660,7 +39619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A51" s="67" t="s">
         <v>45</v>
       </c>
@@ -39716,7 +39675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A52" s="67" t="s">
         <v>46</v>
       </c>
@@ -39772,7 +39731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A53" s="67" t="s">
         <v>47</v>
       </c>
@@ -39828,7 +39787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A54" s="231" t="s">
         <v>378</v>
       </c>
@@ -39850,22 +39809,22 @@
       <c r="Q54" s="232"/>
       <c r="R54" s="232"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A55" s="169" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A56" s="80" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A57" s="80" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="58" spans="1:18" s="66" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" s="66" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="218" t="s">
         <v>371</v>
       </c>
@@ -39887,7 +39846,7 @@
       <c r="Q58" s="218"/>
       <c r="R58" s="218"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A59" s="218" t="s">
         <v>358</v>
       </c>
@@ -39918,11 +39877,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -39938,37 +39892,37 @@
       <selection pane="topRight" activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="153" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="70" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="70" hidden="1" customWidth="1"/>
-    <col min="4" max="8" width="9.140625" style="70" hidden="1" customWidth="1"/>
-    <col min="9" max="10" width="8.85546875" style="70"/>
+    <col min="1" max="1" width="20.6640625" style="153" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="70" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="70" hidden="1" customWidth="1"/>
+    <col min="4" max="8" width="9.1640625" style="70" hidden="1" customWidth="1"/>
+    <col min="9" max="10" width="8.83203125" style="70"/>
     <col min="11" max="11" width="35" style="70" customWidth="1"/>
-    <col min="12" max="13" width="10.140625" style="70" customWidth="1"/>
-    <col min="14" max="14" width="24.140625" style="70" customWidth="1"/>
-    <col min="15" max="16" width="11.28515625" style="70" customWidth="1"/>
-    <col min="17" max="17" width="25.140625" style="70" customWidth="1"/>
-    <col min="18" max="19" width="11.7109375" style="70" customWidth="1"/>
-    <col min="20" max="20" width="23.140625" style="70" customWidth="1"/>
-    <col min="21" max="22" width="13.42578125" style="70" customWidth="1"/>
-    <col min="23" max="23" width="18.42578125" style="70" customWidth="1"/>
-    <col min="24" max="25" width="12.140625" style="70" customWidth="1"/>
-    <col min="26" max="26" width="24.7109375" style="70" customWidth="1"/>
-    <col min="27" max="28" width="18.7109375" style="70" customWidth="1"/>
-    <col min="29" max="29" width="18.42578125" style="70" customWidth="1"/>
-    <col min="30" max="31" width="17.42578125" style="70" customWidth="1"/>
-    <col min="32" max="32" width="29.7109375" style="70" customWidth="1"/>
-    <col min="33" max="16384" width="8.85546875" style="70"/>
+    <col min="12" max="13" width="10.1640625" style="70" customWidth="1"/>
+    <col min="14" max="14" width="24.1640625" style="70" customWidth="1"/>
+    <col min="15" max="16" width="11.33203125" style="70" customWidth="1"/>
+    <col min="17" max="17" width="25.1640625" style="70" customWidth="1"/>
+    <col min="18" max="19" width="11.6640625" style="70" customWidth="1"/>
+    <col min="20" max="20" width="23.1640625" style="70" customWidth="1"/>
+    <col min="21" max="22" width="13.5" style="70" customWidth="1"/>
+    <col min="23" max="23" width="18.5" style="70" customWidth="1"/>
+    <col min="24" max="25" width="12.1640625" style="70" customWidth="1"/>
+    <col min="26" max="26" width="24.6640625" style="70" customWidth="1"/>
+    <col min="27" max="28" width="18.6640625" style="70" customWidth="1"/>
+    <col min="29" max="29" width="18.5" style="70" customWidth="1"/>
+    <col min="30" max="31" width="17.5" style="70" customWidth="1"/>
+    <col min="32" max="32" width="29.6640625" style="70" customWidth="1"/>
+    <col min="33" max="16384" width="8.83203125" style="70"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A1" s="149" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:41" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:41" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="150"/>
       <c r="B2" s="229">
         <v>2000</v>
@@ -40045,7 +39999,7 @@
       <c r="AN2" s="223"/>
       <c r="AO2" s="223"/>
     </row>
-    <row r="3" spans="1:41" s="79" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41" s="79" customFormat="1" ht="39" x14ac:dyDescent="0.15">
       <c r="A3" s="151"/>
       <c r="B3" s="100" t="s">
         <v>163</v>
@@ -40158,7 +40112,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A4" s="152" t="s">
         <v>0</v>
       </c>
@@ -40203,7 +40157,7 @@
       <c r="AN4" s="114"/>
       <c r="AO4" s="115"/>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A5" s="152" t="s">
         <v>1</v>
       </c>
@@ -40248,7 +40202,7 @@
       <c r="AN5" s="114"/>
       <c r="AO5" s="115"/>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A6" s="152" t="s">
         <v>2</v>
       </c>
@@ -40293,7 +40247,7 @@
       <c r="AN6" s="114"/>
       <c r="AO6" s="115"/>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A7" s="152" t="s">
         <v>3</v>
       </c>
@@ -40338,7 +40292,7 @@
       <c r="AN7" s="114"/>
       <c r="AO7" s="115"/>
     </row>
-    <row r="8" spans="1:41" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41" ht="78" x14ac:dyDescent="0.15">
       <c r="A8" s="152" t="s">
         <v>4</v>
       </c>
@@ -40389,7 +40343,7 @@
       <c r="AN8" s="114"/>
       <c r="AO8" s="115"/>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A9" s="103" t="s">
         <v>5</v>
       </c>
@@ -40434,7 +40388,7 @@
       <c r="AN9" s="114"/>
       <c r="AO9" s="115"/>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A10" s="152" t="s">
         <v>6</v>
       </c>
@@ -40479,7 +40433,7 @@
       <c r="AN10" s="114"/>
       <c r="AO10" s="115"/>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A11" s="152" t="s">
         <v>7</v>
       </c>
@@ -40524,7 +40478,7 @@
       <c r="AN11" s="114"/>
       <c r="AO11" s="115"/>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A12" s="152" t="s">
         <v>235</v>
       </c>
@@ -40569,7 +40523,7 @@
       <c r="AN12" s="114"/>
       <c r="AO12" s="115"/>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A13" s="152" t="s">
         <v>8</v>
       </c>
@@ -40614,7 +40568,7 @@
       <c r="AN13" s="114"/>
       <c r="AO13" s="115"/>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A14" s="103" t="s">
         <v>9</v>
       </c>
@@ -40659,7 +40613,7 @@
       <c r="AN14" s="117"/>
       <c r="AO14" s="148"/>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A15" s="152" t="s">
         <v>10</v>
       </c>
@@ -40704,7 +40658,7 @@
       <c r="AN15" s="114"/>
       <c r="AO15" s="115"/>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A16" s="152" t="s">
         <v>11</v>
       </c>
@@ -40749,7 +40703,7 @@
       <c r="AN16" s="114"/>
       <c r="AO16" s="115"/>
     </row>
-    <row r="17" spans="1:41" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:41" ht="65" x14ac:dyDescent="0.15">
       <c r="A17" s="226" t="s">
         <v>12</v>
       </c>
@@ -40806,7 +40760,7 @@
       <c r="AN17" s="126"/>
       <c r="AO17" s="129"/>
     </row>
-    <row r="18" spans="1:41" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:41" ht="78" x14ac:dyDescent="0.15">
       <c r="A18" s="228"/>
       <c r="B18" s="95"/>
       <c r="C18" s="89"/>
@@ -40861,7 +40815,7 @@
       <c r="AN18" s="132"/>
       <c r="AO18" s="122"/>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A19" s="152" t="s">
         <v>13</v>
       </c>
@@ -40906,7 +40860,7 @@
       <c r="AN19" s="114"/>
       <c r="AO19" s="115"/>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A20" s="152" t="s">
         <v>14</v>
       </c>
@@ -40951,7 +40905,7 @@
       <c r="AN20" s="114"/>
       <c r="AO20" s="115"/>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A21" s="152" t="s">
         <v>15</v>
       </c>
@@ -40996,7 +40950,7 @@
       <c r="AN21" s="114"/>
       <c r="AO21" s="115"/>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A22" s="152" t="s">
         <v>16</v>
       </c>
@@ -41041,7 +40995,7 @@
       <c r="AN22" s="114"/>
       <c r="AO22" s="115"/>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A23" s="103" t="s">
         <v>17</v>
       </c>
@@ -41086,7 +41040,7 @@
       <c r="AN23" s="114"/>
       <c r="AO23" s="115"/>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A24" s="152" t="s">
         <v>18</v>
       </c>
@@ -41131,7 +41085,7 @@
       <c r="AN24" s="114"/>
       <c r="AO24" s="115"/>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A25" s="152" t="s">
         <v>19</v>
       </c>
@@ -41176,7 +41130,7 @@
       <c r="AN25" s="114"/>
       <c r="AO25" s="115"/>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A26" s="152" t="s">
         <v>20</v>
       </c>
@@ -41221,7 +41175,7 @@
       <c r="AN26" s="114"/>
       <c r="AO26" s="115"/>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A27" s="152" t="s">
         <v>48</v>
       </c>
@@ -41266,7 +41220,7 @@
       <c r="AN27" s="117"/>
       <c r="AO27" s="115"/>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A28" s="152" t="s">
         <v>21</v>
       </c>
@@ -41311,7 +41265,7 @@
       <c r="AN28" s="114"/>
       <c r="AO28" s="115"/>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A29" s="152" t="s">
         <v>22</v>
       </c>
@@ -41356,7 +41310,7 @@
       <c r="AN29" s="114"/>
       <c r="AO29" s="115"/>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A30" s="152" t="s">
         <v>23</v>
       </c>
@@ -41401,7 +41355,7 @@
       <c r="AN30" s="114"/>
       <c r="AO30" s="115"/>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A31" s="152" t="s">
         <v>24</v>
       </c>
@@ -41446,7 +41400,7 @@
       <c r="AN31" s="114"/>
       <c r="AO31" s="115"/>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A32" s="152" t="s">
         <v>25</v>
       </c>
@@ -41491,7 +41445,7 @@
       <c r="AN32" s="114"/>
       <c r="AO32" s="115"/>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A33" s="152" t="s">
         <v>26</v>
       </c>
@@ -41536,7 +41490,7 @@
       <c r="AN33" s="114"/>
       <c r="AO33" s="115"/>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A34" s="152" t="s">
         <v>27</v>
       </c>
@@ -41581,7 +41535,7 @@
       <c r="AN34" s="114"/>
       <c r="AO34" s="115"/>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A35" s="152" t="s">
         <v>28</v>
       </c>
@@ -41626,7 +41580,7 @@
       <c r="AN35" s="114"/>
       <c r="AO35" s="115"/>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A36" s="152" t="s">
         <v>29</v>
       </c>
@@ -41671,7 +41625,7 @@
       <c r="AN36" s="114"/>
       <c r="AO36" s="115"/>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A37" s="152" t="s">
         <v>30</v>
       </c>
@@ -41716,7 +41670,7 @@
       <c r="AN37" s="114"/>
       <c r="AO37" s="115"/>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A38" s="152" t="s">
         <v>31</v>
       </c>
@@ -41761,7 +41715,7 @@
       <c r="AN38" s="117"/>
       <c r="AO38" s="115"/>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A39" s="152" t="s">
         <v>32</v>
       </c>
@@ -41806,7 +41760,7 @@
       <c r="AN39" s="114"/>
       <c r="AO39" s="115"/>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A40" s="152" t="s">
         <v>33</v>
       </c>
@@ -41851,7 +41805,7 @@
       <c r="AN40" s="114"/>
       <c r="AO40" s="115"/>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A41" s="152" t="s">
         <v>34</v>
       </c>
@@ -41896,7 +41850,7 @@
       <c r="AN41" s="114"/>
       <c r="AO41" s="115"/>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A42" s="152" t="s">
         <v>35</v>
       </c>
@@ -41941,7 +41895,7 @@
       <c r="AN42" s="114"/>
       <c r="AO42" s="115"/>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A43" s="152" t="s">
         <v>36</v>
       </c>
@@ -41986,7 +41940,7 @@
       <c r="AN43" s="114"/>
       <c r="AO43" s="115"/>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A44" s="152" t="s">
         <v>37</v>
       </c>
@@ -42031,7 +41985,7 @@
       <c r="AN44" s="114"/>
       <c r="AO44" s="115"/>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A45" s="103" t="s">
         <v>117</v>
       </c>
@@ -42076,7 +42030,7 @@
       <c r="AN45" s="114"/>
       <c r="AO45" s="115"/>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A46" s="152" t="s">
         <v>38</v>
       </c>
@@ -42121,7 +42075,7 @@
       <c r="AN46" s="114"/>
       <c r="AO46" s="115"/>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A47" s="152" t="s">
         <v>39</v>
       </c>
@@ -42166,7 +42120,7 @@
       <c r="AN47" s="114"/>
       <c r="AO47" s="115"/>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A48" s="152" t="s">
         <v>40</v>
       </c>
@@ -42211,7 +42165,7 @@
       <c r="AN48" s="114"/>
       <c r="AO48" s="115"/>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A49" s="103" t="s">
         <v>41</v>
       </c>
@@ -42256,7 +42210,7 @@
       <c r="AN49" s="114"/>
       <c r="AO49" s="115"/>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A50" s="152" t="s">
         <v>42</v>
       </c>
@@ -42301,7 +42255,7 @@
       <c r="AN50" s="114"/>
       <c r="AO50" s="115"/>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A51" s="152" t="s">
         <v>43</v>
       </c>
@@ -42346,7 +42300,7 @@
       <c r="AN51" s="114"/>
       <c r="AO51" s="115"/>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A52" s="152" t="s">
         <v>44</v>
       </c>
@@ -42391,7 +42345,7 @@
       <c r="AN52" s="114"/>
       <c r="AO52" s="115"/>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A53" s="152" t="s">
         <v>45</v>
       </c>
@@ -42436,7 +42390,7 @@
       <c r="AN53" s="114"/>
       <c r="AO53" s="115"/>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A54" s="152" t="s">
         <v>46</v>
       </c>
@@ -42481,7 +42435,7 @@
       <c r="AN54" s="114"/>
       <c r="AO54" s="115"/>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A55" s="152" t="s">
         <v>47</v>
       </c>
@@ -42526,7 +42480,7 @@
       <c r="AN55" s="114"/>
       <c r="AO55" s="115"/>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A56" s="163" t="s">
         <v>378</v>
       </c>
@@ -42547,27 +42501,27 @@
       <c r="P56" s="90"/>
       <c r="Q56" s="90"/>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A57" s="169" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A58" s="80" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A59" s="80" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="60" spans="1:41" s="66" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:41" s="66" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A60" s="170" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.15">
       <c r="A61" s="168" t="s">
         <v>402</v>
       </c>
@@ -42590,10 +42544,5 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/data/Enforcement_Policies_Data.xlsx
+++ b/data/Enforcement_Policies_Data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27715"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vhou/Documents/Projects/state-immigration/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lmelgar/Desktop/urban-institute/projects/2021/20211102-state-immigration-policy/state-immigration/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13419352-A4AE-7E49-BC10-BCC331152241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15600" tabRatio="758" activeTab="5"/>
+    <workbookView xWindow="140" yWindow="500" windowWidth="35700" windowHeight="17760" tabRatio="758" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="287(g) Policies" sheetId="4" r:id="rId1"/>
@@ -29,10 +30,19 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'287(g) Policies'!$A$1:$AT$108</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'287(g) Policies'!$A:$BD</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2274,7 +2284,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3082,6 +3092,45 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3095,45 +3144,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3217,87 +3227,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3316,6 +3245,87 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="4" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -3333,13 +3343,16 @@
     <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3631,16 +3644,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <tabColor theme="6"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AT119"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C14" sqref="C14"/>
+      <selection pane="topRight" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3689,132 +3702,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="A1" s="205" t="s">
+      <c r="A1" s="191" t="s">
         <v>341</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
-      <c r="H1" s="205"/>
-      <c r="I1" s="205"/>
-      <c r="J1" s="205"/>
-      <c r="K1" s="205"/>
-      <c r="L1" s="205"/>
-      <c r="M1" s="205"/>
-      <c r="N1" s="205"/>
-      <c r="O1" s="205"/>
-      <c r="P1" s="205"/>
-      <c r="Q1" s="205"/>
-      <c r="R1" s="205"/>
-      <c r="S1" s="205"/>
-      <c r="T1" s="205"/>
-      <c r="U1" s="205"/>
-      <c r="V1" s="205"/>
-      <c r="W1" s="205"/>
-      <c r="X1" s="205"/>
-      <c r="Y1" s="205"/>
-      <c r="Z1" s="205"/>
-      <c r="AA1" s="205"/>
-      <c r="AB1" s="205"/>
-      <c r="AC1" s="205"/>
-      <c r="AD1" s="205"/>
-      <c r="AE1" s="205"/>
-      <c r="AF1" s="205"/>
-      <c r="AG1" s="205"/>
-      <c r="AH1" s="205"/>
-      <c r="AI1" s="205"/>
-      <c r="AJ1" s="205"/>
-      <c r="AK1" s="205"/>
-      <c r="AL1" s="205"/>
-      <c r="AM1" s="205"/>
-      <c r="AN1" s="205"/>
-      <c r="AO1" s="205"/>
-      <c r="AP1" s="205"/>
-      <c r="AQ1" s="205"/>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="191"/>
+      <c r="O1" s="191"/>
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="191"/>
+      <c r="S1" s="191"/>
+      <c r="T1" s="191"/>
+      <c r="U1" s="191"/>
+      <c r="V1" s="191"/>
+      <c r="W1" s="191"/>
+      <c r="X1" s="191"/>
+      <c r="Y1" s="191"/>
+      <c r="Z1" s="191"/>
+      <c r="AA1" s="191"/>
+      <c r="AB1" s="191"/>
+      <c r="AC1" s="191"/>
+      <c r="AD1" s="191"/>
+      <c r="AE1" s="191"/>
+      <c r="AF1" s="191"/>
+      <c r="AG1" s="191"/>
+      <c r="AH1" s="191"/>
+      <c r="AI1" s="191"/>
+      <c r="AJ1" s="191"/>
+      <c r="AK1" s="191"/>
+      <c r="AL1" s="191"/>
+      <c r="AM1" s="191"/>
+      <c r="AN1" s="191"/>
+      <c r="AO1" s="191"/>
+      <c r="AP1" s="191"/>
+      <c r="AQ1" s="191"/>
     </row>
     <row r="2" spans="1:46" s="65" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="197"/>
-      <c r="B2" s="193">
+      <c r="A2" s="189"/>
+      <c r="B2" s="194">
         <v>2002</v>
       </c>
-      <c r="C2" s="193"/>
-      <c r="D2" s="193"/>
-      <c r="E2" s="193">
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194">
         <v>2003</v>
       </c>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193">
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194">
         <v>2004</v>
       </c>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193">
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="194">
         <v>2005</v>
       </c>
-      <c r="L2" s="193"/>
-      <c r="M2" s="193"/>
-      <c r="N2" s="193">
+      <c r="L2" s="194"/>
+      <c r="M2" s="194"/>
+      <c r="N2" s="194">
         <v>2006</v>
       </c>
-      <c r="O2" s="193"/>
-      <c r="P2" s="193"/>
-      <c r="Q2" s="193">
+      <c r="O2" s="194"/>
+      <c r="P2" s="194"/>
+      <c r="Q2" s="194">
         <v>2007</v>
       </c>
-      <c r="R2" s="193"/>
-      <c r="S2" s="193"/>
-      <c r="T2" s="193">
+      <c r="R2" s="194"/>
+      <c r="S2" s="194"/>
+      <c r="T2" s="194">
         <v>2008</v>
       </c>
-      <c r="U2" s="193"/>
-      <c r="V2" s="193"/>
-      <c r="W2" s="193">
+      <c r="U2" s="194"/>
+      <c r="V2" s="194"/>
+      <c r="W2" s="194">
         <v>2009</v>
       </c>
-      <c r="X2" s="193"/>
-      <c r="Y2" s="193"/>
-      <c r="Z2" s="193">
+      <c r="X2" s="194"/>
+      <c r="Y2" s="194"/>
+      <c r="Z2" s="194">
         <v>2010</v>
       </c>
-      <c r="AA2" s="193"/>
-      <c r="AB2" s="193"/>
-      <c r="AC2" s="193">
+      <c r="AA2" s="194"/>
+      <c r="AB2" s="194"/>
+      <c r="AC2" s="194">
         <v>2011</v>
       </c>
-      <c r="AD2" s="193"/>
-      <c r="AE2" s="193"/>
-      <c r="AF2" s="193">
+      <c r="AD2" s="194"/>
+      <c r="AE2" s="194"/>
+      <c r="AF2" s="194">
         <v>2012</v>
       </c>
-      <c r="AG2" s="193"/>
-      <c r="AH2" s="193"/>
-      <c r="AI2" s="193">
+      <c r="AG2" s="194"/>
+      <c r="AH2" s="194"/>
+      <c r="AI2" s="194">
         <v>2013</v>
       </c>
-      <c r="AJ2" s="193"/>
-      <c r="AK2" s="193"/>
-      <c r="AL2" s="193">
+      <c r="AJ2" s="194"/>
+      <c r="AK2" s="194"/>
+      <c r="AL2" s="194">
         <v>2014</v>
       </c>
-      <c r="AM2" s="193"/>
-      <c r="AN2" s="193"/>
-      <c r="AO2" s="193">
+      <c r="AM2" s="194"/>
+      <c r="AN2" s="194"/>
+      <c r="AO2" s="194">
         <v>2015</v>
       </c>
-      <c r="AP2" s="193"/>
-      <c r="AQ2" s="193"/>
-      <c r="AR2" s="193">
+      <c r="AP2" s="194"/>
+      <c r="AQ2" s="194"/>
+      <c r="AR2" s="194">
         <v>2016</v>
       </c>
-      <c r="AS2" s="193"/>
-      <c r="AT2" s="193"/>
-    </row>
-    <row r="3" spans="1:46" s="56" customFormat="1" ht="26" x14ac:dyDescent="0.15">
-      <c r="A3" s="198"/>
+      <c r="AS2" s="194"/>
+      <c r="AT2" s="194"/>
+    </row>
+    <row r="3" spans="1:46" s="56" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A3" s="190"/>
       <c r="B3" s="63" t="s">
         <v>81</v>
       </c>
@@ -3952,7 +3965,7 @@
       </c>
     </row>
     <row r="4" spans="1:46" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="199" t="s">
+      <c r="A4" s="192" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="7"/>
@@ -4085,8 +4098,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A5" s="201"/>
+    <row r="5" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A5" s="193"/>
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
@@ -4157,7 +4170,7 @@
       <c r="AS5" s="2"/>
       <c r="AT5" s="3"/>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:46" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="59" t="s">
         <v>1</v>
       </c>
@@ -4203,8 +4216,8 @@
       <c r="AS6" s="5"/>
       <c r="AT6" s="6"/>
     </row>
-    <row r="7" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A7" s="199" t="s">
+    <row r="7" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A7" s="192" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="7"/>
@@ -4325,8 +4338,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A8" s="200"/>
+    <row r="8" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A8" s="198"/>
       <c r="B8" s="42"/>
       <c r="C8" s="32"/>
       <c r="D8" s="33"/>
@@ -4433,8 +4446,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A9" s="200"/>
+    <row r="9" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A9" s="198"/>
       <c r="B9" s="42"/>
       <c r="C9" s="32"/>
       <c r="D9" s="33"/>
@@ -4541,8 +4554,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A10" s="200"/>
+    <row r="10" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A10" s="198"/>
       <c r="B10" s="42"/>
       <c r="C10" s="32"/>
       <c r="D10" s="33"/>
@@ -4641,8 +4654,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A11" s="200"/>
+    <row r="11" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A11" s="198"/>
       <c r="B11" s="42"/>
       <c r="C11" s="32"/>
       <c r="D11" s="33"/>
@@ -4706,8 +4719,8 @@
       <c r="AS11" s="32"/>
       <c r="AT11" s="33"/>
     </row>
-    <row r="12" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A12" s="200"/>
+    <row r="12" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A12" s="198"/>
       <c r="B12" s="42"/>
       <c r="C12" s="32"/>
       <c r="D12" s="33"/>
@@ -4772,8 +4785,8 @@
       <c r="AS12" s="32"/>
       <c r="AT12" s="33"/>
     </row>
-    <row r="13" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A13" s="200"/>
+    <row r="13" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A13" s="198"/>
       <c r="B13" s="42"/>
       <c r="C13" s="32"/>
       <c r="D13" s="33"/>
@@ -4838,8 +4851,8 @@
       <c r="AS13" s="32"/>
       <c r="AT13" s="33"/>
     </row>
-    <row r="14" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A14" s="200"/>
+    <row r="14" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A14" s="198"/>
       <c r="B14" s="42"/>
       <c r="C14" s="32"/>
       <c r="D14" s="33"/>
@@ -4896,8 +4909,8 @@
       <c r="AS14" s="32"/>
       <c r="AT14" s="33"/>
     </row>
-    <row r="15" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A15" s="200"/>
+    <row r="15" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A15" s="198"/>
       <c r="B15" s="42"/>
       <c r="C15" s="32"/>
       <c r="D15" s="33"/>
@@ -4954,8 +4967,8 @@
       <c r="AS15" s="32"/>
       <c r="AT15" s="33"/>
     </row>
-    <row r="16" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A16" s="200"/>
+    <row r="16" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A16" s="198"/>
       <c r="B16" s="42"/>
       <c r="C16" s="32"/>
       <c r="D16" s="33"/>
@@ -5005,8 +5018,8 @@
       <c r="AS16" s="2"/>
       <c r="AT16" s="3"/>
     </row>
-    <row r="17" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A17" s="199" t="s">
+    <row r="17" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A17" s="192" t="s">
         <v>3</v>
       </c>
       <c r="B17" s="7"/>
@@ -5115,8 +5128,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A18" s="200"/>
+    <row r="18" spans="1:46" ht="42" x14ac:dyDescent="0.15">
+      <c r="A18" s="198"/>
       <c r="B18" s="42"/>
       <c r="C18" s="32"/>
       <c r="D18" s="33"/>
@@ -5223,8 +5236,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A19" s="200"/>
+    <row r="19" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A19" s="198"/>
       <c r="B19" s="42"/>
       <c r="C19" s="32"/>
       <c r="D19" s="33"/>
@@ -5303,8 +5316,8 @@
       <c r="AS19" s="32"/>
       <c r="AT19" s="33"/>
     </row>
-    <row r="20" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A20" s="201"/>
+    <row r="20" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A20" s="193"/>
       <c r="B20" s="1"/>
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
@@ -5386,8 +5399,8 @@
       <c r="AS20" s="2"/>
       <c r="AT20" s="3"/>
     </row>
-    <row r="21" spans="1:46" ht="39" x14ac:dyDescent="0.15">
-      <c r="A21" s="199" t="s">
+    <row r="21" spans="1:46" ht="42" x14ac:dyDescent="0.15">
+      <c r="A21" s="192" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="7"/>
@@ -5508,8 +5521,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:46" ht="39" x14ac:dyDescent="0.15">
-      <c r="A22" s="200"/>
+    <row r="22" spans="1:46" ht="42" x14ac:dyDescent="0.15">
+      <c r="A22" s="198"/>
       <c r="B22" s="42"/>
       <c r="C22" s="32"/>
       <c r="D22" s="33"/>
@@ -5622,8 +5635,8 @@
       <c r="AS22" s="32"/>
       <c r="AT22" s="33"/>
     </row>
-    <row r="23" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A23" s="200"/>
+    <row r="23" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A23" s="198"/>
       <c r="B23" s="42"/>
       <c r="C23" s="32"/>
       <c r="D23" s="33"/>
@@ -5707,8 +5720,8 @@
       <c r="AS23" s="32"/>
       <c r="AT23" s="33"/>
     </row>
-    <row r="24" spans="1:46" ht="39" x14ac:dyDescent="0.15">
-      <c r="A24" s="201"/>
+    <row r="24" spans="1:46" ht="42" x14ac:dyDescent="0.15">
+      <c r="A24" s="193"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
@@ -5797,8 +5810,8 @@
       <c r="AS24" s="2"/>
       <c r="AT24" s="3"/>
     </row>
-    <row r="25" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A25" s="199" t="s">
+    <row r="25" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A25" s="192" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="7"/>
@@ -5895,8 +5908,8 @@
       <c r="AS25" s="8"/>
       <c r="AT25" s="9"/>
     </row>
-    <row r="26" spans="1:46" ht="39" x14ac:dyDescent="0.15">
-      <c r="A26" s="201"/>
+    <row r="26" spans="1:46" ht="42" x14ac:dyDescent="0.15">
+      <c r="A26" s="193"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
       <c r="D26" s="3"/>
@@ -5979,7 +5992,7 @@
       <c r="AS26" s="2"/>
       <c r="AT26" s="3"/>
     </row>
-    <row r="27" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:46" ht="28" x14ac:dyDescent="0.15">
       <c r="A27" s="57" t="s">
         <v>6</v>
       </c>
@@ -6053,7 +6066,7 @@
       <c r="AS27" s="5"/>
       <c r="AT27" s="6"/>
     </row>
-    <row r="28" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:46" ht="28" x14ac:dyDescent="0.15">
       <c r="A28" s="57" t="s">
         <v>7</v>
       </c>
@@ -6121,7 +6134,7 @@
       <c r="AS28" s="5"/>
       <c r="AT28" s="6"/>
     </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:46" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="59" t="s">
         <v>234</v>
       </c>
@@ -6171,8 +6184,8 @@
       <c r="AS29" s="5"/>
       <c r="AT29" s="6"/>
     </row>
-    <row r="30" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A30" s="202" t="s">
+    <row r="30" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A30" s="195" t="s">
         <v>8</v>
       </c>
       <c r="B30" s="39">
@@ -6311,8 +6324,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A31" s="204"/>
+    <row r="31" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A31" s="197"/>
       <c r="B31" s="31"/>
       <c r="C31" s="32"/>
       <c r="D31" s="33"/>
@@ -6419,8 +6432,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A32" s="204"/>
+    <row r="32" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A32" s="197"/>
       <c r="B32" s="42"/>
       <c r="C32" s="32"/>
       <c r="D32" s="33"/>
@@ -6491,8 +6504,8 @@
       <c r="AS32" s="32"/>
       <c r="AT32" s="33"/>
     </row>
-    <row r="33" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A33" s="204"/>
+    <row r="33" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A33" s="197"/>
       <c r="B33" s="42"/>
       <c r="C33" s="32"/>
       <c r="D33" s="33"/>
@@ -6563,8 +6576,8 @@
       <c r="AS33" s="32"/>
       <c r="AT33" s="33"/>
     </row>
-    <row r="34" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A34" s="204"/>
+    <row r="34" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A34" s="197"/>
       <c r="B34" s="42"/>
       <c r="C34" s="32"/>
       <c r="D34" s="33"/>
@@ -6613,8 +6626,8 @@
       <c r="AS34" s="32"/>
       <c r="AT34" s="33"/>
     </row>
-    <row r="35" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A35" s="204"/>
+    <row r="35" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A35" s="197"/>
       <c r="B35" s="42"/>
       <c r="C35" s="32"/>
       <c r="D35" s="33"/>
@@ -6664,7 +6677,7 @@
       <c r="AT35" s="33"/>
     </row>
     <row r="36" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="A36" s="203"/>
+      <c r="A36" s="196"/>
       <c r="B36" s="1"/>
       <c r="C36" s="2"/>
       <c r="D36" s="3"/>
@@ -6705,8 +6718,8 @@
       <c r="AS36" s="2"/>
       <c r="AT36" s="3"/>
     </row>
-    <row r="37" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A37" s="202" t="s">
+    <row r="37" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A37" s="195" t="s">
         <v>9</v>
       </c>
       <c r="B37" s="7"/>
@@ -6815,8 +6828,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A38" s="204"/>
+    <row r="38" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A38" s="197"/>
       <c r="B38" s="42"/>
       <c r="C38" s="32"/>
       <c r="D38" s="33"/>
@@ -6923,8 +6936,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A39" s="204"/>
+    <row r="39" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A39" s="197"/>
       <c r="B39" s="42"/>
       <c r="C39" s="32"/>
       <c r="D39" s="33"/>
@@ -7024,8 +7037,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A40" s="204"/>
+    <row r="40" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A40" s="197"/>
       <c r="B40" s="42"/>
       <c r="C40" s="32"/>
       <c r="D40" s="33"/>
@@ -7125,8 +7138,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A41" s="203"/>
+    <row r="41" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A41" s="196"/>
       <c r="B41" s="1"/>
       <c r="C41" s="2"/>
       <c r="D41" s="3"/>
@@ -7197,7 +7210,7 @@
       <c r="AS41" s="2"/>
       <c r="AT41" s="3"/>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:46" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="58" t="s">
         <v>10</v>
       </c>
@@ -7247,7 +7260,7 @@
       <c r="AS42" s="5"/>
       <c r="AT42" s="6"/>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:46" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="58" t="s">
         <v>11</v>
       </c>
@@ -7297,7 +7310,7 @@
       <c r="AS43" s="5"/>
       <c r="AT43" s="6"/>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:46" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="58" t="s">
         <v>12</v>
       </c>
@@ -7347,7 +7360,7 @@
       <c r="AS44" s="5"/>
       <c r="AT44" s="6"/>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:46" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="58" t="s">
         <v>13</v>
       </c>
@@ -7397,7 +7410,7 @@
       <c r="AS45" s="5"/>
       <c r="AT45" s="6"/>
     </row>
-    <row r="46" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:46" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="58" t="s">
         <v>14</v>
       </c>
@@ -7447,7 +7460,7 @@
       <c r="AS46" s="5"/>
       <c r="AT46" s="6"/>
     </row>
-    <row r="47" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:46" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="58" t="s">
         <v>15</v>
       </c>
@@ -7497,7 +7510,7 @@
       <c r="AS47" s="5"/>
       <c r="AT47" s="6"/>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:46" ht="14" x14ac:dyDescent="0.15">
       <c r="A48" s="58" t="s">
         <v>16</v>
       </c>
@@ -7547,7 +7560,7 @@
       <c r="AS48" s="5"/>
       <c r="AT48" s="6"/>
     </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:46" ht="14" x14ac:dyDescent="0.15">
       <c r="A49" s="58" t="s">
         <v>17</v>
       </c>
@@ -7597,7 +7610,7 @@
       <c r="AS49" s="5"/>
       <c r="AT49" s="6"/>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:46" ht="14" x14ac:dyDescent="0.15">
       <c r="A50" s="58" t="s">
         <v>18</v>
       </c>
@@ -7647,8 +7660,8 @@
       <c r="AS50" s="8"/>
       <c r="AT50" s="9"/>
     </row>
-    <row r="51" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A51" s="194" t="s">
+    <row r="51" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A51" s="199" t="s">
         <v>19</v>
       </c>
       <c r="B51" s="39"/>
@@ -7751,8 +7764,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="A52" s="195"/>
+    <row r="52" spans="1:46" ht="14" x14ac:dyDescent="0.15">
+      <c r="A52" s="200"/>
       <c r="B52" s="36"/>
       <c r="C52" s="2"/>
       <c r="D52" s="3"/>
@@ -7805,8 +7818,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:46" ht="39" x14ac:dyDescent="0.15">
-      <c r="A53" s="196" t="s">
+    <row r="53" spans="1:46" ht="42" x14ac:dyDescent="0.15">
+      <c r="A53" s="188" t="s">
         <v>20</v>
       </c>
       <c r="B53" s="7"/>
@@ -7915,8 +7928,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="54" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A54" s="197"/>
+    <row r="54" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A54" s="189"/>
       <c r="B54" s="42"/>
       <c r="C54" s="32"/>
       <c r="D54" s="33"/>
@@ -7974,8 +7987,8 @@
       <c r="AS54" s="32"/>
       <c r="AT54" s="33"/>
     </row>
-    <row r="55" spans="1:46" ht="39" x14ac:dyDescent="0.15">
-      <c r="A55" s="198"/>
+    <row r="55" spans="1:46" ht="42" x14ac:dyDescent="0.15">
+      <c r="A55" s="190"/>
       <c r="B55" s="1"/>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
@@ -8036,7 +8049,7 @@
       <c r="AS55" s="2"/>
       <c r="AT55" s="3"/>
     </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:46" ht="14" x14ac:dyDescent="0.15">
       <c r="A56" s="58" t="s">
         <v>48</v>
       </c>
@@ -8086,7 +8099,7 @@
       <c r="AS56" s="5"/>
       <c r="AT56" s="6"/>
     </row>
-    <row r="57" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:46" ht="28" x14ac:dyDescent="0.15">
       <c r="A57" s="58" t="s">
         <v>21</v>
       </c>
@@ -8160,7 +8173,7 @@
       <c r="AS57" s="5"/>
       <c r="AT57" s="6"/>
     </row>
-    <row r="58" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:46" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="58" t="s">
         <v>22</v>
       </c>
@@ -8210,7 +8223,7 @@
       <c r="AS58" s="5"/>
       <c r="AT58" s="6"/>
     </row>
-    <row r="59" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:46" ht="28" x14ac:dyDescent="0.15">
       <c r="A59" s="58" t="s">
         <v>23</v>
       </c>
@@ -8284,7 +8297,7 @@
       <c r="AS59" s="5"/>
       <c r="AT59" s="6"/>
     </row>
-    <row r="60" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:46" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="58" t="s">
         <v>24</v>
       </c>
@@ -8334,7 +8347,7 @@
       <c r="AS60" s="5"/>
       <c r="AT60" s="6"/>
     </row>
-    <row r="61" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:46" ht="14" x14ac:dyDescent="0.15">
       <c r="A61" s="58" t="s">
         <v>25</v>
       </c>
@@ -8384,7 +8397,7 @@
       <c r="AS61" s="5"/>
       <c r="AT61" s="6"/>
     </row>
-    <row r="62" spans="1:46" ht="39" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:46" ht="42" x14ac:dyDescent="0.15">
       <c r="A62" s="58" t="s">
         <v>26</v>
       </c>
@@ -8488,7 +8501,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:46" ht="28" x14ac:dyDescent="0.15">
       <c r="A63" s="58" t="s">
         <v>27</v>
       </c>
@@ -8562,8 +8575,8 @@
       <c r="AS63" s="5"/>
       <c r="AT63" s="6"/>
     </row>
-    <row r="64" spans="1:46" ht="39" x14ac:dyDescent="0.15">
-      <c r="A64" s="196" t="s">
+    <row r="64" spans="1:46" ht="42" x14ac:dyDescent="0.15">
+      <c r="A64" s="188" t="s">
         <v>28</v>
       </c>
       <c r="B64" s="35"/>
@@ -8666,8 +8679,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A65" s="197"/>
+    <row r="65" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A65" s="189"/>
       <c r="B65" s="34"/>
       <c r="C65" s="32"/>
       <c r="D65" s="33"/>
@@ -8760,8 +8773,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="A66" s="198"/>
+    <row r="66" spans="1:46" ht="14" x14ac:dyDescent="0.15">
+      <c r="A66" s="190"/>
       <c r="B66" s="37"/>
       <c r="C66" s="2"/>
       <c r="D66" s="3"/>
@@ -8814,7 +8827,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:46" ht="28" x14ac:dyDescent="0.15">
       <c r="A67" s="58" t="s">
         <v>29</v>
       </c>
@@ -8900,7 +8913,7 @@
       <c r="AS67" s="2"/>
       <c r="AT67" s="3"/>
     </row>
-    <row r="68" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:46" ht="14" x14ac:dyDescent="0.15">
       <c r="A68" s="58" t="s">
         <v>30</v>
       </c>
@@ -8950,8 +8963,8 @@
       <c r="AS68" s="5"/>
       <c r="AT68" s="6"/>
     </row>
-    <row r="69" spans="1:46" ht="39" x14ac:dyDescent="0.15">
-      <c r="A69" s="202" t="s">
+    <row r="69" spans="1:46" ht="42" x14ac:dyDescent="0.15">
+      <c r="A69" s="195" t="s">
         <v>31</v>
       </c>
       <c r="B69" s="7"/>
@@ -9066,8 +9079,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="70" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A70" s="204"/>
+    <row r="70" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A70" s="197"/>
       <c r="B70" s="42"/>
       <c r="C70" s="32"/>
       <c r="D70" s="33"/>
@@ -9174,8 +9187,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A71" s="204"/>
+    <row r="71" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A71" s="197"/>
       <c r="B71" s="42"/>
       <c r="C71" s="32"/>
       <c r="D71" s="33"/>
@@ -9282,8 +9295,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="72" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A72" s="204"/>
+    <row r="72" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A72" s="197"/>
       <c r="B72" s="42"/>
       <c r="C72" s="32"/>
       <c r="D72" s="33"/>
@@ -9390,8 +9403,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="73" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A73" s="204"/>
+    <row r="73" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A73" s="197"/>
       <c r="B73" s="42"/>
       <c r="C73" s="32"/>
       <c r="D73" s="33"/>
@@ -9491,8 +9504,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="74" spans="1:46" ht="39" x14ac:dyDescent="0.15">
-      <c r="A74" s="204"/>
+    <row r="74" spans="1:46" ht="42" x14ac:dyDescent="0.15">
+      <c r="A74" s="197"/>
       <c r="B74" s="42"/>
       <c r="C74" s="32"/>
       <c r="D74" s="33"/>
@@ -9564,8 +9577,8 @@
       <c r="AS74" s="32"/>
       <c r="AT74" s="33"/>
     </row>
-    <row r="75" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A75" s="204"/>
+    <row r="75" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A75" s="197"/>
       <c r="B75" s="42"/>
       <c r="C75" s="32"/>
       <c r="D75" s="33"/>
@@ -9628,8 +9641,8 @@
       <c r="AS75" s="32"/>
       <c r="AT75" s="33"/>
     </row>
-    <row r="76" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A76" s="204"/>
+    <row r="76" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A76" s="197"/>
       <c r="B76" s="42"/>
       <c r="C76" s="32"/>
       <c r="D76" s="33"/>
@@ -9687,8 +9700,8 @@
       <c r="AS76" s="32"/>
       <c r="AT76" s="33"/>
     </row>
-    <row r="77" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="A77" s="203"/>
+    <row r="77" spans="1:46" ht="14" x14ac:dyDescent="0.15">
+      <c r="A77" s="196"/>
       <c r="B77" s="1"/>
       <c r="C77" s="2"/>
       <c r="D77" s="3"/>
@@ -9738,7 +9751,7 @@
       <c r="AS77" s="2"/>
       <c r="AT77" s="3"/>
     </row>
-    <row r="78" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:46" ht="14" x14ac:dyDescent="0.15">
       <c r="A78" s="57" t="s">
         <v>32</v>
       </c>
@@ -9788,7 +9801,7 @@
       <c r="AS78" s="5"/>
       <c r="AT78" s="6"/>
     </row>
-    <row r="79" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:46" ht="28" x14ac:dyDescent="0.15">
       <c r="A79" s="57" t="s">
         <v>33</v>
       </c>
@@ -9892,7 +9905,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="80" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:46" ht="28" x14ac:dyDescent="0.15">
       <c r="A80" s="57" t="s">
         <v>34</v>
       </c>
@@ -10002,7 +10015,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:46" ht="14" x14ac:dyDescent="0.15">
       <c r="A81" s="57" t="s">
         <v>35</v>
       </c>
@@ -10052,7 +10065,7 @@
       <c r="AS81" s="5"/>
       <c r="AT81" s="6"/>
     </row>
-    <row r="82" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:46" ht="14" x14ac:dyDescent="0.15">
       <c r="A82" s="57" t="s">
         <v>36</v>
       </c>
@@ -10102,7 +10115,7 @@
       <c r="AS82" s="5"/>
       <c r="AT82" s="6"/>
     </row>
-    <row r="83" spans="1:46" ht="26" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:46" ht="28" x14ac:dyDescent="0.15">
       <c r="A83" s="57" t="s">
         <v>37</v>
       </c>
@@ -10164,8 +10177,8 @@
       <c r="AS83" s="5"/>
       <c r="AT83" s="6"/>
     </row>
-    <row r="84" spans="1:46" ht="39" x14ac:dyDescent="0.15">
-      <c r="A84" s="202" t="s">
+    <row r="84" spans="1:46" ht="42" x14ac:dyDescent="0.15">
+      <c r="A84" s="195" t="s">
         <v>117</v>
       </c>
       <c r="B84" s="7"/>
@@ -10274,8 +10287,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A85" s="204"/>
+    <row r="85" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A85" s="197"/>
       <c r="B85" s="42"/>
       <c r="C85" s="32"/>
       <c r="D85" s="33"/>
@@ -10375,8 +10388,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A86" s="204"/>
+    <row r="86" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A86" s="197"/>
       <c r="B86" s="42"/>
       <c r="C86" s="32"/>
       <c r="D86" s="33"/>
@@ -10469,8 +10482,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A87" s="203"/>
+    <row r="87" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A87" s="196"/>
       <c r="B87" s="1"/>
       <c r="C87" s="2"/>
       <c r="D87" s="3"/>
@@ -10532,7 +10545,7 @@
       <c r="AS87" s="2"/>
       <c r="AT87" s="38"/>
     </row>
-    <row r="88" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:46" ht="14" x14ac:dyDescent="0.15">
       <c r="A88" s="58" t="s">
         <v>38</v>
       </c>
@@ -10582,8 +10595,8 @@
       <c r="AS88" s="5"/>
       <c r="AT88" s="6"/>
     </row>
-    <row r="89" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A89" s="196" t="s">
+    <row r="89" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A89" s="188" t="s">
         <v>39</v>
       </c>
       <c r="B89" s="7"/>
@@ -10668,8 +10681,8 @@
       <c r="AS89" s="8"/>
       <c r="AT89" s="9"/>
     </row>
-    <row r="90" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A90" s="198"/>
+    <row r="90" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A90" s="190"/>
       <c r="B90" s="1"/>
       <c r="C90" s="2"/>
       <c r="D90" s="3"/>
@@ -10740,8 +10753,8 @@
       <c r="AS90" s="2"/>
       <c r="AT90" s="3"/>
     </row>
-    <row r="91" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A91" s="202" t="s">
+    <row r="91" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A91" s="195" t="s">
         <v>40</v>
       </c>
       <c r="B91" s="7"/>
@@ -10850,8 +10863,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="92" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A92" s="204"/>
+    <row r="92" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A92" s="197"/>
       <c r="B92" s="42"/>
       <c r="C92" s="32"/>
       <c r="D92" s="33"/>
@@ -10951,8 +10964,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="93" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A93" s="203"/>
+    <row r="93" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A93" s="196"/>
       <c r="B93" s="1"/>
       <c r="C93" s="2"/>
       <c r="D93" s="3"/>
@@ -11035,8 +11048,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="94" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A94" s="202" t="s">
+    <row r="94" spans="1:46" ht="42" x14ac:dyDescent="0.15">
+      <c r="A94" s="195" t="s">
         <v>41</v>
       </c>
       <c r="B94" s="7"/>
@@ -11127,8 +11140,8 @@
       <c r="AS94" s="8"/>
       <c r="AT94" s="9"/>
     </row>
-    <row r="95" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A95" s="203"/>
+    <row r="95" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A95" s="196"/>
       <c r="B95" s="1"/>
       <c r="C95" s="2"/>
       <c r="D95" s="3"/>
@@ -11205,7 +11218,7 @@
       <c r="AS95" s="2"/>
       <c r="AT95" s="3"/>
     </row>
-    <row r="96" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:46" ht="14" x14ac:dyDescent="0.15">
       <c r="A96" s="58" t="s">
         <v>42</v>
       </c>
@@ -11255,8 +11268,8 @@
       <c r="AS96" s="5"/>
       <c r="AT96" s="6"/>
     </row>
-    <row r="97" spans="1:46" ht="39" x14ac:dyDescent="0.15">
-      <c r="A97" s="196" t="s">
+    <row r="97" spans="1:46" ht="56" x14ac:dyDescent="0.15">
+      <c r="A97" s="188" t="s">
         <v>43</v>
       </c>
       <c r="B97" s="7"/>
@@ -11365,8 +11378,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="98" spans="1:46" ht="52" x14ac:dyDescent="0.15">
-      <c r="A98" s="197"/>
+    <row r="98" spans="1:46" ht="56" x14ac:dyDescent="0.15">
+      <c r="A98" s="189"/>
       <c r="B98" s="42"/>
       <c r="C98" s="32"/>
       <c r="D98" s="33"/>
@@ -11452,8 +11465,8 @@
       <c r="AS98" s="32"/>
       <c r="AT98" s="33"/>
     </row>
-    <row r="99" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A99" s="197"/>
+    <row r="99" spans="1:46" ht="42" x14ac:dyDescent="0.15">
+      <c r="A99" s="189"/>
       <c r="B99" s="42"/>
       <c r="C99" s="32"/>
       <c r="D99" s="33"/>
@@ -11532,8 +11545,8 @@
       <c r="AS99" s="32"/>
       <c r="AT99" s="33"/>
     </row>
-    <row r="100" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A100" s="197"/>
+    <row r="100" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A100" s="189"/>
       <c r="B100" s="42"/>
       <c r="C100" s="32"/>
       <c r="D100" s="33"/>
@@ -11612,8 +11625,8 @@
       <c r="AS100" s="32"/>
       <c r="AT100" s="33"/>
     </row>
-    <row r="101" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A101" s="197"/>
+    <row r="101" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A101" s="189"/>
       <c r="B101" s="42"/>
       <c r="C101" s="32"/>
       <c r="D101" s="33"/>
@@ -11685,8 +11698,8 @@
       <c r="AS101" s="32"/>
       <c r="AT101" s="33"/>
     </row>
-    <row r="102" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A102" s="197"/>
+    <row r="102" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A102" s="189"/>
       <c r="B102" s="42"/>
       <c r="C102" s="32"/>
       <c r="D102" s="33"/>
@@ -11758,8 +11771,8 @@
       <c r="AS102" s="32"/>
       <c r="AT102" s="33"/>
     </row>
-    <row r="103" spans="1:46" ht="39" x14ac:dyDescent="0.15">
-      <c r="A103" s="197"/>
+    <row r="103" spans="1:46" ht="42" x14ac:dyDescent="0.15">
+      <c r="A103" s="189"/>
       <c r="B103" s="42"/>
       <c r="C103" s="32"/>
       <c r="D103" s="33"/>
@@ -11831,8 +11844,8 @@
       <c r="AS103" s="32"/>
       <c r="AT103" s="33"/>
     </row>
-    <row r="104" spans="1:46" ht="39" x14ac:dyDescent="0.15">
-      <c r="A104" s="197"/>
+    <row r="104" spans="1:46" ht="42" x14ac:dyDescent="0.15">
+      <c r="A104" s="189"/>
       <c r="B104" s="42"/>
       <c r="C104" s="32"/>
       <c r="D104" s="33"/>
@@ -11904,8 +11917,8 @@
       <c r="AS104" s="32"/>
       <c r="AT104" s="33"/>
     </row>
-    <row r="105" spans="1:46" ht="26" x14ac:dyDescent="0.15">
-      <c r="A105" s="198"/>
+    <row r="105" spans="1:46" ht="28" x14ac:dyDescent="0.15">
+      <c r="A105" s="190"/>
       <c r="B105" s="1"/>
       <c r="C105" s="2"/>
       <c r="D105" s="3"/>
@@ -11973,7 +11986,7 @@
       <c r="AS105" s="2"/>
       <c r="AT105" s="3"/>
     </row>
-    <row r="106" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:46" ht="14" x14ac:dyDescent="0.15">
       <c r="A106" s="53" t="s">
         <v>44</v>
       </c>
@@ -12023,7 +12036,7 @@
       <c r="AS106" s="8"/>
       <c r="AT106" s="9"/>
     </row>
-    <row r="107" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:46" ht="14" x14ac:dyDescent="0.15">
       <c r="A107" s="54" t="s">
         <v>45</v>
       </c>
@@ -12061,7 +12074,7 @@
       <c r="AS107" s="32"/>
       <c r="AT107" s="33"/>
     </row>
-    <row r="108" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:46" ht="14" x14ac:dyDescent="0.15">
       <c r="A108" s="54" t="s">
         <v>46</v>
       </c>
@@ -12099,7 +12112,7 @@
       <c r="AS108" s="32"/>
       <c r="AT108" s="33"/>
     </row>
-    <row r="109" spans="1:46" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:46" ht="14" x14ac:dyDescent="0.15">
       <c r="A109" s="55" t="s">
         <v>47</v>
       </c>
@@ -12171,69 +12184,69 @@
       <c r="Q110" s="165"/>
     </row>
     <row r="111" spans="1:46" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="190" t="s">
+      <c r="A111" s="203" t="s">
         <v>393</v>
       </c>
-      <c r="B111" s="190"/>
-      <c r="C111" s="190"/>
-      <c r="D111" s="190"/>
-      <c r="E111" s="190"/>
-      <c r="F111" s="190"/>
-      <c r="G111" s="190"/>
-      <c r="H111" s="190"/>
-      <c r="I111" s="190"/>
-      <c r="J111" s="190"/>
-      <c r="K111" s="190"/>
-      <c r="L111" s="190"/>
-      <c r="M111" s="190"/>
-      <c r="N111" s="190"/>
-      <c r="O111" s="190"/>
-      <c r="P111" s="190"/>
-      <c r="Q111" s="190"/>
-      <c r="R111" s="190"/>
-      <c r="S111" s="190"/>
-      <c r="T111" s="190"/>
-      <c r="U111" s="190"/>
-      <c r="V111" s="190"/>
-      <c r="W111" s="190"/>
-      <c r="X111" s="190"/>
-      <c r="Y111" s="190"/>
-      <c r="Z111" s="190"/>
-      <c r="AA111" s="190"/>
-      <c r="AB111" s="190"/>
-      <c r="AC111" s="190"/>
-      <c r="AD111" s="190"/>
-      <c r="AE111" s="190"/>
-      <c r="AF111" s="190"/>
-      <c r="AG111" s="190"/>
-      <c r="AH111" s="190"/>
-      <c r="AI111" s="190"/>
-      <c r="AJ111" s="190"/>
-      <c r="AK111" s="190"/>
-      <c r="AL111" s="190"/>
-      <c r="AM111" s="190"/>
-      <c r="AN111" s="190"/>
-      <c r="AO111" s="190"/>
-      <c r="AP111" s="190"/>
-      <c r="AQ111" s="190"/>
-      <c r="AR111" s="190"/>
-      <c r="AS111" s="190"/>
-      <c r="AT111" s="190"/>
+      <c r="B111" s="203"/>
+      <c r="C111" s="203"/>
+      <c r="D111" s="203"/>
+      <c r="E111" s="203"/>
+      <c r="F111" s="203"/>
+      <c r="G111" s="203"/>
+      <c r="H111" s="203"/>
+      <c r="I111" s="203"/>
+      <c r="J111" s="203"/>
+      <c r="K111" s="203"/>
+      <c r="L111" s="203"/>
+      <c r="M111" s="203"/>
+      <c r="N111" s="203"/>
+      <c r="O111" s="203"/>
+      <c r="P111" s="203"/>
+      <c r="Q111" s="203"/>
+      <c r="R111" s="203"/>
+      <c r="S111" s="203"/>
+      <c r="T111" s="203"/>
+      <c r="U111" s="203"/>
+      <c r="V111" s="203"/>
+      <c r="W111" s="203"/>
+      <c r="X111" s="203"/>
+      <c r="Y111" s="203"/>
+      <c r="Z111" s="203"/>
+      <c r="AA111" s="203"/>
+      <c r="AB111" s="203"/>
+      <c r="AC111" s="203"/>
+      <c r="AD111" s="203"/>
+      <c r="AE111" s="203"/>
+      <c r="AF111" s="203"/>
+      <c r="AG111" s="203"/>
+      <c r="AH111" s="203"/>
+      <c r="AI111" s="203"/>
+      <c r="AJ111" s="203"/>
+      <c r="AK111" s="203"/>
+      <c r="AL111" s="203"/>
+      <c r="AM111" s="203"/>
+      <c r="AN111" s="203"/>
+      <c r="AO111" s="203"/>
+      <c r="AP111" s="203"/>
+      <c r="AQ111" s="203"/>
+      <c r="AR111" s="203"/>
+      <c r="AS111" s="203"/>
+      <c r="AT111" s="203"/>
     </row>
     <row r="112" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="A112" s="188" t="s">
+      <c r="A112" s="201" t="s">
         <v>375</v>
       </c>
-      <c r="B112" s="188"/>
-      <c r="C112" s="188"/>
-      <c r="D112" s="188"/>
-      <c r="E112" s="188"/>
-      <c r="F112" s="188"/>
-      <c r="G112" s="188"/>
-      <c r="H112" s="188"/>
-      <c r="I112" s="188"/>
-      <c r="J112" s="188"/>
-      <c r="K112" s="188"/>
+      <c r="B112" s="201"/>
+      <c r="C112" s="201"/>
+      <c r="D112" s="201"/>
+      <c r="E112" s="201"/>
+      <c r="F112" s="201"/>
+      <c r="G112" s="201"/>
+      <c r="H112" s="201"/>
+      <c r="I112" s="201"/>
+      <c r="J112" s="201"/>
+      <c r="K112" s="201"/>
       <c r="L112" s="61"/>
       <c r="M112" s="61"/>
       <c r="N112" s="61"/>
@@ -12268,154 +12281,154 @@
       <c r="AQ112" s="61"/>
     </row>
     <row r="113" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="A113" s="189" t="s">
+      <c r="A113" s="202" t="s">
         <v>376</v>
       </c>
-      <c r="B113" s="189"/>
-      <c r="C113" s="189"/>
-      <c r="D113" s="189"/>
-      <c r="E113" s="189"/>
-      <c r="F113" s="189"/>
-      <c r="G113" s="189"/>
-      <c r="H113" s="189"/>
-      <c r="I113" s="189"/>
-      <c r="J113" s="189"/>
-      <c r="K113" s="189"/>
-      <c r="L113" s="189"/>
-      <c r="M113" s="189"/>
-      <c r="N113" s="189"/>
-      <c r="O113" s="189"/>
-      <c r="P113" s="189"/>
-      <c r="Q113" s="189"/>
-      <c r="R113" s="189"/>
-      <c r="S113" s="189"/>
-      <c r="T113" s="189"/>
-      <c r="U113" s="189"/>
-      <c r="V113" s="189"/>
-      <c r="W113" s="189"/>
-      <c r="X113" s="189"/>
-      <c r="Y113" s="189"/>
-      <c r="Z113" s="189"/>
-      <c r="AA113" s="189"/>
-      <c r="AB113" s="189"/>
-      <c r="AC113" s="189"/>
-      <c r="AD113" s="189"/>
-      <c r="AE113" s="189"/>
-      <c r="AF113" s="189"/>
-      <c r="AG113" s="189"/>
-      <c r="AH113" s="189"/>
-      <c r="AI113" s="189"/>
-      <c r="AJ113" s="189"/>
-      <c r="AK113" s="189"/>
-      <c r="AL113" s="189"/>
-      <c r="AM113" s="189"/>
-      <c r="AN113" s="189"/>
-      <c r="AO113" s="189"/>
-      <c r="AP113" s="189"/>
-      <c r="AQ113" s="189"/>
-      <c r="AR113" s="189"/>
-      <c r="AS113" s="189"/>
-      <c r="AT113" s="189"/>
+      <c r="B113" s="202"/>
+      <c r="C113" s="202"/>
+      <c r="D113" s="202"/>
+      <c r="E113" s="202"/>
+      <c r="F113" s="202"/>
+      <c r="G113" s="202"/>
+      <c r="H113" s="202"/>
+      <c r="I113" s="202"/>
+      <c r="J113" s="202"/>
+      <c r="K113" s="202"/>
+      <c r="L113" s="202"/>
+      <c r="M113" s="202"/>
+      <c r="N113" s="202"/>
+      <c r="O113" s="202"/>
+      <c r="P113" s="202"/>
+      <c r="Q113" s="202"/>
+      <c r="R113" s="202"/>
+      <c r="S113" s="202"/>
+      <c r="T113" s="202"/>
+      <c r="U113" s="202"/>
+      <c r="V113" s="202"/>
+      <c r="W113" s="202"/>
+      <c r="X113" s="202"/>
+      <c r="Y113" s="202"/>
+      <c r="Z113" s="202"/>
+      <c r="AA113" s="202"/>
+      <c r="AB113" s="202"/>
+      <c r="AC113" s="202"/>
+      <c r="AD113" s="202"/>
+      <c r="AE113" s="202"/>
+      <c r="AF113" s="202"/>
+      <c r="AG113" s="202"/>
+      <c r="AH113" s="202"/>
+      <c r="AI113" s="202"/>
+      <c r="AJ113" s="202"/>
+      <c r="AK113" s="202"/>
+      <c r="AL113" s="202"/>
+      <c r="AM113" s="202"/>
+      <c r="AN113" s="202"/>
+      <c r="AO113" s="202"/>
+      <c r="AP113" s="202"/>
+      <c r="AQ113" s="202"/>
+      <c r="AR113" s="202"/>
+      <c r="AS113" s="202"/>
+      <c r="AT113" s="202"/>
     </row>
     <row r="114" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="A114" s="192" t="s">
+      <c r="A114" s="205" t="s">
         <v>377</v>
       </c>
-      <c r="B114" s="192"/>
-      <c r="C114" s="192"/>
-      <c r="D114" s="192"/>
-      <c r="E114" s="192"/>
-      <c r="F114" s="192"/>
-      <c r="G114" s="192"/>
-      <c r="H114" s="192"/>
-      <c r="I114" s="192"/>
-      <c r="J114" s="192"/>
-      <c r="K114" s="192"/>
-      <c r="L114" s="192"/>
-      <c r="M114" s="192"/>
-      <c r="N114" s="192"/>
-      <c r="O114" s="192"/>
-      <c r="P114" s="192"/>
-      <c r="Q114" s="192"/>
-      <c r="R114" s="192"/>
-      <c r="S114" s="192"/>
-      <c r="T114" s="192"/>
-      <c r="U114" s="192"/>
-      <c r="V114" s="192"/>
-      <c r="W114" s="192"/>
-      <c r="X114" s="192"/>
-      <c r="Y114" s="192"/>
-      <c r="Z114" s="192"/>
-      <c r="AA114" s="192"/>
-      <c r="AB114" s="192"/>
-      <c r="AC114" s="192"/>
-      <c r="AD114" s="192"/>
-      <c r="AE114" s="192"/>
-      <c r="AF114" s="192"/>
-      <c r="AG114" s="192"/>
-      <c r="AH114" s="192"/>
-      <c r="AI114" s="192"/>
-      <c r="AJ114" s="192"/>
-      <c r="AK114" s="192"/>
-      <c r="AL114" s="192"/>
-      <c r="AM114" s="192"/>
-      <c r="AN114" s="192"/>
-      <c r="AO114" s="192"/>
-      <c r="AP114" s="192"/>
-      <c r="AQ114" s="192"/>
-      <c r="AR114" s="192"/>
-      <c r="AS114" s="192"/>
-      <c r="AT114" s="192"/>
+      <c r="B114" s="205"/>
+      <c r="C114" s="205"/>
+      <c r="D114" s="205"/>
+      <c r="E114" s="205"/>
+      <c r="F114" s="205"/>
+      <c r="G114" s="205"/>
+      <c r="H114" s="205"/>
+      <c r="I114" s="205"/>
+      <c r="J114" s="205"/>
+      <c r="K114" s="205"/>
+      <c r="L114" s="205"/>
+      <c r="M114" s="205"/>
+      <c r="N114" s="205"/>
+      <c r="O114" s="205"/>
+      <c r="P114" s="205"/>
+      <c r="Q114" s="205"/>
+      <c r="R114" s="205"/>
+      <c r="S114" s="205"/>
+      <c r="T114" s="205"/>
+      <c r="U114" s="205"/>
+      <c r="V114" s="205"/>
+      <c r="W114" s="205"/>
+      <c r="X114" s="205"/>
+      <c r="Y114" s="205"/>
+      <c r="Z114" s="205"/>
+      <c r="AA114" s="205"/>
+      <c r="AB114" s="205"/>
+      <c r="AC114" s="205"/>
+      <c r="AD114" s="205"/>
+      <c r="AE114" s="205"/>
+      <c r="AF114" s="205"/>
+      <c r="AG114" s="205"/>
+      <c r="AH114" s="205"/>
+      <c r="AI114" s="205"/>
+      <c r="AJ114" s="205"/>
+      <c r="AK114" s="205"/>
+      <c r="AL114" s="205"/>
+      <c r="AM114" s="205"/>
+      <c r="AN114" s="205"/>
+      <c r="AO114" s="205"/>
+      <c r="AP114" s="205"/>
+      <c r="AQ114" s="205"/>
+      <c r="AR114" s="205"/>
+      <c r="AS114" s="205"/>
+      <c r="AT114" s="205"/>
     </row>
     <row r="115" spans="1:46" x14ac:dyDescent="0.15">
-      <c r="A115" s="191" t="s">
+      <c r="A115" s="204" t="s">
         <v>336</v>
       </c>
-      <c r="B115" s="191"/>
-      <c r="C115" s="191"/>
-      <c r="D115" s="191"/>
-      <c r="E115" s="191"/>
-      <c r="F115" s="191"/>
-      <c r="G115" s="191"/>
-      <c r="H115" s="191"/>
-      <c r="I115" s="191"/>
-      <c r="J115" s="191"/>
-      <c r="K115" s="191"/>
-      <c r="L115" s="191"/>
-      <c r="M115" s="191"/>
-      <c r="N115" s="191"/>
-      <c r="O115" s="191"/>
-      <c r="P115" s="191"/>
-      <c r="Q115" s="191"/>
-      <c r="R115" s="191"/>
-      <c r="S115" s="191"/>
-      <c r="T115" s="191"/>
-      <c r="U115" s="191"/>
-      <c r="V115" s="191"/>
-      <c r="W115" s="191"/>
-      <c r="X115" s="191"/>
-      <c r="Y115" s="191"/>
-      <c r="Z115" s="191"/>
-      <c r="AA115" s="191"/>
-      <c r="AB115" s="191"/>
-      <c r="AC115" s="191"/>
-      <c r="AD115" s="191"/>
-      <c r="AE115" s="191"/>
-      <c r="AF115" s="191"/>
-      <c r="AG115" s="191"/>
-      <c r="AH115" s="191"/>
-      <c r="AI115" s="191"/>
-      <c r="AJ115" s="191"/>
-      <c r="AK115" s="191"/>
-      <c r="AL115" s="191"/>
-      <c r="AM115" s="191"/>
-      <c r="AN115" s="191"/>
-      <c r="AO115" s="191"/>
-      <c r="AP115" s="191"/>
-      <c r="AQ115" s="191"/>
-      <c r="AR115" s="191"/>
-      <c r="AS115" s="191"/>
-      <c r="AT115" s="191"/>
+      <c r="B115" s="204"/>
+      <c r="C115" s="204"/>
+      <c r="D115" s="204"/>
+      <c r="E115" s="204"/>
+      <c r="F115" s="204"/>
+      <c r="G115" s="204"/>
+      <c r="H115" s="204"/>
+      <c r="I115" s="204"/>
+      <c r="J115" s="204"/>
+      <c r="K115" s="204"/>
+      <c r="L115" s="204"/>
+      <c r="M115" s="204"/>
+      <c r="N115" s="204"/>
+      <c r="O115" s="204"/>
+      <c r="P115" s="204"/>
+      <c r="Q115" s="204"/>
+      <c r="R115" s="204"/>
+      <c r="S115" s="204"/>
+      <c r="T115" s="204"/>
+      <c r="U115" s="204"/>
+      <c r="V115" s="204"/>
+      <c r="W115" s="204"/>
+      <c r="X115" s="204"/>
+      <c r="Y115" s="204"/>
+      <c r="Z115" s="204"/>
+      <c r="AA115" s="204"/>
+      <c r="AB115" s="204"/>
+      <c r="AC115" s="204"/>
+      <c r="AD115" s="204"/>
+      <c r="AE115" s="204"/>
+      <c r="AF115" s="204"/>
+      <c r="AG115" s="204"/>
+      <c r="AH115" s="204"/>
+      <c r="AI115" s="204"/>
+      <c r="AJ115" s="204"/>
+      <c r="AK115" s="204"/>
+      <c r="AL115" s="204"/>
+      <c r="AM115" s="204"/>
+      <c r="AN115" s="204"/>
+      <c r="AO115" s="204"/>
+      <c r="AP115" s="204"/>
+      <c r="AQ115" s="204"/>
+      <c r="AR115" s="204"/>
+      <c r="AS115" s="204"/>
+      <c r="AT115" s="204"/>
     </row>
     <row r="116" spans="1:46" ht="15" x14ac:dyDescent="0.2">
       <c r="A116"/>
@@ -12557,6 +12570,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A112:K112"/>
+    <mergeCell ref="A113:AT113"/>
+    <mergeCell ref="A111:AT111"/>
+    <mergeCell ref="A115:AT115"/>
+    <mergeCell ref="A114:AT114"/>
+    <mergeCell ref="AR2:AT2"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A69:A77"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="A91:A93"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A7:A16"/>
+    <mergeCell ref="A21:A24"/>
     <mergeCell ref="A97:A105"/>
     <mergeCell ref="A1:AQ1"/>
     <mergeCell ref="A25:A26"/>
@@ -12573,28 +12608,6 @@
     <mergeCell ref="AI2:AK2"/>
     <mergeCell ref="AL2:AN2"/>
     <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A69:A77"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="A91:A93"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A7:A16"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="AR2:AT2"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A64:A66"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="A112:K112"/>
-    <mergeCell ref="A113:AT113"/>
-    <mergeCell ref="A111:AT111"/>
-    <mergeCell ref="A115:AT115"/>
-    <mergeCell ref="A114:AT114"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="19" fitToWidth="4" fitToHeight="3" orientation="landscape"/>
@@ -12602,8 +12615,8 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
   <dimension ref="A1:U59"/>
@@ -15660,8 +15673,8 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
   <dimension ref="A1:Q40"/>
@@ -15688,24 +15701,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="70" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="263" t="s">
+      <c r="A1" s="236" t="s">
         <v>364</v>
       </c>
-      <c r="B1" s="263"/>
-      <c r="C1" s="263"/>
-      <c r="D1" s="263"/>
-      <c r="E1" s="263"/>
-      <c r="F1" s="263"/>
-      <c r="G1" s="263"/>
-      <c r="H1" s="263"/>
-      <c r="I1" s="263"/>
-      <c r="J1" s="263"/>
-      <c r="K1" s="263"/>
-      <c r="L1" s="263"/>
-      <c r="M1" s="263"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="236"/>
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="236"/>
     </row>
     <row r="2" spans="1:13" s="70" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="248"/>
+      <c r="A2" s="265"/>
       <c r="B2" s="223">
         <v>2010</v>
       </c>
@@ -15726,7 +15739,7 @@
       <c r="M2" s="223"/>
     </row>
     <row r="3" spans="1:13" s="70" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="248"/>
+      <c r="A3" s="265"/>
       <c r="B3" s="109" t="s">
         <v>240</v>
       </c>
@@ -15764,377 +15777,377 @@
         <v>243</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="52" x14ac:dyDescent="0.15">
-      <c r="A4" s="233" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="236"/>
-      <c r="C4" s="239"/>
-      <c r="D4" s="236"/>
-      <c r="E4" s="236"/>
-      <c r="F4" s="242" t="s">
+    <row r="4" spans="1:13" ht="56" x14ac:dyDescent="0.15">
+      <c r="A4" s="251" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="243"/>
+      <c r="C4" s="262"/>
+      <c r="D4" s="243"/>
+      <c r="E4" s="243"/>
+      <c r="F4" s="239" t="s">
         <v>244</v>
       </c>
-      <c r="G4" s="245">
+      <c r="G4" s="241">
         <v>40695</v>
       </c>
-      <c r="H4" s="245">
+      <c r="H4" s="241">
         <v>40787</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="J4" s="242" t="s">
+      <c r="J4" s="239" t="s">
         <v>245</v>
       </c>
-      <c r="K4" s="245">
+      <c r="K4" s="241">
         <v>41030</v>
       </c>
-      <c r="L4" s="245">
+      <c r="L4" s="241">
         <v>41030</v>
       </c>
       <c r="M4" s="176" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="39" x14ac:dyDescent="0.15">
-      <c r="A5" s="234"/>
-      <c r="B5" s="237"/>
-      <c r="C5" s="240"/>
-      <c r="D5" s="237"/>
-      <c r="E5" s="237"/>
-      <c r="F5" s="243"/>
-      <c r="G5" s="246"/>
-      <c r="H5" s="246"/>
+    <row r="5" spans="1:13" ht="42" x14ac:dyDescent="0.15">
+      <c r="A5" s="252"/>
+      <c r="B5" s="246"/>
+      <c r="C5" s="263"/>
+      <c r="D5" s="246"/>
+      <c r="E5" s="246"/>
+      <c r="F5" s="247"/>
+      <c r="G5" s="242"/>
+      <c r="H5" s="242"/>
       <c r="I5" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="J5" s="243"/>
-      <c r="K5" s="246"/>
-      <c r="L5" s="246"/>
+      <c r="J5" s="247"/>
+      <c r="K5" s="242"/>
+      <c r="L5" s="242"/>
       <c r="M5" s="12" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="52" x14ac:dyDescent="0.15">
-      <c r="A6" s="234"/>
-      <c r="B6" s="237"/>
-      <c r="C6" s="240"/>
-      <c r="D6" s="237"/>
-      <c r="E6" s="237"/>
-      <c r="F6" s="243"/>
-      <c r="G6" s="246"/>
-      <c r="H6" s="246"/>
+    <row r="6" spans="1:13" ht="56" x14ac:dyDescent="0.15">
+      <c r="A6" s="252"/>
+      <c r="B6" s="246"/>
+      <c r="C6" s="263"/>
+      <c r="D6" s="246"/>
+      <c r="E6" s="246"/>
+      <c r="F6" s="247"/>
+      <c r="G6" s="242"/>
+      <c r="H6" s="242"/>
       <c r="I6" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="J6" s="243"/>
-      <c r="K6" s="246"/>
-      <c r="L6" s="246"/>
+      <c r="J6" s="247"/>
+      <c r="K6" s="242"/>
+      <c r="L6" s="242"/>
       <c r="M6" s="175" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="52" x14ac:dyDescent="0.15">
-      <c r="A7" s="234"/>
-      <c r="B7" s="237"/>
-      <c r="C7" s="240"/>
-      <c r="D7" s="237"/>
-      <c r="E7" s="237"/>
-      <c r="F7" s="243"/>
-      <c r="G7" s="246"/>
-      <c r="H7" s="246"/>
+    <row r="7" spans="1:13" ht="56" x14ac:dyDescent="0.15">
+      <c r="A7" s="252"/>
+      <c r="B7" s="246"/>
+      <c r="C7" s="263"/>
+      <c r="D7" s="246"/>
+      <c r="E7" s="246"/>
+      <c r="F7" s="247"/>
+      <c r="G7" s="242"/>
+      <c r="H7" s="242"/>
       <c r="I7" s="175" t="s">
         <v>414</v>
       </c>
-      <c r="J7" s="243"/>
-      <c r="K7" s="246"/>
-      <c r="L7" s="246"/>
+      <c r="J7" s="247"/>
+      <c r="K7" s="242"/>
+      <c r="L7" s="242"/>
       <c r="M7" s="175" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="234"/>
-      <c r="B8" s="237"/>
-      <c r="C8" s="240"/>
-      <c r="D8" s="237"/>
-      <c r="E8" s="237"/>
-      <c r="F8" s="243"/>
-      <c r="G8" s="246"/>
-      <c r="H8" s="246"/>
+      <c r="A8" s="252"/>
+      <c r="B8" s="246"/>
+      <c r="C8" s="263"/>
+      <c r="D8" s="246"/>
+      <c r="E8" s="246"/>
+      <c r="F8" s="247"/>
+      <c r="G8" s="242"/>
+      <c r="H8" s="242"/>
       <c r="I8" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="J8" s="243"/>
-      <c r="K8" s="246"/>
-      <c r="L8" s="246"/>
+      <c r="J8" s="247"/>
+      <c r="K8" s="242"/>
+      <c r="L8" s="242"/>
       <c r="M8" s="13" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="52" x14ac:dyDescent="0.15">
-      <c r="A9" s="235"/>
-      <c r="B9" s="238"/>
-      <c r="C9" s="241"/>
-      <c r="D9" s="238"/>
-      <c r="E9" s="238"/>
-      <c r="F9" s="244"/>
-      <c r="G9" s="247"/>
-      <c r="H9" s="247"/>
+    <row r="9" spans="1:13" ht="56" x14ac:dyDescent="0.15">
+      <c r="A9" s="253"/>
+      <c r="B9" s="244"/>
+      <c r="C9" s="264"/>
+      <c r="D9" s="244"/>
+      <c r="E9" s="244"/>
+      <c r="F9" s="240"/>
+      <c r="G9" s="245"/>
+      <c r="H9" s="245"/>
       <c r="I9" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="J9" s="244"/>
-      <c r="K9" s="247"/>
-      <c r="L9" s="247"/>
+      <c r="J9" s="240"/>
+      <c r="K9" s="245"/>
+      <c r="L9" s="245"/>
       <c r="M9" s="14" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="78" x14ac:dyDescent="0.15">
-      <c r="A10" s="233" t="s">
+    <row r="10" spans="1:13" ht="98" x14ac:dyDescent="0.15">
+      <c r="A10" s="251" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="254" t="s">
+      <c r="B10" s="248" t="s">
         <v>198</v>
       </c>
-      <c r="C10" s="257">
+      <c r="C10" s="259">
         <v>40360</v>
       </c>
-      <c r="D10" s="257">
+      <c r="D10" s="259">
         <v>40360</v>
       </c>
       <c r="E10" s="172" t="s">
         <v>407</v>
       </c>
-      <c r="F10" s="249"/>
-      <c r="G10" s="249"/>
-      <c r="H10" s="249"/>
-      <c r="I10" s="249"/>
-      <c r="J10" s="249"/>
-      <c r="K10" s="249"/>
-      <c r="L10" s="249"/>
+      <c r="F10" s="254"/>
+      <c r="G10" s="254"/>
+      <c r="H10" s="254"/>
+      <c r="I10" s="254"/>
+      <c r="J10" s="254"/>
+      <c r="K10" s="254"/>
+      <c r="L10" s="254"/>
       <c r="M10" s="157"/>
     </row>
-    <row r="11" spans="1:13" ht="26" x14ac:dyDescent="0.15">
-      <c r="A11" s="234"/>
-      <c r="B11" s="255"/>
-      <c r="C11" s="258"/>
-      <c r="D11" s="258"/>
+    <row r="11" spans="1:13" ht="28" x14ac:dyDescent="0.15">
+      <c r="A11" s="252"/>
+      <c r="B11" s="249"/>
+      <c r="C11" s="260"/>
+      <c r="D11" s="260"/>
       <c r="E11" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="F11" s="250"/>
-      <c r="G11" s="250"/>
-      <c r="H11" s="250"/>
-      <c r="I11" s="250"/>
-      <c r="J11" s="250"/>
-      <c r="K11" s="250"/>
-      <c r="L11" s="250"/>
+      <c r="F11" s="255"/>
+      <c r="G11" s="255"/>
+      <c r="H11" s="255"/>
+      <c r="I11" s="255"/>
+      <c r="J11" s="255"/>
+      <c r="K11" s="255"/>
+      <c r="L11" s="255"/>
       <c r="M11" s="158"/>
     </row>
-    <row r="12" spans="1:13" ht="39" x14ac:dyDescent="0.15">
-      <c r="A12" s="234"/>
-      <c r="B12" s="255"/>
-      <c r="C12" s="258"/>
-      <c r="D12" s="258"/>
+    <row r="12" spans="1:13" ht="42" x14ac:dyDescent="0.15">
+      <c r="A12" s="252"/>
+      <c r="B12" s="249"/>
+      <c r="C12" s="260"/>
+      <c r="D12" s="260"/>
       <c r="E12" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="F12" s="250"/>
-      <c r="G12" s="250"/>
-      <c r="H12" s="250"/>
-      <c r="I12" s="250"/>
-      <c r="J12" s="250"/>
-      <c r="K12" s="250"/>
-      <c r="L12" s="250"/>
+      <c r="F12" s="255"/>
+      <c r="G12" s="255"/>
+      <c r="H12" s="255"/>
+      <c r="I12" s="255"/>
+      <c r="J12" s="255"/>
+      <c r="K12" s="255"/>
+      <c r="L12" s="255"/>
       <c r="M12" s="159"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A13" s="235"/>
-      <c r="B13" s="256"/>
-      <c r="C13" s="259"/>
-      <c r="D13" s="259"/>
+    <row r="13" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+      <c r="A13" s="253"/>
+      <c r="B13" s="250"/>
+      <c r="C13" s="261"/>
+      <c r="D13" s="261"/>
       <c r="E13" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="F13" s="251"/>
-      <c r="G13" s="251"/>
-      <c r="H13" s="251"/>
-      <c r="I13" s="251"/>
-      <c r="J13" s="251"/>
-      <c r="K13" s="251"/>
-      <c r="L13" s="251"/>
+      <c r="F13" s="256"/>
+      <c r="G13" s="256"/>
+      <c r="H13" s="256"/>
+      <c r="I13" s="256"/>
+      <c r="J13" s="256"/>
+      <c r="K13" s="256"/>
+      <c r="L13" s="256"/>
       <c r="M13" s="160"/>
     </row>
-    <row r="14" spans="1:13" ht="52" x14ac:dyDescent="0.15">
-      <c r="A14" s="252" t="s">
+    <row r="14" spans="1:13" ht="56" x14ac:dyDescent="0.15">
+      <c r="A14" s="257" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="236"/>
-      <c r="C14" s="236"/>
-      <c r="D14" s="236"/>
-      <c r="E14" s="236"/>
-      <c r="F14" s="242" t="s">
+      <c r="B14" s="243"/>
+      <c r="C14" s="243"/>
+      <c r="D14" s="243"/>
+      <c r="E14" s="243"/>
+      <c r="F14" s="239" t="s">
         <v>246</v>
       </c>
-      <c r="G14" s="245">
+      <c r="G14" s="241">
         <v>40664</v>
       </c>
-      <c r="H14" s="245">
+      <c r="H14" s="241">
         <v>40725</v>
       </c>
       <c r="I14" s="172" t="s">
         <v>412</v>
       </c>
-      <c r="J14" s="236"/>
-      <c r="K14" s="236"/>
-      <c r="L14" s="236"/>
+      <c r="J14" s="243"/>
+      <c r="K14" s="243"/>
+      <c r="L14" s="243"/>
       <c r="M14" s="15"/>
     </row>
-    <row r="15" spans="1:13" ht="26" x14ac:dyDescent="0.15">
-      <c r="A15" s="253"/>
-      <c r="B15" s="237"/>
-      <c r="C15" s="237"/>
-      <c r="D15" s="237"/>
-      <c r="E15" s="237"/>
-      <c r="F15" s="243"/>
-      <c r="G15" s="246"/>
-      <c r="H15" s="246"/>
+    <row r="15" spans="1:13" ht="28" x14ac:dyDescent="0.15">
+      <c r="A15" s="258"/>
+      <c r="B15" s="246"/>
+      <c r="C15" s="246"/>
+      <c r="D15" s="246"/>
+      <c r="E15" s="246"/>
+      <c r="F15" s="247"/>
+      <c r="G15" s="242"/>
+      <c r="H15" s="242"/>
       <c r="I15" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="J15" s="237"/>
-      <c r="K15" s="237"/>
-      <c r="L15" s="237"/>
+      <c r="J15" s="246"/>
+      <c r="K15" s="246"/>
+      <c r="L15" s="246"/>
       <c r="M15" s="16"/>
     </row>
-    <row r="16" spans="1:13" ht="26" x14ac:dyDescent="0.15">
-      <c r="A16" s="253"/>
-      <c r="B16" s="237"/>
-      <c r="C16" s="237"/>
-      <c r="D16" s="237"/>
-      <c r="E16" s="237"/>
-      <c r="F16" s="243"/>
-      <c r="G16" s="246"/>
-      <c r="H16" s="246"/>
+    <row r="16" spans="1:13" ht="42" x14ac:dyDescent="0.15">
+      <c r="A16" s="258"/>
+      <c r="B16" s="246"/>
+      <c r="C16" s="246"/>
+      <c r="D16" s="246"/>
+      <c r="E16" s="246"/>
+      <c r="F16" s="247"/>
+      <c r="G16" s="242"/>
+      <c r="H16" s="242"/>
       <c r="I16" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="J16" s="237"/>
-      <c r="K16" s="237"/>
-      <c r="L16" s="237"/>
+      <c r="J16" s="246"/>
+      <c r="K16" s="246"/>
+      <c r="L16" s="246"/>
       <c r="M16" s="16"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="253"/>
-      <c r="B17" s="238"/>
-      <c r="C17" s="238"/>
-      <c r="D17" s="238"/>
-      <c r="E17" s="238"/>
-      <c r="F17" s="244"/>
-      <c r="G17" s="247"/>
-      <c r="H17" s="247"/>
+    <row r="17" spans="1:13" ht="14" x14ac:dyDescent="0.15">
+      <c r="A17" s="258"/>
+      <c r="B17" s="244"/>
+      <c r="C17" s="244"/>
+      <c r="D17" s="244"/>
+      <c r="E17" s="244"/>
+      <c r="F17" s="240"/>
+      <c r="G17" s="245"/>
+      <c r="H17" s="245"/>
       <c r="I17" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="J17" s="238"/>
-      <c r="K17" s="238"/>
-      <c r="L17" s="238"/>
+      <c r="J17" s="244"/>
+      <c r="K17" s="244"/>
+      <c r="L17" s="244"/>
       <c r="M17" s="17"/>
     </row>
-    <row r="18" spans="1:13" ht="52" x14ac:dyDescent="0.15">
-      <c r="A18" s="233" t="s">
+    <row r="18" spans="1:13" ht="70" x14ac:dyDescent="0.15">
+      <c r="A18" s="251" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="236"/>
-      <c r="C18" s="236"/>
-      <c r="D18" s="236"/>
-      <c r="E18" s="236"/>
-      <c r="F18" s="242" t="s">
+      <c r="B18" s="243"/>
+      <c r="C18" s="243"/>
+      <c r="D18" s="243"/>
+      <c r="E18" s="243"/>
+      <c r="F18" s="239" t="s">
         <v>247</v>
       </c>
-      <c r="G18" s="245">
+      <c r="G18" s="241">
         <v>40664</v>
       </c>
-      <c r="H18" s="245">
+      <c r="H18" s="241">
         <v>40725</v>
       </c>
       <c r="I18" s="172" t="s">
         <v>413</v>
       </c>
-      <c r="J18" s="236"/>
-      <c r="K18" s="236"/>
-      <c r="L18" s="236"/>
+      <c r="J18" s="243"/>
+      <c r="K18" s="243"/>
+      <c r="L18" s="243"/>
       <c r="M18" s="15"/>
     </row>
-    <row r="19" spans="1:13" ht="26" x14ac:dyDescent="0.15">
-      <c r="A19" s="234"/>
-      <c r="B19" s="237"/>
-      <c r="C19" s="237"/>
-      <c r="D19" s="237"/>
-      <c r="E19" s="237"/>
-      <c r="F19" s="243"/>
-      <c r="G19" s="243"/>
-      <c r="H19" s="243"/>
+    <row r="19" spans="1:13" ht="28" x14ac:dyDescent="0.15">
+      <c r="A19" s="252"/>
+      <c r="B19" s="246"/>
+      <c r="C19" s="246"/>
+      <c r="D19" s="246"/>
+      <c r="E19" s="246"/>
+      <c r="F19" s="247"/>
+      <c r="G19" s="247"/>
+      <c r="H19" s="247"/>
       <c r="I19" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="J19" s="237"/>
-      <c r="K19" s="237"/>
-      <c r="L19" s="237"/>
+      <c r="J19" s="246"/>
+      <c r="K19" s="246"/>
+      <c r="L19" s="246"/>
       <c r="M19" s="16"/>
     </row>
-    <row r="20" spans="1:13" ht="26" x14ac:dyDescent="0.15">
-      <c r="A20" s="234"/>
-      <c r="B20" s="237"/>
-      <c r="C20" s="237"/>
-      <c r="D20" s="237"/>
-      <c r="E20" s="237"/>
-      <c r="F20" s="243"/>
-      <c r="G20" s="243"/>
-      <c r="H20" s="243"/>
+    <row r="20" spans="1:13" ht="28" x14ac:dyDescent="0.15">
+      <c r="A20" s="252"/>
+      <c r="B20" s="246"/>
+      <c r="C20" s="246"/>
+      <c r="D20" s="246"/>
+      <c r="E20" s="246"/>
+      <c r="F20" s="247"/>
+      <c r="G20" s="247"/>
+      <c r="H20" s="247"/>
       <c r="I20" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="J20" s="237"/>
-      <c r="K20" s="237"/>
-      <c r="L20" s="237"/>
+      <c r="J20" s="246"/>
+      <c r="K20" s="246"/>
+      <c r="L20" s="246"/>
       <c r="M20" s="16"/>
     </row>
-    <row r="21" spans="1:13" ht="52" x14ac:dyDescent="0.15">
-      <c r="A21" s="235"/>
-      <c r="B21" s="238"/>
-      <c r="C21" s="238"/>
-      <c r="D21" s="238"/>
-      <c r="E21" s="238"/>
-      <c r="F21" s="244"/>
-      <c r="G21" s="244"/>
-      <c r="H21" s="244"/>
+    <row r="21" spans="1:13" ht="56" x14ac:dyDescent="0.15">
+      <c r="A21" s="253"/>
+      <c r="B21" s="244"/>
+      <c r="C21" s="244"/>
+      <c r="D21" s="244"/>
+      <c r="E21" s="244"/>
+      <c r="F21" s="240"/>
+      <c r="G21" s="240"/>
+      <c r="H21" s="240"/>
       <c r="I21" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="J21" s="237"/>
-      <c r="K21" s="238"/>
-      <c r="L21" s="238"/>
+      <c r="J21" s="246"/>
+      <c r="K21" s="244"/>
+      <c r="L21" s="244"/>
       <c r="M21" s="17"/>
     </row>
-    <row r="22" spans="1:13" ht="39" x14ac:dyDescent="0.15">
-      <c r="A22" s="233" t="s">
+    <row r="22" spans="1:13" ht="42" x14ac:dyDescent="0.15">
+      <c r="A22" s="251" t="s">
         <v>117</v>
       </c>
-      <c r="B22" s="236"/>
-      <c r="C22" s="236"/>
-      <c r="D22" s="236"/>
-      <c r="E22" s="236"/>
-      <c r="F22" s="242" t="s">
+      <c r="B22" s="243"/>
+      <c r="C22" s="243"/>
+      <c r="D22" s="243"/>
+      <c r="E22" s="243"/>
+      <c r="F22" s="239" t="s">
         <v>248</v>
       </c>
-      <c r="G22" s="245">
+      <c r="G22" s="241">
         <v>40695</v>
       </c>
-      <c r="H22" s="245">
+      <c r="H22" s="241">
         <v>40909</v>
       </c>
       <c r="I22" s="23" t="s">
@@ -16145,15 +16158,15 @@
       <c r="L22" s="26"/>
       <c r="M22" s="26"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A23" s="234"/>
-      <c r="B23" s="237"/>
-      <c r="C23" s="237"/>
-      <c r="D23" s="237"/>
-      <c r="E23" s="237"/>
-      <c r="F23" s="243"/>
-      <c r="G23" s="243"/>
-      <c r="H23" s="243"/>
+    <row r="23" spans="1:13" ht="28" x14ac:dyDescent="0.15">
+      <c r="A23" s="252"/>
+      <c r="B23" s="246"/>
+      <c r="C23" s="246"/>
+      <c r="D23" s="246"/>
+      <c r="E23" s="246"/>
+      <c r="F23" s="247"/>
+      <c r="G23" s="247"/>
+      <c r="H23" s="247"/>
       <c r="I23" s="24" t="s">
         <v>321</v>
       </c>
@@ -16162,15 +16175,15 @@
       <c r="L23" s="27"/>
       <c r="M23" s="27"/>
     </row>
-    <row r="24" spans="1:13" ht="26" x14ac:dyDescent="0.15">
-      <c r="A24" s="234"/>
-      <c r="B24" s="237"/>
-      <c r="C24" s="237"/>
-      <c r="D24" s="237"/>
-      <c r="E24" s="237"/>
-      <c r="F24" s="243"/>
-      <c r="G24" s="243"/>
-      <c r="H24" s="243"/>
+    <row r="24" spans="1:13" ht="42" x14ac:dyDescent="0.15">
+      <c r="A24" s="252"/>
+      <c r="B24" s="246"/>
+      <c r="C24" s="246"/>
+      <c r="D24" s="246"/>
+      <c r="E24" s="246"/>
+      <c r="F24" s="247"/>
+      <c r="G24" s="247"/>
+      <c r="H24" s="247"/>
       <c r="I24" s="24" t="s">
         <v>331</v>
       </c>
@@ -16179,15 +16192,15 @@
       <c r="L24" s="27"/>
       <c r="M24" s="27"/>
     </row>
-    <row r="25" spans="1:13" ht="39" x14ac:dyDescent="0.15">
-      <c r="A25" s="234"/>
-      <c r="B25" s="237"/>
-      <c r="C25" s="237"/>
-      <c r="D25" s="237"/>
-      <c r="E25" s="237"/>
-      <c r="F25" s="243"/>
-      <c r="G25" s="243"/>
-      <c r="H25" s="243"/>
+    <row r="25" spans="1:13" ht="42" x14ac:dyDescent="0.15">
+      <c r="A25" s="252"/>
+      <c r="B25" s="246"/>
+      <c r="C25" s="246"/>
+      <c r="D25" s="246"/>
+      <c r="E25" s="246"/>
+      <c r="F25" s="247"/>
+      <c r="G25" s="247"/>
+      <c r="H25" s="247"/>
       <c r="I25" s="174" t="s">
         <v>411</v>
       </c>
@@ -16196,15 +16209,15 @@
       <c r="L25" s="27"/>
       <c r="M25" s="27"/>
     </row>
-    <row r="26" spans="1:13" ht="39" x14ac:dyDescent="0.15">
-      <c r="A26" s="235"/>
-      <c r="B26" s="238"/>
-      <c r="C26" s="238"/>
-      <c r="D26" s="238"/>
-      <c r="E26" s="238"/>
-      <c r="F26" s="244"/>
-      <c r="G26" s="244"/>
-      <c r="H26" s="244"/>
+    <row r="26" spans="1:13" ht="42" x14ac:dyDescent="0.15">
+      <c r="A26" s="253"/>
+      <c r="B26" s="244"/>
+      <c r="C26" s="244"/>
+      <c r="D26" s="244"/>
+      <c r="E26" s="244"/>
+      <c r="F26" s="240"/>
+      <c r="G26" s="240"/>
+      <c r="H26" s="240"/>
       <c r="I26" s="25" t="s">
         <v>322</v>
       </c>
@@ -16213,107 +16226,107 @@
       <c r="L26" s="28"/>
       <c r="M26" s="28"/>
     </row>
-    <row r="27" spans="1:13" ht="78" x14ac:dyDescent="0.15">
-      <c r="A27" s="233" t="s">
+    <row r="27" spans="1:13" ht="84" x14ac:dyDescent="0.15">
+      <c r="A27" s="251" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="236"/>
-      <c r="C27" s="236"/>
-      <c r="D27" s="236"/>
-      <c r="E27" s="236"/>
-      <c r="F27" s="254" t="s">
+      <c r="B27" s="243"/>
+      <c r="C27" s="243"/>
+      <c r="D27" s="243"/>
+      <c r="E27" s="243"/>
+      <c r="F27" s="248" t="s">
         <v>249</v>
       </c>
-      <c r="G27" s="245">
+      <c r="G27" s="241">
         <v>40603</v>
       </c>
-      <c r="H27" s="245">
+      <c r="H27" s="241">
         <v>40664</v>
       </c>
       <c r="I27" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="J27" s="237"/>
-      <c r="K27" s="236"/>
-      <c r="L27" s="236"/>
-      <c r="M27" s="236"/>
-    </row>
-    <row r="28" spans="1:13" ht="65" x14ac:dyDescent="0.15">
-      <c r="A28" s="234"/>
-      <c r="B28" s="237"/>
-      <c r="C28" s="237"/>
-      <c r="D28" s="237"/>
-      <c r="E28" s="237"/>
-      <c r="F28" s="255"/>
-      <c r="G28" s="246"/>
-      <c r="H28" s="243"/>
+      <c r="J27" s="246"/>
+      <c r="K27" s="243"/>
+      <c r="L27" s="243"/>
+      <c r="M27" s="243"/>
+    </row>
+    <row r="28" spans="1:13" ht="70" x14ac:dyDescent="0.15">
+      <c r="A28" s="252"/>
+      <c r="B28" s="246"/>
+      <c r="C28" s="246"/>
+      <c r="D28" s="246"/>
+      <c r="E28" s="246"/>
+      <c r="F28" s="249"/>
+      <c r="G28" s="242"/>
+      <c r="H28" s="247"/>
       <c r="I28" s="173" t="s">
         <v>410</v>
       </c>
-      <c r="J28" s="237"/>
-      <c r="K28" s="237"/>
-      <c r="L28" s="237"/>
-      <c r="M28" s="237"/>
-    </row>
-    <row r="29" spans="1:13" ht="39" x14ac:dyDescent="0.15">
-      <c r="A29" s="234"/>
-      <c r="B29" s="238"/>
-      <c r="C29" s="238"/>
-      <c r="D29" s="238"/>
-      <c r="E29" s="238"/>
-      <c r="F29" s="256"/>
-      <c r="G29" s="247"/>
-      <c r="H29" s="244"/>
+      <c r="J28" s="246"/>
+      <c r="K28" s="246"/>
+      <c r="L28" s="246"/>
+      <c r="M28" s="246"/>
+    </row>
+    <row r="29" spans="1:13" ht="42" x14ac:dyDescent="0.15">
+      <c r="A29" s="252"/>
+      <c r="B29" s="244"/>
+      <c r="C29" s="244"/>
+      <c r="D29" s="244"/>
+      <c r="E29" s="244"/>
+      <c r="F29" s="250"/>
+      <c r="G29" s="245"/>
+      <c r="H29" s="240"/>
       <c r="I29" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="J29" s="238"/>
-      <c r="K29" s="238"/>
-      <c r="L29" s="238"/>
-      <c r="M29" s="238"/>
-    </row>
-    <row r="30" spans="1:13" ht="52" x14ac:dyDescent="0.15">
-      <c r="A30" s="234"/>
-      <c r="B30" s="236"/>
-      <c r="C30" s="236"/>
-      <c r="D30" s="236"/>
-      <c r="E30" s="236"/>
-      <c r="F30" s="242" t="s">
+      <c r="J29" s="244"/>
+      <c r="K29" s="244"/>
+      <c r="L29" s="244"/>
+      <c r="M29" s="244"/>
+    </row>
+    <row r="30" spans="1:13" ht="56" x14ac:dyDescent="0.15">
+      <c r="A30" s="252"/>
+      <c r="B30" s="243"/>
+      <c r="C30" s="243"/>
+      <c r="D30" s="243"/>
+      <c r="E30" s="243"/>
+      <c r="F30" s="239" t="s">
         <v>250</v>
       </c>
-      <c r="G30" s="245">
+      <c r="G30" s="241">
         <v>40603</v>
       </c>
-      <c r="H30" s="245">
+      <c r="H30" s="241">
         <v>40664</v>
       </c>
       <c r="I30" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="J30" s="236"/>
-      <c r="K30" s="236"/>
-      <c r="L30" s="236"/>
-      <c r="M30" s="236"/>
-    </row>
-    <row r="31" spans="1:13" ht="26" x14ac:dyDescent="0.15">
-      <c r="A31" s="234"/>
-      <c r="B31" s="238"/>
-      <c r="C31" s="238"/>
-      <c r="D31" s="238"/>
-      <c r="E31" s="238"/>
-      <c r="F31" s="244"/>
-      <c r="G31" s="246"/>
-      <c r="H31" s="244"/>
+      <c r="J30" s="243"/>
+      <c r="K30" s="243"/>
+      <c r="L30" s="243"/>
+      <c r="M30" s="243"/>
+    </row>
+    <row r="31" spans="1:13" ht="28" x14ac:dyDescent="0.15">
+      <c r="A31" s="252"/>
+      <c r="B31" s="244"/>
+      <c r="C31" s="244"/>
+      <c r="D31" s="244"/>
+      <c r="E31" s="244"/>
+      <c r="F31" s="240"/>
+      <c r="G31" s="242"/>
+      <c r="H31" s="240"/>
       <c r="I31" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="J31" s="238"/>
-      <c r="K31" s="238"/>
-      <c r="L31" s="238"/>
-      <c r="M31" s="238"/>
-    </row>
-    <row r="32" spans="1:13" ht="39" x14ac:dyDescent="0.15">
-      <c r="A32" s="234"/>
+      <c r="J31" s="244"/>
+      <c r="K31" s="244"/>
+      <c r="L31" s="244"/>
+      <c r="M31" s="244"/>
+    </row>
+    <row r="32" spans="1:13" ht="42" x14ac:dyDescent="0.15">
+      <c r="A32" s="252"/>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19"/>
@@ -16335,45 +16348,45 @@
       <c r="L32" s="19"/>
       <c r="M32" s="19"/>
     </row>
-    <row r="33" spans="1:17" ht="39" x14ac:dyDescent="0.15">
-      <c r="A33" s="234"/>
-      <c r="B33" s="236"/>
-      <c r="C33" s="236"/>
-      <c r="D33" s="236"/>
-      <c r="E33" s="236"/>
-      <c r="F33" s="242" t="s">
+    <row r="33" spans="1:17" ht="42" x14ac:dyDescent="0.15">
+      <c r="A33" s="252"/>
+      <c r="B33" s="243"/>
+      <c r="C33" s="243"/>
+      <c r="D33" s="243"/>
+      <c r="E33" s="243"/>
+      <c r="F33" s="239" t="s">
         <v>252</v>
       </c>
-      <c r="G33" s="245">
+      <c r="G33" s="241">
         <v>40603</v>
       </c>
-      <c r="H33" s="245">
+      <c r="H33" s="241">
         <v>40664</v>
       </c>
       <c r="I33" s="172" t="s">
         <v>408</v>
       </c>
-      <c r="J33" s="236"/>
-      <c r="K33" s="236"/>
-      <c r="L33" s="236"/>
-      <c r="M33" s="236"/>
-    </row>
-    <row r="34" spans="1:17" ht="26" x14ac:dyDescent="0.15">
-      <c r="A34" s="235"/>
-      <c r="B34" s="238"/>
-      <c r="C34" s="238"/>
-      <c r="D34" s="238"/>
-      <c r="E34" s="238"/>
-      <c r="F34" s="244"/>
-      <c r="G34" s="247"/>
-      <c r="H34" s="247"/>
+      <c r="J33" s="243"/>
+      <c r="K33" s="243"/>
+      <c r="L33" s="243"/>
+      <c r="M33" s="243"/>
+    </row>
+    <row r="34" spans="1:17" ht="28" x14ac:dyDescent="0.15">
+      <c r="A34" s="253"/>
+      <c r="B34" s="244"/>
+      <c r="C34" s="244"/>
+      <c r="D34" s="244"/>
+      <c r="E34" s="244"/>
+      <c r="F34" s="240"/>
+      <c r="G34" s="245"/>
+      <c r="H34" s="245"/>
       <c r="I34" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="J34" s="238"/>
-      <c r="K34" s="238"/>
-      <c r="L34" s="238"/>
-      <c r="M34" s="238"/>
+      <c r="J34" s="244"/>
+      <c r="K34" s="244"/>
+      <c r="L34" s="244"/>
+      <c r="M34" s="244"/>
     </row>
     <row r="35" spans="1:17" s="70" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="167" t="s">
@@ -16397,21 +16410,21 @@
       <c r="Q35" s="90"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A36" s="261" t="s">
+      <c r="A36" s="234" t="s">
         <v>404</v>
       </c>
-      <c r="B36" s="262"/>
-      <c r="C36" s="262"/>
-      <c r="D36" s="262"/>
-      <c r="E36" s="262"/>
-      <c r="F36" s="262"/>
-      <c r="G36" s="262"/>
-      <c r="H36" s="262"/>
-      <c r="I36" s="262"/>
-      <c r="J36" s="262"/>
-      <c r="K36" s="262"/>
-      <c r="L36" s="262"/>
-      <c r="M36" s="262"/>
+      <c r="B36" s="235"/>
+      <c r="C36" s="235"/>
+      <c r="D36" s="235"/>
+      <c r="E36" s="235"/>
+      <c r="F36" s="235"/>
+      <c r="G36" s="235"/>
+      <c r="H36" s="235"/>
+      <c r="I36" s="235"/>
+      <c r="J36" s="235"/>
+      <c r="K36" s="235"/>
+      <c r="L36" s="235"/>
+      <c r="M36" s="235"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="212" t="s">
@@ -16431,38 +16444,38 @@
       <c r="M37" s="213"/>
     </row>
     <row r="38" spans="1:17" s="161" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="260" t="s">
+      <c r="A38" s="233" t="s">
         <v>374</v>
       </c>
-      <c r="B38" s="260"/>
-      <c r="C38" s="260"/>
-      <c r="D38" s="260"/>
-      <c r="E38" s="260"/>
-      <c r="F38" s="260"/>
-      <c r="G38" s="260"/>
-      <c r="H38" s="260"/>
-      <c r="I38" s="260"/>
-      <c r="J38" s="260"/>
-      <c r="K38" s="260"/>
-      <c r="L38" s="260"/>
-      <c r="M38" s="260"/>
+      <c r="B38" s="233"/>
+      <c r="C38" s="233"/>
+      <c r="D38" s="233"/>
+      <c r="E38" s="233"/>
+      <c r="F38" s="233"/>
+      <c r="G38" s="233"/>
+      <c r="H38" s="233"/>
+      <c r="I38" s="233"/>
+      <c r="J38" s="233"/>
+      <c r="K38" s="233"/>
+      <c r="L38" s="233"/>
+      <c r="M38" s="233"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A39" s="264" t="s">
+      <c r="A39" s="237" t="s">
         <v>406</v>
       </c>
-      <c r="B39" s="265"/>
-      <c r="C39" s="265"/>
-      <c r="D39" s="265"/>
-      <c r="E39" s="265"/>
-      <c r="F39" s="265"/>
-      <c r="G39" s="265"/>
-      <c r="H39" s="265"/>
-      <c r="I39" s="265"/>
-      <c r="J39" s="265"/>
-      <c r="K39" s="265"/>
-      <c r="L39" s="265"/>
-      <c r="M39" s="265"/>
+      <c r="B39" s="238"/>
+      <c r="C39" s="238"/>
+      <c r="D39" s="238"/>
+      <c r="E39" s="238"/>
+      <c r="F39" s="238"/>
+      <c r="G39" s="238"/>
+      <c r="H39" s="238"/>
+      <c r="I39" s="238"/>
+      <c r="J39" s="238"/>
+      <c r="K39" s="238"/>
+      <c r="L39" s="238"/>
+      <c r="M39" s="238"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A40" s="171" t="s">
@@ -16483,6 +16496,85 @@
     </row>
   </sheetData>
   <mergeCells count="95">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="D4:D9"/>
+    <mergeCell ref="E4:E9"/>
+    <mergeCell ref="F4:F9"/>
+    <mergeCell ref="G4:G9"/>
+    <mergeCell ref="H4:H9"/>
+    <mergeCell ref="J4:J9"/>
+    <mergeCell ref="K4:K9"/>
+    <mergeCell ref="L4:L9"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="L10:L13"/>
+    <mergeCell ref="H14:H17"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="L18:L21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="E22:E26"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="D18:D21"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="F22:F26"/>
+    <mergeCell ref="G22:G26"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="H22:H26"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="H18:H21"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="M27:M29"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
     <mergeCell ref="A38:M38"/>
     <mergeCell ref="A37:M37"/>
     <mergeCell ref="A36:M36"/>
@@ -16499,85 +16591,6 @@
     <mergeCell ref="K33:K34"/>
     <mergeCell ref="K27:K29"/>
     <mergeCell ref="L27:L29"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:M34"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="M27:M29"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="J27:J29"/>
-    <mergeCell ref="H22:H26"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="K18:K21"/>
-    <mergeCell ref="L18:L21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="E22:E26"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="D18:D21"/>
-    <mergeCell ref="E18:E21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="F22:F26"/>
-    <mergeCell ref="G22:G26"/>
-    <mergeCell ref="L14:L17"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="K10:K13"/>
-    <mergeCell ref="L10:L13"/>
-    <mergeCell ref="H14:H17"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="D4:D9"/>
-    <mergeCell ref="E4:E9"/>
-    <mergeCell ref="F4:F9"/>
-    <mergeCell ref="G4:G9"/>
-    <mergeCell ref="H4:H9"/>
-    <mergeCell ref="J4:J9"/>
-    <mergeCell ref="K4:K9"/>
-    <mergeCell ref="L4:L9"/>
-    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -16585,8 +16598,8 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
   <dimension ref="A1:U94"/>
@@ -16605,26 +16618,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A1" s="263" t="s">
+      <c r="A1" s="236" t="s">
         <v>364</v>
       </c>
-      <c r="B1" s="263"/>
-      <c r="C1" s="263"/>
-      <c r="D1" s="263"/>
-      <c r="E1" s="263"/>
-      <c r="F1" s="263"/>
-      <c r="G1" s="263"/>
-      <c r="H1" s="263"/>
-      <c r="I1" s="263"/>
-      <c r="J1" s="263"/>
-      <c r="K1" s="263"/>
-      <c r="L1" s="263"/>
-      <c r="M1" s="263"/>
-      <c r="N1" s="263"/>
-      <c r="O1" s="263"/>
-      <c r="P1" s="263"/>
-      <c r="Q1" s="263"/>
-      <c r="R1" s="263"/>
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="236"/>
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="236"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="236"/>
+      <c r="P1" s="236"/>
+      <c r="Q1" s="236"/>
+      <c r="R1" s="236"/>
     </row>
     <row r="2" spans="1:21" s="69" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="76"/>
@@ -19577,21 +19590,21 @@
       <c r="Q54" s="90"/>
     </row>
     <row r="55" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="261" t="s">
+      <c r="A55" s="234" t="s">
         <v>404</v>
       </c>
-      <c r="B55" s="262"/>
-      <c r="C55" s="262"/>
-      <c r="D55" s="262"/>
-      <c r="E55" s="262"/>
-      <c r="F55" s="262"/>
-      <c r="G55" s="262"/>
-      <c r="H55" s="262"/>
-      <c r="I55" s="262"/>
-      <c r="J55" s="262"/>
-      <c r="K55" s="262"/>
-      <c r="L55" s="262"/>
-      <c r="M55" s="262"/>
+      <c r="B55" s="235"/>
+      <c r="C55" s="235"/>
+      <c r="D55" s="235"/>
+      <c r="E55" s="235"/>
+      <c r="F55" s="235"/>
+      <c r="G55" s="235"/>
+      <c r="H55" s="235"/>
+      <c r="I55" s="235"/>
+      <c r="J55" s="235"/>
+      <c r="K55" s="235"/>
+      <c r="L55" s="235"/>
+      <c r="M55" s="235"/>
     </row>
     <row r="56" spans="1:18" s="10" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="212" t="s">
@@ -19611,26 +19624,26 @@
       <c r="M56" s="213"/>
     </row>
     <row r="57" spans="1:18" s="162" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="260" t="s">
+      <c r="A57" s="233" t="s">
         <v>363</v>
       </c>
-      <c r="B57" s="260"/>
-      <c r="C57" s="260"/>
-      <c r="D57" s="260"/>
-      <c r="E57" s="260"/>
-      <c r="F57" s="260"/>
-      <c r="G57" s="260"/>
-      <c r="H57" s="260"/>
-      <c r="I57" s="260"/>
-      <c r="J57" s="260"/>
-      <c r="K57" s="260"/>
-      <c r="L57" s="260"/>
-      <c r="M57" s="260"/>
-      <c r="N57" s="260"/>
-      <c r="O57" s="260"/>
-      <c r="P57" s="260"/>
-      <c r="Q57" s="260"/>
-      <c r="R57" s="260"/>
+      <c r="B57" s="233"/>
+      <c r="C57" s="233"/>
+      <c r="D57" s="233"/>
+      <c r="E57" s="233"/>
+      <c r="F57" s="233"/>
+      <c r="G57" s="233"/>
+      <c r="H57" s="233"/>
+      <c r="I57" s="233"/>
+      <c r="J57" s="233"/>
+      <c r="K57" s="233"/>
+      <c r="L57" s="233"/>
+      <c r="M57" s="233"/>
+      <c r="N57" s="233"/>
+      <c r="O57" s="233"/>
+      <c r="P57" s="233"/>
+      <c r="Q57" s="233"/>
+      <c r="R57" s="233"/>
     </row>
     <row r="58" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="212" t="s">
@@ -19797,13 +19810,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
   <dimension ref="A1:AT58"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="U9" sqref="U9"/>
     </sheetView>
@@ -22778,26 +22791,26 @@
       <c r="R54" s="208"/>
     </row>
     <row r="55" spans="1:46" s="51" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="192" t="s">
+      <c r="A55" s="205" t="s">
         <v>392</v>
       </c>
-      <c r="B55" s="192"/>
-      <c r="C55" s="192"/>
-      <c r="D55" s="192"/>
-      <c r="E55" s="192"/>
-      <c r="F55" s="192"/>
-      <c r="G55" s="192"/>
-      <c r="H55" s="192"/>
-      <c r="I55" s="192"/>
-      <c r="J55" s="192"/>
-      <c r="K55" s="192"/>
-      <c r="L55" s="192"/>
-      <c r="M55" s="192"/>
-      <c r="N55" s="192"/>
-      <c r="O55" s="192"/>
-      <c r="P55" s="192"/>
-      <c r="Q55" s="192"/>
-      <c r="R55" s="192"/>
+      <c r="B55" s="205"/>
+      <c r="C55" s="205"/>
+      <c r="D55" s="205"/>
+      <c r="E55" s="205"/>
+      <c r="F55" s="205"/>
+      <c r="G55" s="205"/>
+      <c r="H55" s="205"/>
+      <c r="I55" s="205"/>
+      <c r="J55" s="205"/>
+      <c r="K55" s="205"/>
+      <c r="L55" s="205"/>
+      <c r="M55" s="205"/>
+      <c r="N55" s="205"/>
+      <c r="O55" s="205"/>
+      <c r="P55" s="205"/>
+      <c r="Q55" s="205"/>
+      <c r="R55" s="205"/>
       <c r="S55" s="62"/>
       <c r="T55" s="62"/>
       <c r="U55" s="62"/>
@@ -22828,26 +22841,26 @@
       <c r="AT55" s="62"/>
     </row>
     <row r="56" spans="1:46" s="51" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="192" t="s">
+      <c r="A56" s="205" t="s">
         <v>337</v>
       </c>
-      <c r="B56" s="192"/>
-      <c r="C56" s="192"/>
-      <c r="D56" s="192"/>
-      <c r="E56" s="192"/>
-      <c r="F56" s="192"/>
-      <c r="G56" s="192"/>
-      <c r="H56" s="192"/>
-      <c r="I56" s="192"/>
-      <c r="J56" s="192"/>
-      <c r="K56" s="192"/>
-      <c r="L56" s="192"/>
-      <c r="M56" s="192"/>
-      <c r="N56" s="192"/>
-      <c r="O56" s="192"/>
-      <c r="P56" s="192"/>
-      <c r="Q56" s="192"/>
-      <c r="R56" s="192"/>
+      <c r="B56" s="205"/>
+      <c r="C56" s="205"/>
+      <c r="D56" s="205"/>
+      <c r="E56" s="205"/>
+      <c r="F56" s="205"/>
+      <c r="G56" s="205"/>
+      <c r="H56" s="205"/>
+      <c r="I56" s="205"/>
+      <c r="J56" s="205"/>
+      <c r="K56" s="205"/>
+      <c r="L56" s="205"/>
+      <c r="M56" s="205"/>
+      <c r="N56" s="205"/>
+      <c r="O56" s="205"/>
+      <c r="P56" s="205"/>
+      <c r="Q56" s="205"/>
+      <c r="R56" s="205"/>
       <c r="S56" s="62"/>
       <c r="T56" s="62"/>
       <c r="U56" s="62"/>
@@ -22928,26 +22941,26 @@
       <c r="AT57" s="62"/>
     </row>
     <row r="58" spans="1:46" s="51" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="192" t="s">
+      <c r="A58" s="205" t="s">
         <v>383</v>
       </c>
-      <c r="B58" s="192"/>
-      <c r="C58" s="192"/>
-      <c r="D58" s="192"/>
-      <c r="E58" s="192"/>
-      <c r="F58" s="192"/>
-      <c r="G58" s="192"/>
-      <c r="H58" s="192"/>
-      <c r="I58" s="192"/>
-      <c r="J58" s="192"/>
-      <c r="K58" s="192"/>
-      <c r="L58" s="192"/>
-      <c r="M58" s="192"/>
-      <c r="N58" s="192"/>
-      <c r="O58" s="192"/>
-      <c r="P58" s="192"/>
-      <c r="Q58" s="192"/>
-      <c r="R58" s="192"/>
+      <c r="B58" s="205"/>
+      <c r="C58" s="205"/>
+      <c r="D58" s="205"/>
+      <c r="E58" s="205"/>
+      <c r="F58" s="205"/>
+      <c r="G58" s="205"/>
+      <c r="H58" s="205"/>
+      <c r="I58" s="205"/>
+      <c r="J58" s="205"/>
+      <c r="K58" s="205"/>
+      <c r="L58" s="205"/>
+      <c r="M58" s="205"/>
+      <c r="N58" s="205"/>
+      <c r="O58" s="205"/>
+      <c r="P58" s="205"/>
+      <c r="Q58" s="205"/>
+      <c r="R58" s="205"/>
       <c r="S58" s="62"/>
       <c r="T58" s="62"/>
       <c r="U58" s="62"/>
@@ -22992,15 +23005,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
   <dimension ref="A1:U58"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView topLeftCell="A38" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1:R1048576"/>
+      <selection pane="topRight" activeCell="A57" sqref="A57:R57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -25973,7 +25986,7 @@
       <c r="R54" s="210"/>
     </row>
     <row r="55" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="192" t="s">
+      <c r="A55" s="205" t="s">
         <v>392</v>
       </c>
       <c r="B55" s="209"/>
@@ -26039,26 +26052,26 @@
       <c r="R57" s="207"/>
     </row>
     <row r="58" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="192" t="s">
+      <c r="A58" s="205" t="s">
         <v>384</v>
       </c>
-      <c r="B58" s="192"/>
-      <c r="C58" s="192"/>
-      <c r="D58" s="192"/>
-      <c r="E58" s="192"/>
-      <c r="F58" s="192"/>
-      <c r="G58" s="192"/>
-      <c r="H58" s="192"/>
-      <c r="I58" s="192"/>
-      <c r="J58" s="192"/>
-      <c r="K58" s="192"/>
-      <c r="L58" s="192"/>
-      <c r="M58" s="192"/>
-      <c r="N58" s="192"/>
-      <c r="O58" s="192"/>
-      <c r="P58" s="192"/>
-      <c r="Q58" s="192"/>
-      <c r="R58" s="192"/>
+      <c r="B58" s="205"/>
+      <c r="C58" s="205"/>
+      <c r="D58" s="205"/>
+      <c r="E58" s="205"/>
+      <c r="F58" s="205"/>
+      <c r="G58" s="205"/>
+      <c r="H58" s="205"/>
+      <c r="I58" s="205"/>
+      <c r="J58" s="205"/>
+      <c r="K58" s="205"/>
+      <c r="L58" s="205"/>
+      <c r="M58" s="205"/>
+      <c r="N58" s="205"/>
+      <c r="O58" s="205"/>
+      <c r="P58" s="205"/>
+      <c r="Q58" s="205"/>
+      <c r="R58" s="205"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -26076,15 +26089,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1:R1048576"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -29130,8 +29143,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
   <dimension ref="A1:R60"/>
@@ -29161,7 +29174,7 @@
       <c r="G1" s="217"/>
       <c r="H1" s="217"/>
     </row>
-    <row r="2" spans="1:8" ht="39" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="42" x14ac:dyDescent="0.15">
       <c r="A2" s="76"/>
       <c r="B2" s="71">
         <v>2009</v>
@@ -30550,14 +30563,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
     <tabColor theme="6"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:U60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="U9" sqref="U9"/>
     </sheetView>
@@ -33659,8 +33672,8 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
   <dimension ref="A1:AO64"/>
@@ -33783,7 +33796,7 @@
       <c r="AN2" s="223"/>
       <c r="AO2" s="223"/>
     </row>
-    <row r="3" spans="1:41" s="79" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:41" s="79" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A3" s="225"/>
       <c r="B3" s="100" t="s">
         <v>163</v>
@@ -33896,7 +33909,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="4" spans="1:41" ht="52" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:41" ht="56" x14ac:dyDescent="0.15">
       <c r="A4" s="107" t="s">
         <v>0</v>
       </c>
@@ -33998,7 +34011,7 @@
       <c r="AN5" s="117"/>
       <c r="AO5" s="118"/>
     </row>
-    <row r="6" spans="1:41" ht="65" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:41" ht="84" x14ac:dyDescent="0.15">
       <c r="A6" s="88" t="s">
         <v>2</v>
       </c>
@@ -34145,7 +34158,7 @@
       <c r="AN8" s="117"/>
       <c r="AO8" s="118"/>
     </row>
-    <row r="9" spans="1:41" ht="78" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:41" ht="84" x14ac:dyDescent="0.15">
       <c r="A9" s="226" t="s">
         <v>5</v>
       </c>
@@ -34196,7 +34209,7 @@
       <c r="AN9" s="126"/>
       <c r="AO9" s="127"/>
     </row>
-    <row r="10" spans="1:41" ht="26" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:41" ht="28" x14ac:dyDescent="0.15">
       <c r="A10" s="228"/>
       <c r="B10" s="95"/>
       <c r="C10" s="89"/>
@@ -34386,7 +34399,7 @@
       <c r="AN13" s="117"/>
       <c r="AO13" s="118"/>
     </row>
-    <row r="14" spans="1:41" ht="26" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:41" ht="28" x14ac:dyDescent="0.15">
       <c r="A14" s="88" t="s">
         <v>8</v>
       </c>
@@ -34437,7 +34450,7 @@
       <c r="AN14" s="117"/>
       <c r="AO14" s="118"/>
     </row>
-    <row r="15" spans="1:41" ht="39" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:41" ht="42" x14ac:dyDescent="0.15">
       <c r="A15" s="226" t="s">
         <v>9</v>
       </c>
@@ -34488,7 +34501,7 @@
       <c r="AN15" s="126"/>
       <c r="AO15" s="127"/>
     </row>
-    <row r="16" spans="1:41" ht="143" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:41" ht="154" x14ac:dyDescent="0.15">
       <c r="A16" s="228"/>
       <c r="B16" s="95"/>
       <c r="C16" s="89"/>
@@ -34612,7 +34625,7 @@
       <c r="AN17" s="117"/>
       <c r="AO17" s="118"/>
     </row>
-    <row r="18" spans="1:41" ht="143" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:41" ht="154" x14ac:dyDescent="0.15">
       <c r="A18" s="88" t="s">
         <v>11</v>
       </c>
@@ -34714,7 +34727,7 @@
       <c r="AN19" s="117"/>
       <c r="AO19" s="118"/>
     </row>
-    <row r="20" spans="1:41" ht="65" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:41" ht="70" x14ac:dyDescent="0.15">
       <c r="A20" s="88" t="s">
         <v>13</v>
       </c>
@@ -34906,7 +34919,7 @@
       <c r="AN23" s="117"/>
       <c r="AO23" s="118"/>
     </row>
-    <row r="24" spans="1:41" ht="39" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:41" ht="42" x14ac:dyDescent="0.15">
       <c r="A24" s="226" t="s">
         <v>17</v>
       </c>
@@ -34963,7 +34976,7 @@
       <c r="AN24" s="126"/>
       <c r="AO24" s="137"/>
     </row>
-    <row r="25" spans="1:41" ht="52" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:41" ht="70" x14ac:dyDescent="0.15">
       <c r="A25" s="227"/>
       <c r="B25" s="95"/>
       <c r="C25" s="89"/>
@@ -35147,7 +35160,7 @@
       <c r="AN28" s="117"/>
       <c r="AO28" s="118"/>
     </row>
-    <row r="29" spans="1:41" ht="39" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:41" ht="42" x14ac:dyDescent="0.15">
       <c r="A29" s="88" t="s">
         <v>48</v>
       </c>
@@ -35198,7 +35211,7 @@
       <c r="AN29" s="117"/>
       <c r="AO29" s="118"/>
     </row>
-    <row r="30" spans="1:41" ht="39" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:41" ht="42" x14ac:dyDescent="0.15">
       <c r="A30" s="88"/>
       <c r="B30" s="95"/>
       <c r="C30" s="89"/>
@@ -35247,7 +35260,7 @@
       <c r="AN30" s="126"/>
       <c r="AO30" s="127"/>
     </row>
-    <row r="31" spans="1:41" ht="117" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:41" ht="140" x14ac:dyDescent="0.15">
       <c r="A31" s="88" t="s">
         <v>21</v>
       </c>
@@ -35304,7 +35317,7 @@
       <c r="AN31" s="132"/>
       <c r="AO31" s="133"/>
     </row>
-    <row r="32" spans="1:41" ht="65" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:41" ht="70" x14ac:dyDescent="0.15">
       <c r="A32" s="88" t="s">
         <v>22</v>
       </c>
@@ -35355,7 +35368,7 @@
       <c r="AN32" s="117"/>
       <c r="AO32" s="118"/>
     </row>
-    <row r="33" spans="1:41" ht="65" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:41" ht="70" x14ac:dyDescent="0.15">
       <c r="A33" s="88" t="s">
         <v>23</v>
       </c>
@@ -35457,7 +35470,7 @@
       <c r="AN34" s="117"/>
       <c r="AO34" s="118"/>
     </row>
-    <row r="35" spans="1:41" ht="78" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:41" ht="84" x14ac:dyDescent="0.15">
       <c r="A35" s="88" t="s">
         <v>25</v>
       </c>
@@ -35553,7 +35566,7 @@
       <c r="AN36" s="117"/>
       <c r="AO36" s="118"/>
     </row>
-    <row r="37" spans="1:41" ht="52" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:41" ht="56" x14ac:dyDescent="0.15">
       <c r="A37" s="88" t="s">
         <v>27</v>
       </c>
@@ -35739,7 +35752,7 @@
       <c r="AN40" s="117"/>
       <c r="AO40" s="118"/>
     </row>
-    <row r="41" spans="1:41" ht="182" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:41" ht="196" x14ac:dyDescent="0.15">
       <c r="A41" s="88" t="s">
         <v>31</v>
       </c>
@@ -35898,7 +35911,7 @@
       <c r="AN43" s="117"/>
       <c r="AO43" s="118"/>
     </row>
-    <row r="44" spans="1:41" ht="91" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:41" ht="112" x14ac:dyDescent="0.15">
       <c r="A44" s="88" t="s">
         <v>34</v>
       </c>
@@ -35994,7 +36007,7 @@
       <c r="AN45" s="117"/>
       <c r="AO45" s="118"/>
     </row>
-    <row r="46" spans="1:41" ht="26" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:41" ht="28" x14ac:dyDescent="0.15">
       <c r="A46" s="88" t="s">
         <v>36</v>
       </c>
@@ -36045,7 +36058,7 @@
       <c r="AN46" s="117"/>
       <c r="AO46" s="118"/>
     </row>
-    <row r="47" spans="1:41" ht="78" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:41" ht="84" x14ac:dyDescent="0.15">
       <c r="A47" s="88" t="s">
         <v>37</v>
       </c>
@@ -36210,7 +36223,7 @@
       <c r="AN49" s="117"/>
       <c r="AO49" s="118"/>
     </row>
-    <row r="50" spans="1:41" ht="65" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:41" ht="70" x14ac:dyDescent="0.15">
       <c r="A50" s="88" t="s">
         <v>39</v>
       </c>
@@ -36432,7 +36445,7 @@
       <c r="AN53" s="117"/>
       <c r="AO53" s="118"/>
     </row>
-    <row r="54" spans="1:41" ht="52" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:41" ht="56" x14ac:dyDescent="0.15">
       <c r="A54" s="88" t="s">
         <v>43</v>
       </c>
@@ -36534,7 +36547,7 @@
       <c r="AN55" s="117"/>
       <c r="AO55" s="118"/>
     </row>
-    <row r="56" spans="1:41" ht="26" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:41" ht="28" x14ac:dyDescent="0.15">
       <c r="A56" s="88" t="s">
         <v>45</v>
       </c>
@@ -36826,8 +36839,8 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
   <dimension ref="A1:U59"/>
@@ -39881,8 +39894,8 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
   <dimension ref="A1:AO61"/>
@@ -39999,7 +40012,7 @@
       <c r="AN2" s="223"/>
       <c r="AO2" s="223"/>
     </row>
-    <row r="3" spans="1:41" s="79" customFormat="1" ht="39" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:41" s="79" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A3" s="151"/>
       <c r="B3" s="100" t="s">
         <v>163</v>
@@ -40292,7 +40305,7 @@
       <c r="AN7" s="114"/>
       <c r="AO7" s="115"/>
     </row>
-    <row r="8" spans="1:41" ht="78" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:41" ht="84" x14ac:dyDescent="0.15">
       <c r="A8" s="152" t="s">
         <v>4</v>
       </c>
@@ -40703,7 +40716,7 @@
       <c r="AN16" s="114"/>
       <c r="AO16" s="115"/>
     </row>
-    <row r="17" spans="1:41" ht="65" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:41" ht="70" x14ac:dyDescent="0.15">
       <c r="A17" s="226" t="s">
         <v>12</v>
       </c>
@@ -40760,7 +40773,7 @@
       <c r="AN17" s="126"/>
       <c r="AO17" s="129"/>
     </row>
-    <row r="18" spans="1:41" ht="78" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:41" ht="84" x14ac:dyDescent="0.15">
       <c r="A18" s="228"/>
       <c r="B18" s="95"/>
       <c r="C18" s="89"/>
